--- a/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
+++ b/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC4DE3-989C-434D-9BDA-EEFD10A7DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B760DB6D-994F-4BAB-A6A9-A57C1894B406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadros de Registro de Evaluaci" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>N°</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>N-º NIE</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
   <si>
     <t>ÁREA</t>
@@ -217,6 +214,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -235,17 +233,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -279,7 +280,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +333,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,12 +746,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,6 +828,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,6 +866,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,8 +1224,8 @@
   </sheetPr>
   <dimension ref="A1:BZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A52" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67:O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,157 +1240,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="A1" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+    </row>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+    </row>
+    <row r="4" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-    </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-    </row>
-    <row r="4" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -1385,217 +1398,217 @@
       <c r="AG4" s="7"/>
     </row>
     <row r="5" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
+      <c r="A5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
     </row>
     <row r="6" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="49"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+    </row>
+    <row r="7" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="C7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="51"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-    </row>
-    <row r="7" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="51"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="49"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
     </row>
     <row r="8" spans="1:78" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
     </row>
     <row r="9" spans="1:78" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
     </row>
     <row r="10" spans="1:78" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -1673,14 +1686,14 @@
       <c r="BZ10" s="14"/>
     </row>
     <row r="11" spans="1:78" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>32</v>
+      <c r="C11" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5616,8 +5629,8 @@
       <c r="A59" s="3">
         <v>48</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -5695,11 +5708,11 @@
       <c r="BZ59" s="8"/>
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A60" s="54">
+      <c r="A60" s="52">
         <v>49</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -5777,11 +5790,11 @@
       <c r="BZ60" s="8"/>
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A61" s="54">
+      <c r="A61" s="52">
         <v>50</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -5859,10 +5872,10 @@
       <c r="BZ61" s="8"/>
     </row>
     <row r="63" spans="1:78" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="63"/>
+      <c r="A63" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="62"/>
       <c r="C63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -5874,21 +5887,11 @@
       <c r="L63" s="24"/>
       <c r="N63" s="24"/>
       <c r="O63" s="24"/>
-      <c r="AL63" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM63" s="56"/>
-      <c r="AN63" s="56"/>
-      <c r="AO63" s="56"/>
-      <c r="AP63" s="56"/>
-      <c r="AQ63" s="56"/>
-      <c r="AR63" s="56"/>
-      <c r="AS63" s="56"/>
     </row>
     <row r="64" spans="1:78" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
@@ -5899,19 +5902,29 @@
       <c r="L64" s="24"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
-      <c r="AL64" s="25"/>
-      <c r="AM64" s="25"/>
-      <c r="AN64" s="25"/>
-      <c r="AO64" s="25"/>
-      <c r="AP64" s="25"/>
-      <c r="AQ64" s="25"/>
-      <c r="AR64" s="25"/>
-      <c r="AS64" s="25"/>
-    </row>
-    <row r="65" spans="1:45" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U64" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="67"/>
+      <c r="AL64" s="54"/>
+      <c r="AM64" s="54"/>
+      <c r="AN64" s="54"/>
+      <c r="AO64" s="54"/>
+      <c r="AP64" s="54"/>
+      <c r="AQ64" s="54"/>
+      <c r="AR64" s="54"/>
+      <c r="AS64" s="54"/>
+    </row>
+    <row r="65" spans="1:29" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
@@ -5922,153 +5935,140 @@
       <c r="L65" s="24"/>
       <c r="N65" s="24"/>
       <c r="O65" s="24"/>
-      <c r="AL65" s="25"/>
-      <c r="AM65" s="25"/>
-      <c r="AN65" s="25"/>
-      <c r="AO65" s="25"/>
-      <c r="AP65" s="25"/>
-      <c r="AQ65" s="25"/>
-      <c r="AR65" s="25"/>
-      <c r="AS65" s="25"/>
-    </row>
-    <row r="66" spans="1:45" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U65" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="V65" s="68"/>
+      <c r="W65" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65" s="69"/>
+      <c r="Y65" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z65" s="69"/>
+      <c r="AA65" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB65" s="69"/>
+    </row>
+    <row r="66" spans="1:29" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="61"/>
-      <c r="AA66" s="61"/>
-      <c r="AB66" s="61"/>
-      <c r="AL66" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM66" s="56"/>
-      <c r="AN66" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO66" s="66"/>
-      <c r="AP66" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ66" s="66"/>
-      <c r="AR66" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS66" s="66"/>
-    </row>
-    <row r="67" spans="1:45" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="M67" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="T67" s="60"/>
-      <c r="U67" s="60"/>
-      <c r="V67" s="60"/>
-      <c r="W67" s="60"/>
-      <c r="X67" s="60"/>
-      <c r="Y67" s="60"/>
-      <c r="Z67" s="60"/>
-      <c r="AA67" s="60"/>
-      <c r="AB67" s="60"/>
-      <c r="AL67" s="66" t="s">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="60"/>
+      <c r="U66" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AM67" s="66"/>
-      <c r="AN67" s="64"/>
-      <c r="AO67" s="64"/>
-      <c r="AP67" s="64"/>
-      <c r="AQ67" s="64"/>
-      <c r="AR67" s="64"/>
-      <c r="AS67" s="64"/>
-    </row>
-    <row r="68" spans="1:45" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="62" t="s">
+      <c r="V66" s="65"/>
+      <c r="W66" s="63"/>
+      <c r="X66" s="63"/>
+      <c r="Y66" s="63"/>
+      <c r="Z66" s="63"/>
+      <c r="AA66" s="63"/>
+      <c r="AB66" s="63"/>
+    </row>
+    <row r="67" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="U67" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="V67" s="65"/>
+      <c r="W67" s="63"/>
+      <c r="X67" s="63"/>
+      <c r="Y67" s="63"/>
+      <c r="Z67" s="63"/>
+      <c r="AA67" s="63"/>
+      <c r="AB67" s="63"/>
+    </row>
+    <row r="68" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="25"/>
+      <c r="B68" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="64"/>
+      <c r="G68" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="U68" s="62"/>
-      <c r="V68" s="62"/>
-      <c r="W68" s="62"/>
-      <c r="X68" s="62"/>
-      <c r="Y68" s="62"/>
-      <c r="Z68" s="62"/>
-      <c r="AA68" s="62"/>
-      <c r="AB68" s="62"/>
-      <c r="AC68" s="28"/>
-      <c r="AL68" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM68" s="66"/>
-      <c r="AN68" s="64"/>
-      <c r="AO68" s="64"/>
-      <c r="AP68" s="64"/>
-      <c r="AQ68" s="64"/>
-      <c r="AR68" s="64"/>
-      <c r="AS68" s="64"/>
-    </row>
-    <row r="69" spans="1:45" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="S68" s="26"/>
+      <c r="U68" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="V68" s="55"/>
+      <c r="W68" s="56">
+        <f>SUM(W66:W67)</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56">
+        <f>SUM(Y66:Y67)</f>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="56">
+        <f>SUM(AA66:AA67)</f>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="26"/>
+    </row>
+    <row r="69" spans="1:29" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="AL69" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="57">
-        <f>SUM(AN67:AN68)</f>
-        <v>0</v>
-      </c>
-      <c r="AO69" s="57"/>
-      <c r="AP69" s="57">
-        <f>SUM(AP67:AP68)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ69" s="57"/>
-      <c r="AR69" s="57">
-        <f>SUM(AR67:AR68)</f>
-        <v>0</v>
-      </c>
-      <c r="AS69" s="57"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AL67:AM67"/>
-    <mergeCell ref="AN67:AO67"/>
-    <mergeCell ref="AP67:AQ67"/>
-    <mergeCell ref="AL63:AS63"/>
-    <mergeCell ref="AL66:AM66"/>
-    <mergeCell ref="AN66:AO66"/>
-    <mergeCell ref="AP66:AQ66"/>
-    <mergeCell ref="AR66:AS66"/>
-    <mergeCell ref="AL69:AM69"/>
-    <mergeCell ref="AN69:AO69"/>
-    <mergeCell ref="AP69:AQ69"/>
-    <mergeCell ref="AR69:AS69"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="U64:AB64"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="U68:V68"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="AA68:AB68"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="T67:AB67"/>
-    <mergeCell ref="T66:AB66"/>
-    <mergeCell ref="T68:AB68"/>
+    <mergeCell ref="G67:O67"/>
+    <mergeCell ref="G66:O66"/>
+    <mergeCell ref="G68:O68"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="AR67:AS67"/>
+    <mergeCell ref="AA66:AB66"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="AL68:AM68"/>
-    <mergeCell ref="AN68:AO68"/>
-    <mergeCell ref="AP68:AQ68"/>
-    <mergeCell ref="AR68:AS68"/>
+    <mergeCell ref="U67:V67"/>
+    <mergeCell ref="W67:X67"/>
+    <mergeCell ref="Y67:Z67"/>
+    <mergeCell ref="AA67:AB67"/>
     <mergeCell ref="B67:C67"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:BZ61">
@@ -6094,6 +6094,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010032F0E888B6764B4E8CDD7F28321DF0F7" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="afe6adf82d2bdede688841979614f9ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xmlns:ns4="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cb2dbc12baf1cd310a3ef37e0dd4902" ns3:_="" ns4:_="">
     <xsd:import namespace="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
@@ -6346,24 +6363,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE5916B-7F34-4D0A-90B5-055C50AB35B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6380,29 +6405,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
+++ b/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A741669-57C7-4FEF-B022-B3C65913385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC610F0C-6FBF-40C7-B452-1620F29F2132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,6 +816,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,32 +861,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,8 +1215,8 @@
   </sheetPr>
   <dimension ref="A1:BZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,11 +1595,11 @@
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:78" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1850,81 +1850,81 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="47"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="69"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="69"/>
-      <c r="BI13" s="69"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="69"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="69"/>
-      <c r="BP13" s="69"/>
-      <c r="BQ13" s="69"/>
-      <c r="BR13" s="69"/>
-      <c r="BS13" s="69"/>
-      <c r="BT13" s="69"/>
-      <c r="BU13" s="69"/>
-      <c r="BV13" s="69"/>
-      <c r="BW13" s="69"/>
-      <c r="BX13" s="69"/>
-      <c r="BY13" s="69"/>
-      <c r="BZ13" s="69"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="54"/>
+      <c r="BM13" s="54"/>
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
+      <c r="BP13" s="54"/>
+      <c r="BQ13" s="54"/>
+      <c r="BR13" s="54"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="54"/>
+      <c r="BU13" s="54"/>
+      <c r="BV13" s="54"/>
+      <c r="BW13" s="54"/>
+      <c r="BX13" s="54"/>
+      <c r="BY13" s="54"/>
+      <c r="BZ13" s="54"/>
     </row>
     <row r="14" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1932,81 +1932,81 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="47"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="69"/>
-      <c r="BD14" s="69"/>
-      <c r="BE14" s="69"/>
-      <c r="BF14" s="69"/>
-      <c r="BG14" s="69"/>
-      <c r="BH14" s="69"/>
-      <c r="BI14" s="69"/>
-      <c r="BJ14" s="69"/>
-      <c r="BK14" s="69"/>
-      <c r="BL14" s="69"/>
-      <c r="BM14" s="69"/>
-      <c r="BN14" s="69"/>
-      <c r="BO14" s="69"/>
-      <c r="BP14" s="69"/>
-      <c r="BQ14" s="69"/>
-      <c r="BR14" s="69"/>
-      <c r="BS14" s="69"/>
-      <c r="BT14" s="69"/>
-      <c r="BU14" s="69"/>
-      <c r="BV14" s="69"/>
-      <c r="BW14" s="69"/>
-      <c r="BX14" s="69"/>
-      <c r="BY14" s="69"/>
-      <c r="BZ14" s="69"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="54"/>
+      <c r="BA14" s="54"/>
+      <c r="BB14" s="54"/>
+      <c r="BC14" s="54"/>
+      <c r="BD14" s="54"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="54"/>
+      <c r="BI14" s="54"/>
+      <c r="BJ14" s="54"/>
+      <c r="BK14" s="54"/>
+      <c r="BL14" s="54"/>
+      <c r="BM14" s="54"/>
+      <c r="BN14" s="54"/>
+      <c r="BO14" s="54"/>
+      <c r="BP14" s="54"/>
+      <c r="BQ14" s="54"/>
+      <c r="BR14" s="54"/>
+      <c r="BS14" s="54"/>
+      <c r="BT14" s="54"/>
+      <c r="BU14" s="54"/>
+      <c r="BV14" s="54"/>
+      <c r="BW14" s="54"/>
+      <c r="BX14" s="54"/>
+      <c r="BY14" s="54"/>
+      <c r="BZ14" s="54"/>
     </row>
     <row r="15" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2014,81 +2014,81 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="69"/>
-      <c r="BH15" s="69"/>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="69"/>
-      <c r="BK15" s="69"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="69"/>
-      <c r="BN15" s="69"/>
-      <c r="BO15" s="69"/>
-      <c r="BP15" s="69"/>
-      <c r="BQ15" s="69"/>
-      <c r="BR15" s="69"/>
-      <c r="BS15" s="69"/>
-      <c r="BT15" s="69"/>
-      <c r="BU15" s="69"/>
-      <c r="BV15" s="69"/>
-      <c r="BW15" s="69"/>
-      <c r="BX15" s="69"/>
-      <c r="BY15" s="69"/>
-      <c r="BZ15" s="69"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="54"/>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="54"/>
+      <c r="BD15" s="54"/>
+      <c r="BE15" s="54"/>
+      <c r="BF15" s="54"/>
+      <c r="BG15" s="54"/>
+      <c r="BH15" s="54"/>
+      <c r="BI15" s="54"/>
+      <c r="BJ15" s="54"/>
+      <c r="BK15" s="54"/>
+      <c r="BL15" s="54"/>
+      <c r="BM15" s="54"/>
+      <c r="BN15" s="54"/>
+      <c r="BO15" s="54"/>
+      <c r="BP15" s="54"/>
+      <c r="BQ15" s="54"/>
+      <c r="BR15" s="54"/>
+      <c r="BS15" s="54"/>
+      <c r="BT15" s="54"/>
+      <c r="BU15" s="54"/>
+      <c r="BV15" s="54"/>
+      <c r="BW15" s="54"/>
+      <c r="BX15" s="54"/>
+      <c r="BY15" s="54"/>
+      <c r="BZ15" s="54"/>
     </row>
     <row r="16" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2096,81 +2096,81 @@
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="47"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="69"/>
-      <c r="BF16" s="69"/>
-      <c r="BG16" s="69"/>
-      <c r="BH16" s="69"/>
-      <c r="BI16" s="69"/>
-      <c r="BJ16" s="69"/>
-      <c r="BK16" s="69"/>
-      <c r="BL16" s="69"/>
-      <c r="BM16" s="69"/>
-      <c r="BN16" s="69"/>
-      <c r="BO16" s="69"/>
-      <c r="BP16" s="69"/>
-      <c r="BQ16" s="69"/>
-      <c r="BR16" s="69"/>
-      <c r="BS16" s="69"/>
-      <c r="BT16" s="69"/>
-      <c r="BU16" s="69"/>
-      <c r="BV16" s="69"/>
-      <c r="BW16" s="69"/>
-      <c r="BX16" s="69"/>
-      <c r="BY16" s="69"/>
-      <c r="BZ16" s="69"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="54"/>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="54"/>
+      <c r="BJ16" s="54"/>
+      <c r="BK16" s="54"/>
+      <c r="BL16" s="54"/>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="54"/>
+      <c r="BO16" s="54"/>
+      <c r="BP16" s="54"/>
+      <c r="BQ16" s="54"/>
+      <c r="BR16" s="54"/>
+      <c r="BS16" s="54"/>
+      <c r="BT16" s="54"/>
+      <c r="BU16" s="54"/>
+      <c r="BV16" s="54"/>
+      <c r="BW16" s="54"/>
+      <c r="BX16" s="54"/>
+      <c r="BY16" s="54"/>
+      <c r="BZ16" s="54"/>
     </row>
     <row r="17" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2178,81 +2178,81 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="47"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="69"/>
-      <c r="BH17" s="69"/>
-      <c r="BI17" s="69"/>
-      <c r="BJ17" s="69"/>
-      <c r="BK17" s="69"/>
-      <c r="BL17" s="69"/>
-      <c r="BM17" s="69"/>
-      <c r="BN17" s="69"/>
-      <c r="BO17" s="69"/>
-      <c r="BP17" s="69"/>
-      <c r="BQ17" s="69"/>
-      <c r="BR17" s="69"/>
-      <c r="BS17" s="69"/>
-      <c r="BT17" s="69"/>
-      <c r="BU17" s="69"/>
-      <c r="BV17" s="69"/>
-      <c r="BW17" s="69"/>
-      <c r="BX17" s="69"/>
-      <c r="BY17" s="69"/>
-      <c r="BZ17" s="69"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="54"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
+      <c r="BI17" s="54"/>
+      <c r="BJ17" s="54"/>
+      <c r="BK17" s="54"/>
+      <c r="BL17" s="54"/>
+      <c r="BM17" s="54"/>
+      <c r="BN17" s="54"/>
+      <c r="BO17" s="54"/>
+      <c r="BP17" s="54"/>
+      <c r="BQ17" s="54"/>
+      <c r="BR17" s="54"/>
+      <c r="BS17" s="54"/>
+      <c r="BT17" s="54"/>
+      <c r="BU17" s="54"/>
+      <c r="BV17" s="54"/>
+      <c r="BW17" s="54"/>
+      <c r="BX17" s="54"/>
+      <c r="BY17" s="54"/>
+      <c r="BZ17" s="54"/>
     </row>
     <row r="18" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2260,81 +2260,81 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="47"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="69"/>
-      <c r="BH18" s="69"/>
-      <c r="BI18" s="69"/>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="69"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
-      <c r="BP18" s="69"/>
-      <c r="BQ18" s="69"/>
-      <c r="BR18" s="69"/>
-      <c r="BS18" s="69"/>
-      <c r="BT18" s="69"/>
-      <c r="BU18" s="69"/>
-      <c r="BV18" s="69"/>
-      <c r="BW18" s="69"/>
-      <c r="BX18" s="69"/>
-      <c r="BY18" s="69"/>
-      <c r="BZ18" s="69"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
+      <c r="BQ18" s="54"/>
+      <c r="BR18" s="54"/>
+      <c r="BS18" s="54"/>
+      <c r="BT18" s="54"/>
+      <c r="BU18" s="54"/>
+      <c r="BV18" s="54"/>
+      <c r="BW18" s="54"/>
+      <c r="BX18" s="54"/>
+      <c r="BY18" s="54"/>
+      <c r="BZ18" s="54"/>
     </row>
     <row r="19" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2342,81 +2342,81 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="47"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
-      <c r="BF19" s="69"/>
-      <c r="BG19" s="69"/>
-      <c r="BH19" s="69"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="69"/>
-      <c r="BL19" s="69"/>
-      <c r="BM19" s="69"/>
-      <c r="BN19" s="69"/>
-      <c r="BO19" s="69"/>
-      <c r="BP19" s="69"/>
-      <c r="BQ19" s="69"/>
-      <c r="BR19" s="69"/>
-      <c r="BS19" s="69"/>
-      <c r="BT19" s="69"/>
-      <c r="BU19" s="69"/>
-      <c r="BV19" s="69"/>
-      <c r="BW19" s="69"/>
-      <c r="BX19" s="69"/>
-      <c r="BY19" s="69"/>
-      <c r="BZ19" s="69"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="54"/>
+      <c r="BB19" s="54"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="54"/>
+      <c r="BI19" s="54"/>
+      <c r="BJ19" s="54"/>
+      <c r="BK19" s="54"/>
+      <c r="BL19" s="54"/>
+      <c r="BM19" s="54"/>
+      <c r="BN19" s="54"/>
+      <c r="BO19" s="54"/>
+      <c r="BP19" s="54"/>
+      <c r="BQ19" s="54"/>
+      <c r="BR19" s="54"/>
+      <c r="BS19" s="54"/>
+      <c r="BT19" s="54"/>
+      <c r="BU19" s="54"/>
+      <c r="BV19" s="54"/>
+      <c r="BW19" s="54"/>
+      <c r="BX19" s="54"/>
+      <c r="BY19" s="54"/>
+      <c r="BZ19" s="54"/>
     </row>
     <row r="20" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2424,81 +2424,81 @@
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="47"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="69"/>
-      <c r="AN20" s="69"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="69"/>
-      <c r="BF20" s="69"/>
-      <c r="BG20" s="69"/>
-      <c r="BH20" s="69"/>
-      <c r="BI20" s="69"/>
-      <c r="BJ20" s="69"/>
-      <c r="BK20" s="69"/>
-      <c r="BL20" s="69"/>
-      <c r="BM20" s="69"/>
-      <c r="BN20" s="69"/>
-      <c r="BO20" s="69"/>
-      <c r="BP20" s="69"/>
-      <c r="BQ20" s="69"/>
-      <c r="BR20" s="69"/>
-      <c r="BS20" s="69"/>
-      <c r="BT20" s="69"/>
-      <c r="BU20" s="69"/>
-      <c r="BV20" s="69"/>
-      <c r="BW20" s="69"/>
-      <c r="BX20" s="69"/>
-      <c r="BY20" s="69"/>
-      <c r="BZ20" s="69"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="54"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="54"/>
+      <c r="AV20" s="54"/>
+      <c r="AW20" s="54"/>
+      <c r="AX20" s="54"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="54"/>
+      <c r="BA20" s="54"/>
+      <c r="BB20" s="54"/>
+      <c r="BC20" s="54"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="54"/>
+      <c r="BF20" s="54"/>
+      <c r="BG20" s="54"/>
+      <c r="BH20" s="54"/>
+      <c r="BI20" s="54"/>
+      <c r="BJ20" s="54"/>
+      <c r="BK20" s="54"/>
+      <c r="BL20" s="54"/>
+      <c r="BM20" s="54"/>
+      <c r="BN20" s="54"/>
+      <c r="BO20" s="54"/>
+      <c r="BP20" s="54"/>
+      <c r="BQ20" s="54"/>
+      <c r="BR20" s="54"/>
+      <c r="BS20" s="54"/>
+      <c r="BT20" s="54"/>
+      <c r="BU20" s="54"/>
+      <c r="BV20" s="54"/>
+      <c r="BW20" s="54"/>
+      <c r="BX20" s="54"/>
+      <c r="BY20" s="54"/>
+      <c r="BZ20" s="54"/>
     </row>
     <row r="21" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2506,81 +2506,81 @@
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="47"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
-      <c r="BF21" s="69"/>
-      <c r="BG21" s="69"/>
-      <c r="BH21" s="69"/>
-      <c r="BI21" s="69"/>
-      <c r="BJ21" s="69"/>
-      <c r="BK21" s="69"/>
-      <c r="BL21" s="69"/>
-      <c r="BM21" s="69"/>
-      <c r="BN21" s="69"/>
-      <c r="BO21" s="69"/>
-      <c r="BP21" s="69"/>
-      <c r="BQ21" s="69"/>
-      <c r="BR21" s="69"/>
-      <c r="BS21" s="69"/>
-      <c r="BT21" s="69"/>
-      <c r="BU21" s="69"/>
-      <c r="BV21" s="69"/>
-      <c r="BW21" s="69"/>
-      <c r="BX21" s="69"/>
-      <c r="BY21" s="69"/>
-      <c r="BZ21" s="69"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
+      <c r="BP21" s="54"/>
+      <c r="BQ21" s="54"/>
+      <c r="BR21" s="54"/>
+      <c r="BS21" s="54"/>
+      <c r="BT21" s="54"/>
+      <c r="BU21" s="54"/>
+      <c r="BV21" s="54"/>
+      <c r="BW21" s="54"/>
+      <c r="BX21" s="54"/>
+      <c r="BY21" s="54"/>
+      <c r="BZ21" s="54"/>
     </row>
     <row r="22" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -2588,81 +2588,81 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="47"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="69"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="69"/>
-      <c r="BB22" s="69"/>
-      <c r="BC22" s="69"/>
-      <c r="BD22" s="69"/>
-      <c r="BE22" s="69"/>
-      <c r="BF22" s="69"/>
-      <c r="BG22" s="69"/>
-      <c r="BH22" s="69"/>
-      <c r="BI22" s="69"/>
-      <c r="BJ22" s="69"/>
-      <c r="BK22" s="69"/>
-      <c r="BL22" s="69"/>
-      <c r="BM22" s="69"/>
-      <c r="BN22" s="69"/>
-      <c r="BO22" s="69"/>
-      <c r="BP22" s="69"/>
-      <c r="BQ22" s="69"/>
-      <c r="BR22" s="69"/>
-      <c r="BS22" s="69"/>
-      <c r="BT22" s="69"/>
-      <c r="BU22" s="69"/>
-      <c r="BV22" s="69"/>
-      <c r="BW22" s="69"/>
-      <c r="BX22" s="69"/>
-      <c r="BY22" s="69"/>
-      <c r="BZ22" s="69"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="54"/>
+      <c r="AO22" s="54"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="54"/>
+      <c r="AU22" s="54"/>
+      <c r="AV22" s="54"/>
+      <c r="AW22" s="54"/>
+      <c r="AX22" s="54"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="54"/>
+      <c r="BA22" s="54"/>
+      <c r="BB22" s="54"/>
+      <c r="BC22" s="54"/>
+      <c r="BD22" s="54"/>
+      <c r="BE22" s="54"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="54"/>
+      <c r="BH22" s="54"/>
+      <c r="BI22" s="54"/>
+      <c r="BJ22" s="54"/>
+      <c r="BK22" s="54"/>
+      <c r="BL22" s="54"/>
+      <c r="BM22" s="54"/>
+      <c r="BN22" s="54"/>
+      <c r="BO22" s="54"/>
+      <c r="BP22" s="54"/>
+      <c r="BQ22" s="54"/>
+      <c r="BR22" s="54"/>
+      <c r="BS22" s="54"/>
+      <c r="BT22" s="54"/>
+      <c r="BU22" s="54"/>
+      <c r="BV22" s="54"/>
+      <c r="BW22" s="54"/>
+      <c r="BX22" s="54"/>
+      <c r="BY22" s="54"/>
+      <c r="BZ22" s="54"/>
     </row>
     <row r="23" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2670,81 +2670,81 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="48"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="69"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="69"/>
-      <c r="AS23" s="69"/>
-      <c r="AT23" s="69"/>
-      <c r="AU23" s="69"/>
-      <c r="AV23" s="69"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="69"/>
-      <c r="BD23" s="69"/>
-      <c r="BE23" s="69"/>
-      <c r="BF23" s="69"/>
-      <c r="BG23" s="69"/>
-      <c r="BH23" s="69"/>
-      <c r="BI23" s="69"/>
-      <c r="BJ23" s="69"/>
-      <c r="BK23" s="69"/>
-      <c r="BL23" s="69"/>
-      <c r="BM23" s="69"/>
-      <c r="BN23" s="69"/>
-      <c r="BO23" s="69"/>
-      <c r="BP23" s="69"/>
-      <c r="BQ23" s="69"/>
-      <c r="BR23" s="69"/>
-      <c r="BS23" s="69"/>
-      <c r="BT23" s="69"/>
-      <c r="BU23" s="69"/>
-      <c r="BV23" s="69"/>
-      <c r="BW23" s="69"/>
-      <c r="BX23" s="69"/>
-      <c r="BY23" s="69"/>
-      <c r="BZ23" s="69"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="54"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="54"/>
+      <c r="BA23" s="54"/>
+      <c r="BB23" s="54"/>
+      <c r="BC23" s="54"/>
+      <c r="BD23" s="54"/>
+      <c r="BE23" s="54"/>
+      <c r="BF23" s="54"/>
+      <c r="BG23" s="54"/>
+      <c r="BH23" s="54"/>
+      <c r="BI23" s="54"/>
+      <c r="BJ23" s="54"/>
+      <c r="BK23" s="54"/>
+      <c r="BL23" s="54"/>
+      <c r="BM23" s="54"/>
+      <c r="BN23" s="54"/>
+      <c r="BO23" s="54"/>
+      <c r="BP23" s="54"/>
+      <c r="BQ23" s="54"/>
+      <c r="BR23" s="54"/>
+      <c r="BS23" s="54"/>
+      <c r="BT23" s="54"/>
+      <c r="BU23" s="54"/>
+      <c r="BV23" s="54"/>
+      <c r="BW23" s="54"/>
+      <c r="BX23" s="54"/>
+      <c r="BY23" s="54"/>
+      <c r="BZ23" s="54"/>
     </row>
     <row r="24" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2752,81 +2752,81 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="69"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69"/>
-      <c r="BA24" s="69"/>
-      <c r="BB24" s="69"/>
-      <c r="BC24" s="69"/>
-      <c r="BD24" s="69"/>
-      <c r="BE24" s="69"/>
-      <c r="BF24" s="69"/>
-      <c r="BG24" s="69"/>
-      <c r="BH24" s="69"/>
-      <c r="BI24" s="69"/>
-      <c r="BJ24" s="69"/>
-      <c r="BK24" s="69"/>
-      <c r="BL24" s="69"/>
-      <c r="BM24" s="69"/>
-      <c r="BN24" s="69"/>
-      <c r="BO24" s="69"/>
-      <c r="BP24" s="69"/>
-      <c r="BQ24" s="69"/>
-      <c r="BR24" s="69"/>
-      <c r="BS24" s="69"/>
-      <c r="BT24" s="69"/>
-      <c r="BU24" s="69"/>
-      <c r="BV24" s="69"/>
-      <c r="BW24" s="69"/>
-      <c r="BX24" s="69"/>
-      <c r="BY24" s="69"/>
-      <c r="BZ24" s="69"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="54"/>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="54"/>
+      <c r="AM24" s="54"/>
+      <c r="AN24" s="54"/>
+      <c r="AO24" s="54"/>
+      <c r="AP24" s="54"/>
+      <c r="AQ24" s="54"/>
+      <c r="AR24" s="54"/>
+      <c r="AS24" s="54"/>
+      <c r="AT24" s="54"/>
+      <c r="AU24" s="54"/>
+      <c r="AV24" s="54"/>
+      <c r="AW24" s="54"/>
+      <c r="AX24" s="54"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="54"/>
+      <c r="BA24" s="54"/>
+      <c r="BB24" s="54"/>
+      <c r="BC24" s="54"/>
+      <c r="BD24" s="54"/>
+      <c r="BE24" s="54"/>
+      <c r="BF24" s="54"/>
+      <c r="BG24" s="54"/>
+      <c r="BH24" s="54"/>
+      <c r="BI24" s="54"/>
+      <c r="BJ24" s="54"/>
+      <c r="BK24" s="54"/>
+      <c r="BL24" s="54"/>
+      <c r="BM24" s="54"/>
+      <c r="BN24" s="54"/>
+      <c r="BO24" s="54"/>
+      <c r="BP24" s="54"/>
+      <c r="BQ24" s="54"/>
+      <c r="BR24" s="54"/>
+      <c r="BS24" s="54"/>
+      <c r="BT24" s="54"/>
+      <c r="BU24" s="54"/>
+      <c r="BV24" s="54"/>
+      <c r="BW24" s="54"/>
+      <c r="BX24" s="54"/>
+      <c r="BY24" s="54"/>
+      <c r="BZ24" s="54"/>
     </row>
     <row r="25" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -2834,81 +2834,81 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="48"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="69"/>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="69"/>
-      <c r="AW25" s="69"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="69"/>
-      <c r="BA25" s="69"/>
-      <c r="BB25" s="69"/>
-      <c r="BC25" s="69"/>
-      <c r="BD25" s="69"/>
-      <c r="BE25" s="69"/>
-      <c r="BF25" s="69"/>
-      <c r="BG25" s="69"/>
-      <c r="BH25" s="69"/>
-      <c r="BI25" s="69"/>
-      <c r="BJ25" s="69"/>
-      <c r="BK25" s="69"/>
-      <c r="BL25" s="69"/>
-      <c r="BM25" s="69"/>
-      <c r="BN25" s="69"/>
-      <c r="BO25" s="69"/>
-      <c r="BP25" s="69"/>
-      <c r="BQ25" s="69"/>
-      <c r="BR25" s="69"/>
-      <c r="BS25" s="69"/>
-      <c r="BT25" s="69"/>
-      <c r="BU25" s="69"/>
-      <c r="BV25" s="69"/>
-      <c r="BW25" s="69"/>
-      <c r="BX25" s="69"/>
-      <c r="BY25" s="69"/>
-      <c r="BZ25" s="69"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="54"/>
+      <c r="AP25" s="54"/>
+      <c r="AQ25" s="54"/>
+      <c r="AR25" s="54"/>
+      <c r="AS25" s="54"/>
+      <c r="AT25" s="54"/>
+      <c r="AU25" s="54"/>
+      <c r="AV25" s="54"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="54"/>
+      <c r="BB25" s="54"/>
+      <c r="BC25" s="54"/>
+      <c r="BD25" s="54"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="54"/>
+      <c r="BI25" s="54"/>
+      <c r="BJ25" s="54"/>
+      <c r="BK25" s="54"/>
+      <c r="BL25" s="54"/>
+      <c r="BM25" s="54"/>
+      <c r="BN25" s="54"/>
+      <c r="BO25" s="54"/>
+      <c r="BP25" s="54"/>
+      <c r="BQ25" s="54"/>
+      <c r="BR25" s="54"/>
+      <c r="BS25" s="54"/>
+      <c r="BT25" s="54"/>
+      <c r="BU25" s="54"/>
+      <c r="BV25" s="54"/>
+      <c r="BW25" s="54"/>
+      <c r="BX25" s="54"/>
+      <c r="BY25" s="54"/>
+      <c r="BZ25" s="54"/>
     </row>
     <row r="26" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -2916,81 +2916,81 @@
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="48"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="69"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="69"/>
-      <c r="BF26" s="69"/>
-      <c r="BG26" s="69"/>
-      <c r="BH26" s="69"/>
-      <c r="BI26" s="69"/>
-      <c r="BJ26" s="69"/>
-      <c r="BK26" s="69"/>
-      <c r="BL26" s="69"/>
-      <c r="BM26" s="69"/>
-      <c r="BN26" s="69"/>
-      <c r="BO26" s="69"/>
-      <c r="BP26" s="69"/>
-      <c r="BQ26" s="69"/>
-      <c r="BR26" s="69"/>
-      <c r="BS26" s="69"/>
-      <c r="BT26" s="69"/>
-      <c r="BU26" s="69"/>
-      <c r="BV26" s="69"/>
-      <c r="BW26" s="69"/>
-      <c r="BX26" s="69"/>
-      <c r="BY26" s="69"/>
-      <c r="BZ26" s="69"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="54"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="54"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="54"/>
+      <c r="BB26" s="54"/>
+      <c r="BC26" s="54"/>
+      <c r="BD26" s="54"/>
+      <c r="BE26" s="54"/>
+      <c r="BF26" s="54"/>
+      <c r="BG26" s="54"/>
+      <c r="BH26" s="54"/>
+      <c r="BI26" s="54"/>
+      <c r="BJ26" s="54"/>
+      <c r="BK26" s="54"/>
+      <c r="BL26" s="54"/>
+      <c r="BM26" s="54"/>
+      <c r="BN26" s="54"/>
+      <c r="BO26" s="54"/>
+      <c r="BP26" s="54"/>
+      <c r="BQ26" s="54"/>
+      <c r="BR26" s="54"/>
+      <c r="BS26" s="54"/>
+      <c r="BT26" s="54"/>
+      <c r="BU26" s="54"/>
+      <c r="BV26" s="54"/>
+      <c r="BW26" s="54"/>
+      <c r="BX26" s="54"/>
+      <c r="BY26" s="54"/>
+      <c r="BZ26" s="54"/>
     </row>
     <row r="27" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -2998,81 +2998,81 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="69"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="69"/>
-      <c r="AS27" s="69"/>
-      <c r="AT27" s="69"/>
-      <c r="AU27" s="69"/>
-      <c r="AV27" s="69"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="69"/>
-      <c r="BA27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BC27" s="69"/>
-      <c r="BD27" s="69"/>
-      <c r="BE27" s="69"/>
-      <c r="BF27" s="69"/>
-      <c r="BG27" s="69"/>
-      <c r="BH27" s="69"/>
-      <c r="BI27" s="69"/>
-      <c r="BJ27" s="69"/>
-      <c r="BK27" s="69"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BO27" s="69"/>
-      <c r="BP27" s="69"/>
-      <c r="BQ27" s="69"/>
-      <c r="BR27" s="69"/>
-      <c r="BS27" s="69"/>
-      <c r="BT27" s="69"/>
-      <c r="BU27" s="69"/>
-      <c r="BV27" s="69"/>
-      <c r="BW27" s="69"/>
-      <c r="BX27" s="69"/>
-      <c r="BY27" s="69"/>
-      <c r="BZ27" s="69"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="54"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="54"/>
+      <c r="AU27" s="54"/>
+      <c r="AV27" s="54"/>
+      <c r="AW27" s="54"/>
+      <c r="AX27" s="54"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="54"/>
+      <c r="BA27" s="54"/>
+      <c r="BB27" s="54"/>
+      <c r="BC27" s="54"/>
+      <c r="BD27" s="54"/>
+      <c r="BE27" s="54"/>
+      <c r="BF27" s="54"/>
+      <c r="BG27" s="54"/>
+      <c r="BH27" s="54"/>
+      <c r="BI27" s="54"/>
+      <c r="BJ27" s="54"/>
+      <c r="BK27" s="54"/>
+      <c r="BL27" s="54"/>
+      <c r="BM27" s="54"/>
+      <c r="BN27" s="54"/>
+      <c r="BO27" s="54"/>
+      <c r="BP27" s="54"/>
+      <c r="BQ27" s="54"/>
+      <c r="BR27" s="54"/>
+      <c r="BS27" s="54"/>
+      <c r="BT27" s="54"/>
+      <c r="BU27" s="54"/>
+      <c r="BV27" s="54"/>
+      <c r="BW27" s="54"/>
+      <c r="BX27" s="54"/>
+      <c r="BY27" s="54"/>
+      <c r="BZ27" s="54"/>
     </row>
     <row r="28" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -3080,81 +3080,81 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="48"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="69"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="69"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
-      <c r="BF28" s="69"/>
-      <c r="BG28" s="69"/>
-      <c r="BH28" s="69"/>
-      <c r="BI28" s="69"/>
-      <c r="BJ28" s="69"/>
-      <c r="BK28" s="69"/>
-      <c r="BL28" s="69"/>
-      <c r="BM28" s="69"/>
-      <c r="BN28" s="69"/>
-      <c r="BO28" s="69"/>
-      <c r="BP28" s="69"/>
-      <c r="BQ28" s="69"/>
-      <c r="BR28" s="69"/>
-      <c r="BS28" s="69"/>
-      <c r="BT28" s="69"/>
-      <c r="BU28" s="69"/>
-      <c r="BV28" s="69"/>
-      <c r="BW28" s="69"/>
-      <c r="BX28" s="69"/>
-      <c r="BY28" s="69"/>
-      <c r="BZ28" s="69"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="54"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="54"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="54"/>
+      <c r="AU28" s="54"/>
+      <c r="AV28" s="54"/>
+      <c r="AW28" s="54"/>
+      <c r="AX28" s="54"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="54"/>
+      <c r="BB28" s="54"/>
+      <c r="BC28" s="54"/>
+      <c r="BD28" s="54"/>
+      <c r="BE28" s="54"/>
+      <c r="BF28" s="54"/>
+      <c r="BG28" s="54"/>
+      <c r="BH28" s="54"/>
+      <c r="BI28" s="54"/>
+      <c r="BJ28" s="54"/>
+      <c r="BK28" s="54"/>
+      <c r="BL28" s="54"/>
+      <c r="BM28" s="54"/>
+      <c r="BN28" s="54"/>
+      <c r="BO28" s="54"/>
+      <c r="BP28" s="54"/>
+      <c r="BQ28" s="54"/>
+      <c r="BR28" s="54"/>
+      <c r="BS28" s="54"/>
+      <c r="BT28" s="54"/>
+      <c r="BU28" s="54"/>
+      <c r="BV28" s="54"/>
+      <c r="BW28" s="54"/>
+      <c r="BX28" s="54"/>
+      <c r="BY28" s="54"/>
+      <c r="BZ28" s="54"/>
     </row>
     <row r="29" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -3162,81 +3162,81 @@
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="69"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="69"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="69"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69"/>
-      <c r="BA29" s="69"/>
-      <c r="BB29" s="69"/>
-      <c r="BC29" s="69"/>
-      <c r="BD29" s="69"/>
-      <c r="BE29" s="69"/>
-      <c r="BF29" s="69"/>
-      <c r="BG29" s="69"/>
-      <c r="BH29" s="69"/>
-      <c r="BI29" s="69"/>
-      <c r="BJ29" s="69"/>
-      <c r="BK29" s="69"/>
-      <c r="BL29" s="69"/>
-      <c r="BM29" s="69"/>
-      <c r="BN29" s="69"/>
-      <c r="BO29" s="69"/>
-      <c r="BP29" s="69"/>
-      <c r="BQ29" s="69"/>
-      <c r="BR29" s="69"/>
-      <c r="BS29" s="69"/>
-      <c r="BT29" s="69"/>
-      <c r="BU29" s="69"/>
-      <c r="BV29" s="69"/>
-      <c r="BW29" s="69"/>
-      <c r="BX29" s="69"/>
-      <c r="BY29" s="69"/>
-      <c r="BZ29" s="69"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="54"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
+      <c r="BI29" s="54"/>
+      <c r="BJ29" s="54"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="54"/>
+      <c r="BO29" s="54"/>
+      <c r="BP29" s="54"/>
+      <c r="BQ29" s="54"/>
+      <c r="BR29" s="54"/>
+      <c r="BS29" s="54"/>
+      <c r="BT29" s="54"/>
+      <c r="BU29" s="54"/>
+      <c r="BV29" s="54"/>
+      <c r="BW29" s="54"/>
+      <c r="BX29" s="54"/>
+      <c r="BY29" s="54"/>
+      <c r="BZ29" s="54"/>
     </row>
     <row r="30" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -3244,81 +3244,81 @@
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-      <c r="AL30" s="69"/>
-      <c r="AM30" s="69"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="69"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="69"/>
-      <c r="BA30" s="69"/>
-      <c r="BB30" s="69"/>
-      <c r="BC30" s="69"/>
-      <c r="BD30" s="69"/>
-      <c r="BE30" s="69"/>
-      <c r="BF30" s="69"/>
-      <c r="BG30" s="69"/>
-      <c r="BH30" s="69"/>
-      <c r="BI30" s="69"/>
-      <c r="BJ30" s="69"/>
-      <c r="BK30" s="69"/>
-      <c r="BL30" s="69"/>
-      <c r="BM30" s="69"/>
-      <c r="BN30" s="69"/>
-      <c r="BO30" s="69"/>
-      <c r="BP30" s="69"/>
-      <c r="BQ30" s="69"/>
-      <c r="BR30" s="69"/>
-      <c r="BS30" s="69"/>
-      <c r="BT30" s="69"/>
-      <c r="BU30" s="69"/>
-      <c r="BV30" s="69"/>
-      <c r="BW30" s="69"/>
-      <c r="BX30" s="69"/>
-      <c r="BY30" s="69"/>
-      <c r="BZ30" s="69"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="54"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="54"/>
+      <c r="AX30" s="54"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="54"/>
+      <c r="BC30" s="54"/>
+      <c r="BD30" s="54"/>
+      <c r="BE30" s="54"/>
+      <c r="BF30" s="54"/>
+      <c r="BG30" s="54"/>
+      <c r="BH30" s="54"/>
+      <c r="BI30" s="54"/>
+      <c r="BJ30" s="54"/>
+      <c r="BK30" s="54"/>
+      <c r="BL30" s="54"/>
+      <c r="BM30" s="54"/>
+      <c r="BN30" s="54"/>
+      <c r="BO30" s="54"/>
+      <c r="BP30" s="54"/>
+      <c r="BQ30" s="54"/>
+      <c r="BR30" s="54"/>
+      <c r="BS30" s="54"/>
+      <c r="BT30" s="54"/>
+      <c r="BU30" s="54"/>
+      <c r="BV30" s="54"/>
+      <c r="BW30" s="54"/>
+      <c r="BX30" s="54"/>
+      <c r="BY30" s="54"/>
+      <c r="BZ30" s="54"/>
     </row>
     <row r="31" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -3326,81 +3326,81 @@
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="70"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="69"/>
-      <c r="AL31" s="69"/>
-      <c r="AM31" s="69"/>
-      <c r="AN31" s="69"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
-      <c r="AQ31" s="69"/>
-      <c r="AR31" s="69"/>
-      <c r="AS31" s="69"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="69"/>
-      <c r="AV31" s="69"/>
-      <c r="AW31" s="69"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="69"/>
-      <c r="BA31" s="69"/>
-      <c r="BB31" s="69"/>
-      <c r="BC31" s="69"/>
-      <c r="BD31" s="69"/>
-      <c r="BE31" s="69"/>
-      <c r="BF31" s="69"/>
-      <c r="BG31" s="69"/>
-      <c r="BH31" s="69"/>
-      <c r="BI31" s="69"/>
-      <c r="BJ31" s="69"/>
-      <c r="BK31" s="69"/>
-      <c r="BL31" s="69"/>
-      <c r="BM31" s="69"/>
-      <c r="BN31" s="69"/>
-      <c r="BO31" s="69"/>
-      <c r="BP31" s="69"/>
-      <c r="BQ31" s="69"/>
-      <c r="BR31" s="69"/>
-      <c r="BS31" s="69"/>
-      <c r="BT31" s="69"/>
-      <c r="BU31" s="69"/>
-      <c r="BV31" s="69"/>
-      <c r="BW31" s="69"/>
-      <c r="BX31" s="69"/>
-      <c r="BY31" s="69"/>
-      <c r="BZ31" s="69"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="54"/>
+      <c r="AV31" s="54"/>
+      <c r="AW31" s="54"/>
+      <c r="AX31" s="54"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="54"/>
+      <c r="BB31" s="54"/>
+      <c r="BC31" s="54"/>
+      <c r="BD31" s="54"/>
+      <c r="BE31" s="54"/>
+      <c r="BF31" s="54"/>
+      <c r="BG31" s="54"/>
+      <c r="BH31" s="54"/>
+      <c r="BI31" s="54"/>
+      <c r="BJ31" s="54"/>
+      <c r="BK31" s="54"/>
+      <c r="BL31" s="54"/>
+      <c r="BM31" s="54"/>
+      <c r="BN31" s="54"/>
+      <c r="BO31" s="54"/>
+      <c r="BP31" s="54"/>
+      <c r="BQ31" s="54"/>
+      <c r="BR31" s="54"/>
+      <c r="BS31" s="54"/>
+      <c r="BT31" s="54"/>
+      <c r="BU31" s="54"/>
+      <c r="BV31" s="54"/>
+      <c r="BW31" s="54"/>
+      <c r="BX31" s="54"/>
+      <c r="BY31" s="54"/>
+      <c r="BZ31" s="54"/>
     </row>
     <row r="32" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -3408,81 +3408,81 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="69"/>
-      <c r="AL32" s="69"/>
-      <c r="AM32" s="69"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="69"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="69"/>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="69"/>
-      <c r="BA32" s="69"/>
-      <c r="BB32" s="69"/>
-      <c r="BC32" s="69"/>
-      <c r="BD32" s="69"/>
-      <c r="BE32" s="69"/>
-      <c r="BF32" s="69"/>
-      <c r="BG32" s="69"/>
-      <c r="BH32" s="69"/>
-      <c r="BI32" s="69"/>
-      <c r="BJ32" s="69"/>
-      <c r="BK32" s="69"/>
-      <c r="BL32" s="69"/>
-      <c r="BM32" s="69"/>
-      <c r="BN32" s="69"/>
-      <c r="BO32" s="69"/>
-      <c r="BP32" s="69"/>
-      <c r="BQ32" s="69"/>
-      <c r="BR32" s="69"/>
-      <c r="BS32" s="69"/>
-      <c r="BT32" s="69"/>
-      <c r="BU32" s="69"/>
-      <c r="BV32" s="69"/>
-      <c r="BW32" s="69"/>
-      <c r="BX32" s="69"/>
-      <c r="BY32" s="69"/>
-      <c r="BZ32" s="69"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="54"/>
+      <c r="AJ32" s="54"/>
+      <c r="AK32" s="54"/>
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="54"/>
+      <c r="AU32" s="54"/>
+      <c r="AV32" s="54"/>
+      <c r="AW32" s="54"/>
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="54"/>
+      <c r="BB32" s="54"/>
+      <c r="BC32" s="54"/>
+      <c r="BD32" s="54"/>
+      <c r="BE32" s="54"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="54"/>
+      <c r="BI32" s="54"/>
+      <c r="BJ32" s="54"/>
+      <c r="BK32" s="54"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="54"/>
+      <c r="BN32" s="54"/>
+      <c r="BO32" s="54"/>
+      <c r="BP32" s="54"/>
+      <c r="BQ32" s="54"/>
+      <c r="BR32" s="54"/>
+      <c r="BS32" s="54"/>
+      <c r="BT32" s="54"/>
+      <c r="BU32" s="54"/>
+      <c r="BV32" s="54"/>
+      <c r="BW32" s="54"/>
+      <c r="BX32" s="54"/>
+      <c r="BY32" s="54"/>
+      <c r="BZ32" s="54"/>
     </row>
     <row r="33" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -3490,81 +3490,81 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="48"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="70"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="69"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="69"/>
-      <c r="AS33" s="69"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="69"/>
-      <c r="AV33" s="69"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="69"/>
-      <c r="BA33" s="69"/>
-      <c r="BB33" s="69"/>
-      <c r="BC33" s="69"/>
-      <c r="BD33" s="69"/>
-      <c r="BE33" s="69"/>
-      <c r="BF33" s="69"/>
-      <c r="BG33" s="69"/>
-      <c r="BH33" s="69"/>
-      <c r="BI33" s="69"/>
-      <c r="BJ33" s="69"/>
-      <c r="BK33" s="69"/>
-      <c r="BL33" s="69"/>
-      <c r="BM33" s="69"/>
-      <c r="BN33" s="69"/>
-      <c r="BO33" s="69"/>
-      <c r="BP33" s="69"/>
-      <c r="BQ33" s="69"/>
-      <c r="BR33" s="69"/>
-      <c r="BS33" s="69"/>
-      <c r="BT33" s="69"/>
-      <c r="BU33" s="69"/>
-      <c r="BV33" s="69"/>
-      <c r="BW33" s="69"/>
-      <c r="BX33" s="69"/>
-      <c r="BY33" s="69"/>
-      <c r="BZ33" s="69"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="54"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="54"/>
+      <c r="AW33" s="54"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="54"/>
+      <c r="BB33" s="54"/>
+      <c r="BC33" s="54"/>
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="54"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="54"/>
+      <c r="BI33" s="54"/>
+      <c r="BJ33" s="54"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="54"/>
+      <c r="BM33" s="54"/>
+      <c r="BN33" s="54"/>
+      <c r="BO33" s="54"/>
+      <c r="BP33" s="54"/>
+      <c r="BQ33" s="54"/>
+      <c r="BR33" s="54"/>
+      <c r="BS33" s="54"/>
+      <c r="BT33" s="54"/>
+      <c r="BU33" s="54"/>
+      <c r="BV33" s="54"/>
+      <c r="BW33" s="54"/>
+      <c r="BX33" s="54"/>
+      <c r="BY33" s="54"/>
+      <c r="BZ33" s="54"/>
     </row>
     <row r="34" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -3572,81 +3572,81 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="49"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="69"/>
-      <c r="AJ34" s="69"/>
-      <c r="AK34" s="69"/>
-      <c r="AL34" s="69"/>
-      <c r="AM34" s="69"/>
-      <c r="AN34" s="69"/>
-      <c r="AO34" s="69"/>
-      <c r="AP34" s="69"/>
-      <c r="AQ34" s="69"/>
-      <c r="AR34" s="69"/>
-      <c r="AS34" s="69"/>
-      <c r="AT34" s="69"/>
-      <c r="AU34" s="69"/>
-      <c r="AV34" s="69"/>
-      <c r="AW34" s="69"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="69"/>
-      <c r="AZ34" s="69"/>
-      <c r="BA34" s="69"/>
-      <c r="BB34" s="69"/>
-      <c r="BC34" s="69"/>
-      <c r="BD34" s="69"/>
-      <c r="BE34" s="69"/>
-      <c r="BF34" s="69"/>
-      <c r="BG34" s="69"/>
-      <c r="BH34" s="69"/>
-      <c r="BI34" s="69"/>
-      <c r="BJ34" s="69"/>
-      <c r="BK34" s="69"/>
-      <c r="BL34" s="69"/>
-      <c r="BM34" s="69"/>
-      <c r="BN34" s="69"/>
-      <c r="BO34" s="69"/>
-      <c r="BP34" s="69"/>
-      <c r="BQ34" s="69"/>
-      <c r="BR34" s="69"/>
-      <c r="BS34" s="69"/>
-      <c r="BT34" s="69"/>
-      <c r="BU34" s="69"/>
-      <c r="BV34" s="69"/>
-      <c r="BW34" s="69"/>
-      <c r="BX34" s="69"/>
-      <c r="BY34" s="69"/>
-      <c r="BZ34" s="69"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="54"/>
+      <c r="AU34" s="54"/>
+      <c r="AV34" s="54"/>
+      <c r="AW34" s="54"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
+      <c r="BB34" s="54"/>
+      <c r="BC34" s="54"/>
+      <c r="BD34" s="54"/>
+      <c r="BE34" s="54"/>
+      <c r="BF34" s="54"/>
+      <c r="BG34" s="54"/>
+      <c r="BH34" s="54"/>
+      <c r="BI34" s="54"/>
+      <c r="BJ34" s="54"/>
+      <c r="BK34" s="54"/>
+      <c r="BL34" s="54"/>
+      <c r="BM34" s="54"/>
+      <c r="BN34" s="54"/>
+      <c r="BO34" s="54"/>
+      <c r="BP34" s="54"/>
+      <c r="BQ34" s="54"/>
+      <c r="BR34" s="54"/>
+      <c r="BS34" s="54"/>
+      <c r="BT34" s="54"/>
+      <c r="BU34" s="54"/>
+      <c r="BV34" s="54"/>
+      <c r="BW34" s="54"/>
+      <c r="BX34" s="54"/>
+      <c r="BY34" s="54"/>
+      <c r="BZ34" s="54"/>
     </row>
     <row r="35" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -3654,81 +3654,81 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="49"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="69"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="69"/>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="69"/>
-      <c r="AS35" s="69"/>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="69"/>
-      <c r="AV35" s="69"/>
-      <c r="AW35" s="69"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="69"/>
-      <c r="BA35" s="69"/>
-      <c r="BB35" s="69"/>
-      <c r="BC35" s="69"/>
-      <c r="BD35" s="69"/>
-      <c r="BE35" s="69"/>
-      <c r="BF35" s="69"/>
-      <c r="BG35" s="69"/>
-      <c r="BH35" s="69"/>
-      <c r="BI35" s="69"/>
-      <c r="BJ35" s="69"/>
-      <c r="BK35" s="69"/>
-      <c r="BL35" s="69"/>
-      <c r="BM35" s="69"/>
-      <c r="BN35" s="69"/>
-      <c r="BO35" s="69"/>
-      <c r="BP35" s="69"/>
-      <c r="BQ35" s="69"/>
-      <c r="BR35" s="69"/>
-      <c r="BS35" s="69"/>
-      <c r="BT35" s="69"/>
-      <c r="BU35" s="69"/>
-      <c r="BV35" s="69"/>
-      <c r="BW35" s="69"/>
-      <c r="BX35" s="69"/>
-      <c r="BY35" s="69"/>
-      <c r="BZ35" s="69"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="54"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="54"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="54"/>
+      <c r="AV35" s="54"/>
+      <c r="AW35" s="54"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="54"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="54"/>
+      <c r="BI35" s="54"/>
+      <c r="BJ35" s="54"/>
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="54"/>
+      <c r="BN35" s="54"/>
+      <c r="BO35" s="54"/>
+      <c r="BP35" s="54"/>
+      <c r="BQ35" s="54"/>
+      <c r="BR35" s="54"/>
+      <c r="BS35" s="54"/>
+      <c r="BT35" s="54"/>
+      <c r="BU35" s="54"/>
+      <c r="BV35" s="54"/>
+      <c r="BW35" s="54"/>
+      <c r="BX35" s="54"/>
+      <c r="BY35" s="54"/>
+      <c r="BZ35" s="54"/>
     </row>
     <row r="36" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -3736,81 +3736,81 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="49"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="69"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="69"/>
-      <c r="AL36" s="69"/>
-      <c r="AM36" s="69"/>
-      <c r="AN36" s="69"/>
-      <c r="AO36" s="69"/>
-      <c r="AP36" s="69"/>
-      <c r="AQ36" s="69"/>
-      <c r="AR36" s="69"/>
-      <c r="AS36" s="69"/>
-      <c r="AT36" s="69"/>
-      <c r="AU36" s="69"/>
-      <c r="AV36" s="69"/>
-      <c r="AW36" s="69"/>
-      <c r="AX36" s="69"/>
-      <c r="AY36" s="69"/>
-      <c r="AZ36" s="69"/>
-      <c r="BA36" s="69"/>
-      <c r="BB36" s="69"/>
-      <c r="BC36" s="69"/>
-      <c r="BD36" s="69"/>
-      <c r="BE36" s="69"/>
-      <c r="BF36" s="69"/>
-      <c r="BG36" s="69"/>
-      <c r="BH36" s="69"/>
-      <c r="BI36" s="69"/>
-      <c r="BJ36" s="69"/>
-      <c r="BK36" s="69"/>
-      <c r="BL36" s="69"/>
-      <c r="BM36" s="69"/>
-      <c r="BN36" s="69"/>
-      <c r="BO36" s="69"/>
-      <c r="BP36" s="69"/>
-      <c r="BQ36" s="69"/>
-      <c r="BR36" s="69"/>
-      <c r="BS36" s="69"/>
-      <c r="BT36" s="69"/>
-      <c r="BU36" s="69"/>
-      <c r="BV36" s="69"/>
-      <c r="BW36" s="69"/>
-      <c r="BX36" s="69"/>
-      <c r="BY36" s="69"/>
-      <c r="BZ36" s="69"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="54"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
+      <c r="AQ36" s="54"/>
+      <c r="AR36" s="54"/>
+      <c r="AS36" s="54"/>
+      <c r="AT36" s="54"/>
+      <c r="AU36" s="54"/>
+      <c r="AV36" s="54"/>
+      <c r="AW36" s="54"/>
+      <c r="AX36" s="54"/>
+      <c r="AY36" s="54"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
+      <c r="BB36" s="54"/>
+      <c r="BC36" s="54"/>
+      <c r="BD36" s="54"/>
+      <c r="BE36" s="54"/>
+      <c r="BF36" s="54"/>
+      <c r="BG36" s="54"/>
+      <c r="BH36" s="54"/>
+      <c r="BI36" s="54"/>
+      <c r="BJ36" s="54"/>
+      <c r="BK36" s="54"/>
+      <c r="BL36" s="54"/>
+      <c r="BM36" s="54"/>
+      <c r="BN36" s="54"/>
+      <c r="BO36" s="54"/>
+      <c r="BP36" s="54"/>
+      <c r="BQ36" s="54"/>
+      <c r="BR36" s="54"/>
+      <c r="BS36" s="54"/>
+      <c r="BT36" s="54"/>
+      <c r="BU36" s="54"/>
+      <c r="BV36" s="54"/>
+      <c r="BW36" s="54"/>
+      <c r="BX36" s="54"/>
+      <c r="BY36" s="54"/>
+      <c r="BZ36" s="54"/>
     </row>
     <row r="37" spans="1:78" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -5863,10 +5863,10 @@
       <c r="BZ61" s="46"/>
     </row>
     <row r="63" spans="1:78" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="61"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
@@ -5893,16 +5893,16 @@
       <c r="L64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
-      <c r="U64" s="66" t="s">
+      <c r="U64" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="66"/>
-      <c r="Z64" s="66"/>
-      <c r="AA64" s="66"/>
-      <c r="AB64" s="66"/>
+      <c r="V64" s="58"/>
+      <c r="W64" s="58"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="58"/>
+      <c r="Z64" s="58"/>
+      <c r="AA64" s="58"/>
+      <c r="AB64" s="58"/>
       <c r="AL64" s="45"/>
       <c r="AM64" s="45"/>
       <c r="AN64" s="45"/>
@@ -5926,107 +5926,113 @@
       <c r="L65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
-      <c r="U65" s="67" t="s">
+      <c r="U65" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="V65" s="67"/>
-      <c r="W65" s="68" t="s">
+      <c r="V65" s="59"/>
+      <c r="W65" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="X65" s="68"/>
-      <c r="Y65" s="68" t="s">
+      <c r="X65" s="60"/>
+      <c r="Y65" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="68" t="s">
+      <c r="Z65" s="60"/>
+      <c r="AA65" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AB65" s="68"/>
+      <c r="AB65" s="60"/>
     </row>
     <row r="66" spans="1:29" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="U66" s="64" t="s">
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+      <c r="U66" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="V66" s="64"/>
-      <c r="W66" s="62"/>
-      <c r="X66" s="62"/>
-      <c r="Y66" s="62"/>
-      <c r="Z66" s="62"/>
-      <c r="AA66" s="62"/>
-      <c r="AB66" s="62"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="57"/>
+      <c r="Z66" s="57"/>
+      <c r="AA66" s="57">
+        <f>W66-Y66</f>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="57"/>
     </row>
     <row r="67" spans="1:29" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="U67" s="64" t="s">
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="U67" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="V67" s="64"/>
-      <c r="W67" s="62"/>
-      <c r="X67" s="62"/>
-      <c r="Y67" s="62"/>
-      <c r="Z67" s="62"/>
-      <c r="AA67" s="62"/>
-      <c r="AB67" s="62"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="57"/>
+      <c r="Z67" s="57"/>
+      <c r="AA67" s="57">
+        <f>W67-Y67</f>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="57"/>
     </row>
     <row r="68" spans="1:29" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="G68" s="60" t="s">
+      <c r="C68" s="69"/>
+      <c r="G68" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
       <c r="S68" s="17"/>
-      <c r="U68" s="54" t="s">
+      <c r="U68" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="V68" s="54"/>
-      <c r="W68" s="55">
+      <c r="V68" s="61"/>
+      <c r="W68" s="62">
         <f>SUM(W66:W67)</f>
         <v>0</v>
       </c>
-      <c r="X68" s="55"/>
-      <c r="Y68" s="55">
+      <c r="X68" s="62"/>
+      <c r="Y68" s="62">
         <f>SUM(Y66:Y67)</f>
         <v>0</v>
       </c>
-      <c r="Z68" s="55"/>
-      <c r="AA68" s="55">
+      <c r="Z68" s="62"/>
+      <c r="AA68" s="62">
         <f>SUM(AA66:AA67)</f>
         <v>0</v>
       </c>
-      <c r="AB68" s="55"/>
+      <c r="AB68" s="62"/>
       <c r="AC68" s="17"/>
     </row>
     <row r="69" spans="1:29" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6037,14 +6043,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="U64:AB64"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
     <mergeCell ref="U68:V68"/>
     <mergeCell ref="W68:X68"/>
     <mergeCell ref="Y68:Z68"/>
@@ -6061,6 +6059,14 @@
     <mergeCell ref="Y67:Z67"/>
     <mergeCell ref="AA67:AB67"/>
     <mergeCell ref="B67:C67"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="U64:AB64"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:BZ61">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
@@ -6085,23 +6091,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010032F0E888B6764B4E8CDD7F28321DF0F7" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="afe6adf82d2bdede688841979614f9ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xmlns:ns4="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cb2dbc12baf1cd310a3ef37e0dd4902" ns3:_="" ns4:_="">
     <xsd:import namespace="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
@@ -6354,10 +6343,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE5916B-7F34-4D0A-90B5-055C50AB35B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
+    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6380,20 +6397,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE5916B-7F34-4D0A-90B5-055C50AB35B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
-    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
+++ b/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D329A40-9D51-413D-91FD-3F3730E444B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F22F46-3FD9-4784-8593-1FDE18529890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadros de Registro de Evaluaci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -138,13 +129,7 @@
     <t>AÑO LECTIVO:</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Sin Alerta</t>
-  </si>
-  <si>
-    <t>C/N</t>
   </si>
   <si>
     <t>Con Alerta</t>
@@ -181,6 +166,12 @@
   </si>
   <si>
     <t>REGISTRO DE EVALUACIÓN DEL RENDIMIENTO ESCOLAR</t>
+  </si>
+  <si>
+    <t>S/A</t>
+  </si>
+  <si>
+    <t>C/A</t>
   </si>
 </sst>
 </file>
@@ -989,6 +980,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,39 +1037,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,15 +1045,82 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D08E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD6EDDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFEF1CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFE1CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D08E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9BC2E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1454,8 +1515,8 @@
   </sheetPr>
   <dimension ref="A1:CO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:AB1"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:CO61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,36 +1531,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
+      <c r="A1" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
       <c r="AC1" s="18"/>
       <c r="AD1" s="18"/>
       <c r="AE1" s="18"/>
@@ -1689,27 +1750,27 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="52" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>35</v>
       </c>
       <c r="N6" s="52"/>
       <c r="O6" s="53"/>
       <c r="Q6" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R6" s="57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="58"/>
       <c r="V6" s="51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W6" s="51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
@@ -1744,27 +1805,27 @@
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="L7" s="47" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7" s="47"/>
       <c r="O7" s="55"/>
       <c r="Q7" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
       <c r="U7" s="19"/>
       <c r="V7" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W7" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X7" s="46"/>
       <c r="Y7" s="46"/>
@@ -1783,35 +1844,35 @@
     </row>
     <row r="8" spans="1:93" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
-      <c r="B8" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
+      <c r="B8" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="27"/>
-      <c r="Q8" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="65"/>
+      <c r="Q8" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="77"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
       <c r="AC8" s="19"/>
@@ -1865,11 +1926,11 @@
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:93" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -6913,17 +6974,17 @@
       <c r="CO61" s="33"/>
     </row>
     <row r="63" spans="1:93" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
@@ -6944,16 +7005,16 @@
       <c r="L64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
-      <c r="U64" s="81" t="s">
+      <c r="U64" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="V64" s="81"/>
-      <c r="W64" s="81"/>
-      <c r="X64" s="81"/>
-      <c r="Y64" s="81"/>
-      <c r="Z64" s="81"/>
-      <c r="AA64" s="81"/>
-      <c r="AB64" s="81"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="82"/>
+      <c r="X64" s="82"/>
+      <c r="Y64" s="82"/>
+      <c r="Z64" s="82"/>
+      <c r="AA64" s="82"/>
+      <c r="AB64" s="82"/>
       <c r="AL64" s="32"/>
       <c r="AM64" s="32"/>
       <c r="AN64" s="32"/>
@@ -6977,113 +7038,113 @@
       <c r="L65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
-      <c r="U65" s="82" t="s">
+      <c r="U65" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="V65" s="82"/>
-      <c r="W65" s="83" t="s">
+      <c r="V65" s="83"/>
+      <c r="W65" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="X65" s="83"/>
-      <c r="Y65" s="83" t="s">
+      <c r="X65" s="84"/>
+      <c r="Y65" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="Z65" s="83"/>
-      <c r="AA65" s="83" t="s">
+      <c r="Z65" s="84"/>
+      <c r="AA65" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AB65" s="83"/>
+      <c r="AB65" s="84"/>
     </row>
     <row r="66" spans="1:29" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="74"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="74"/>
-      <c r="N66" s="74"/>
-      <c r="O66" s="74"/>
-      <c r="U66" s="79" t="s">
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="U66" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="V66" s="79"/>
-      <c r="W66" s="77"/>
-      <c r="X66" s="77"/>
-      <c r="Y66" s="77"/>
-      <c r="Z66" s="77"/>
-      <c r="AA66" s="77">
+      <c r="V66" s="73"/>
+      <c r="W66" s="71"/>
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
+      <c r="Z66" s="71"/>
+      <c r="AA66" s="71">
         <f>W66-Y66</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="77"/>
+      <c r="AB66" s="71"/>
     </row>
     <row r="67" spans="1:29" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="73"/>
-      <c r="O67" s="73"/>
-      <c r="U67" s="79" t="s">
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="U67" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="V67" s="79"/>
-      <c r="W67" s="77"/>
-      <c r="X67" s="77"/>
-      <c r="Y67" s="77"/>
-      <c r="Z67" s="77"/>
-      <c r="AA67" s="77">
+      <c r="V67" s="73"/>
+      <c r="W67" s="71"/>
+      <c r="X67" s="71"/>
+      <c r="Y67" s="71"/>
+      <c r="Z67" s="71"/>
+      <c r="AA67" s="71">
         <f>W67-Y67</f>
         <v>0</v>
       </c>
-      <c r="AB67" s="77"/>
+      <c r="AB67" s="71"/>
     </row>
     <row r="68" spans="1:29" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="78"/>
-      <c r="G68" s="75" t="s">
+      <c r="C68" s="72"/>
+      <c r="G68" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="69"/>
       <c r="S68" s="17"/>
-      <c r="U68" s="69" t="s">
+      <c r="U68" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="V68" s="69"/>
-      <c r="W68" s="70">
+      <c r="V68" s="81"/>
+      <c r="W68" s="64">
         <f>SUM(W66:W67)</f>
         <v>0</v>
       </c>
-      <c r="X68" s="70"/>
-      <c r="Y68" s="70">
+      <c r="X68" s="64"/>
+      <c r="Y68" s="64">
         <f>SUM(Y66:Y67)</f>
         <v>0</v>
       </c>
-      <c r="Z68" s="70"/>
-      <c r="AA68" s="70">
+      <c r="Z68" s="64"/>
+      <c r="AA68" s="64">
         <f>SUM(AA66:AA67)</f>
         <v>0</v>
       </c>
-      <c r="AB68" s="70"/>
+      <c r="AB68" s="64"/>
       <c r="AC68" s="17"/>
     </row>
     <row r="69" spans="1:29" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7094,6 +7155,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="U68:V68"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="U64:AB64"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AA68:AB68"/>
     <mergeCell ref="A10:C10"/>
@@ -7110,50 +7183,36 @@
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="C63:I63"/>
     <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="U68:V68"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="U64:AB64"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:CO61">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"N/H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"E/P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"SO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"SA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"C/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"NE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:CO61">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"S/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7166,11 +7225,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7427,27 +7487,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7472,9 +7522,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
+++ b/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F22F46-3FD9-4784-8593-1FDE18529890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7A073-83D3-459C-8F6A-91D1A0929FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadros de Registro de Evaluaci" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -387,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -553,15 +562,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -796,11 +796,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -853,15 +934,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -871,22 +955,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -905,12 +986,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -920,7 +1001,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -935,40 +1016,43 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -977,15 +1061,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -995,7 +1094,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,60 +1103,91 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D08E"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1089,70 +1219,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFA9D08E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BC2E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE4D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D08E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD6EDDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFEF1CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFE1CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1513,10 +1580,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:CO69"/>
+  <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:CO61"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,53 +1593,53 @@
     <col min="3" max="3" width="36.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="27" width="5" style="5" customWidth="1"/>
     <col min="28" max="28" width="5.7109375" style="5" customWidth="1"/>
-    <col min="29" max="93" width="4.7109375" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="11.42578125" style="1"/>
+    <col min="29" max="103" width="4.7109375" style="1" customWidth="1"/>
+    <col min="104" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:103" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="95"/>
       <c r="AC1" s="18"/>
       <c r="AD1" s="18"/>
       <c r="AE1" s="18"/>
       <c r="AF1" s="18"/>
       <c r="AG1" s="18"/>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="18" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1675,7 @@
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1713,7 @@
       <c r="AF3" s="18"/>
       <c r="AG3" s="18"/>
     </row>
-    <row r="4" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1688,7 +1755,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>27</v>
       </c>
@@ -1729,7 +1796,7 @@
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19"/>
     </row>
-    <row r="6" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="48" t="s">
         <v>19</v>
@@ -1787,7 +1854,7 @@
       <c r="AJ6" s="19"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="54" t="s">
         <v>20</v>
@@ -1842,37 +1909,37 @@
       <c r="AJ7" s="19"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:93" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="27"/>
-      <c r="Q8" s="75" t="s">
+      <c r="Q8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="65"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
       <c r="AC8" s="19"/>
@@ -1885,7 +1952,7 @@
       <c r="AJ8" s="19"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:93" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1925,12 +1992,12 @@
       <c r="AJ9" s="19"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:93" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:103" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2021,8 +2088,18 @@
       <c r="CM10" s="10"/>
       <c r="CN10" s="10"/>
       <c r="CO10" s="10"/>
+      <c r="CP10" s="10"/>
+      <c r="CQ10" s="10"/>
+      <c r="CR10" s="10"/>
+      <c r="CS10" s="10"/>
+      <c r="CT10" s="10"/>
+      <c r="CU10" s="10"/>
+      <c r="CV10" s="10"/>
+      <c r="CW10" s="10"/>
+      <c r="CX10" s="10"/>
+      <c r="CY10" s="10"/>
     </row>
-    <row r="11" spans="1:93" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
@@ -2122,8 +2199,18 @@
       <c r="CM11" s="40"/>
       <c r="CN11" s="40"/>
       <c r="CO11" s="40"/>
+      <c r="CP11" s="40"/>
+      <c r="CQ11" s="40"/>
+      <c r="CR11" s="40"/>
+      <c r="CS11" s="40"/>
+      <c r="CT11" s="40"/>
+      <c r="CU11" s="40"/>
+      <c r="CV11" s="40"/>
+      <c r="CW11" s="40"/>
+      <c r="CX11" s="40"/>
+      <c r="CY11" s="40"/>
     </row>
-    <row r="12" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2219,8 +2306,18 @@
       <c r="CM12" s="8"/>
       <c r="CN12" s="8"/>
       <c r="CO12" s="8"/>
+      <c r="CP12" s="8"/>
+      <c r="CQ12" s="8"/>
+      <c r="CR12" s="8"/>
+      <c r="CS12" s="8"/>
+      <c r="CT12" s="8"/>
+      <c r="CU12" s="8"/>
+      <c r="CV12" s="8"/>
+      <c r="CW12" s="8"/>
+      <c r="CX12" s="8"/>
+      <c r="CY12" s="8"/>
     </row>
-    <row r="13" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -2316,8 +2413,18 @@
       <c r="CM13" s="41"/>
       <c r="CN13" s="41"/>
       <c r="CO13" s="41"/>
+      <c r="CP13" s="41"/>
+      <c r="CQ13" s="41"/>
+      <c r="CR13" s="41"/>
+      <c r="CS13" s="41"/>
+      <c r="CT13" s="41"/>
+      <c r="CU13" s="41"/>
+      <c r="CV13" s="41"/>
+      <c r="CW13" s="41"/>
+      <c r="CX13" s="41"/>
+      <c r="CY13" s="41"/>
     </row>
-    <row r="14" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -2413,8 +2520,18 @@
       <c r="CM14" s="41"/>
       <c r="CN14" s="41"/>
       <c r="CO14" s="41"/>
+      <c r="CP14" s="41"/>
+      <c r="CQ14" s="41"/>
+      <c r="CR14" s="41"/>
+      <c r="CS14" s="41"/>
+      <c r="CT14" s="41"/>
+      <c r="CU14" s="41"/>
+      <c r="CV14" s="41"/>
+      <c r="CW14" s="41"/>
+      <c r="CX14" s="41"/>
+      <c r="CY14" s="41"/>
     </row>
-    <row r="15" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -2510,8 +2627,18 @@
       <c r="CM15" s="41"/>
       <c r="CN15" s="41"/>
       <c r="CO15" s="41"/>
+      <c r="CP15" s="41"/>
+      <c r="CQ15" s="41"/>
+      <c r="CR15" s="41"/>
+      <c r="CS15" s="41"/>
+      <c r="CT15" s="41"/>
+      <c r="CU15" s="41"/>
+      <c r="CV15" s="41"/>
+      <c r="CW15" s="41"/>
+      <c r="CX15" s="41"/>
+      <c r="CY15" s="41"/>
     </row>
-    <row r="16" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -2607,8 +2734,18 @@
       <c r="CM16" s="41"/>
       <c r="CN16" s="41"/>
       <c r="CO16" s="41"/>
+      <c r="CP16" s="41"/>
+      <c r="CQ16" s="41"/>
+      <c r="CR16" s="41"/>
+      <c r="CS16" s="41"/>
+      <c r="CT16" s="41"/>
+      <c r="CU16" s="41"/>
+      <c r="CV16" s="41"/>
+      <c r="CW16" s="41"/>
+      <c r="CX16" s="41"/>
+      <c r="CY16" s="41"/>
     </row>
-    <row r="17" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -2704,8 +2841,18 @@
       <c r="CM17" s="41"/>
       <c r="CN17" s="41"/>
       <c r="CO17" s="41"/>
+      <c r="CP17" s="41"/>
+      <c r="CQ17" s="41"/>
+      <c r="CR17" s="41"/>
+      <c r="CS17" s="41"/>
+      <c r="CT17" s="41"/>
+      <c r="CU17" s="41"/>
+      <c r="CV17" s="41"/>
+      <c r="CW17" s="41"/>
+      <c r="CX17" s="41"/>
+      <c r="CY17" s="41"/>
     </row>
-    <row r="18" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -2801,8 +2948,18 @@
       <c r="CM18" s="41"/>
       <c r="CN18" s="41"/>
       <c r="CO18" s="41"/>
+      <c r="CP18" s="41"/>
+      <c r="CQ18" s="41"/>
+      <c r="CR18" s="41"/>
+      <c r="CS18" s="41"/>
+      <c r="CT18" s="41"/>
+      <c r="CU18" s="41"/>
+      <c r="CV18" s="41"/>
+      <c r="CW18" s="41"/>
+      <c r="CX18" s="41"/>
+      <c r="CY18" s="41"/>
     </row>
-    <row r="19" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>8</v>
       </c>
@@ -2898,8 +3055,18 @@
       <c r="CM19" s="41"/>
       <c r="CN19" s="41"/>
       <c r="CO19" s="41"/>
+      <c r="CP19" s="41"/>
+      <c r="CQ19" s="41"/>
+      <c r="CR19" s="41"/>
+      <c r="CS19" s="41"/>
+      <c r="CT19" s="41"/>
+      <c r="CU19" s="41"/>
+      <c r="CV19" s="41"/>
+      <c r="CW19" s="41"/>
+      <c r="CX19" s="41"/>
+      <c r="CY19" s="41"/>
     </row>
-    <row r="20" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>9</v>
       </c>
@@ -2995,8 +3162,18 @@
       <c r="CM20" s="41"/>
       <c r="CN20" s="41"/>
       <c r="CO20" s="41"/>
+      <c r="CP20" s="41"/>
+      <c r="CQ20" s="41"/>
+      <c r="CR20" s="41"/>
+      <c r="CS20" s="41"/>
+      <c r="CT20" s="41"/>
+      <c r="CU20" s="41"/>
+      <c r="CV20" s="41"/>
+      <c r="CW20" s="41"/>
+      <c r="CX20" s="41"/>
+      <c r="CY20" s="41"/>
     </row>
-    <row r="21" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>10</v>
       </c>
@@ -3092,8 +3269,18 @@
       <c r="CM21" s="41"/>
       <c r="CN21" s="41"/>
       <c r="CO21" s="41"/>
+      <c r="CP21" s="41"/>
+      <c r="CQ21" s="41"/>
+      <c r="CR21" s="41"/>
+      <c r="CS21" s="41"/>
+      <c r="CT21" s="41"/>
+      <c r="CU21" s="41"/>
+      <c r="CV21" s="41"/>
+      <c r="CW21" s="41"/>
+      <c r="CX21" s="41"/>
+      <c r="CY21" s="41"/>
     </row>
-    <row r="22" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>11</v>
       </c>
@@ -3189,8 +3376,18 @@
       <c r="CM22" s="41"/>
       <c r="CN22" s="41"/>
       <c r="CO22" s="41"/>
+      <c r="CP22" s="41"/>
+      <c r="CQ22" s="41"/>
+      <c r="CR22" s="41"/>
+      <c r="CS22" s="41"/>
+      <c r="CT22" s="41"/>
+      <c r="CU22" s="41"/>
+      <c r="CV22" s="41"/>
+      <c r="CW22" s="41"/>
+      <c r="CX22" s="41"/>
+      <c r="CY22" s="41"/>
     </row>
-    <row r="23" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>12</v>
       </c>
@@ -3286,8 +3483,18 @@
       <c r="CM23" s="41"/>
       <c r="CN23" s="41"/>
       <c r="CO23" s="41"/>
+      <c r="CP23" s="41"/>
+      <c r="CQ23" s="41"/>
+      <c r="CR23" s="41"/>
+      <c r="CS23" s="41"/>
+      <c r="CT23" s="41"/>
+      <c r="CU23" s="41"/>
+      <c r="CV23" s="41"/>
+      <c r="CW23" s="41"/>
+      <c r="CX23" s="41"/>
+      <c r="CY23" s="41"/>
     </row>
-    <row r="24" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>13</v>
       </c>
@@ -3383,8 +3590,18 @@
       <c r="CM24" s="41"/>
       <c r="CN24" s="41"/>
       <c r="CO24" s="41"/>
+      <c r="CP24" s="41"/>
+      <c r="CQ24" s="41"/>
+      <c r="CR24" s="41"/>
+      <c r="CS24" s="41"/>
+      <c r="CT24" s="41"/>
+      <c r="CU24" s="41"/>
+      <c r="CV24" s="41"/>
+      <c r="CW24" s="41"/>
+      <c r="CX24" s="41"/>
+      <c r="CY24" s="41"/>
     </row>
-    <row r="25" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>14</v>
       </c>
@@ -3480,8 +3697,18 @@
       <c r="CM25" s="41"/>
       <c r="CN25" s="41"/>
       <c r="CO25" s="41"/>
+      <c r="CP25" s="41"/>
+      <c r="CQ25" s="41"/>
+      <c r="CR25" s="41"/>
+      <c r="CS25" s="41"/>
+      <c r="CT25" s="41"/>
+      <c r="CU25" s="41"/>
+      <c r="CV25" s="41"/>
+      <c r="CW25" s="41"/>
+      <c r="CX25" s="41"/>
+      <c r="CY25" s="41"/>
     </row>
-    <row r="26" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>15</v>
       </c>
@@ -3577,8 +3804,18 @@
       <c r="CM26" s="41"/>
       <c r="CN26" s="41"/>
       <c r="CO26" s="41"/>
+      <c r="CP26" s="41"/>
+      <c r="CQ26" s="41"/>
+      <c r="CR26" s="41"/>
+      <c r="CS26" s="41"/>
+      <c r="CT26" s="41"/>
+      <c r="CU26" s="41"/>
+      <c r="CV26" s="41"/>
+      <c r="CW26" s="41"/>
+      <c r="CX26" s="41"/>
+      <c r="CY26" s="41"/>
     </row>
-    <row r="27" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>16</v>
       </c>
@@ -3674,8 +3911,18 @@
       <c r="CM27" s="41"/>
       <c r="CN27" s="41"/>
       <c r="CO27" s="41"/>
+      <c r="CP27" s="41"/>
+      <c r="CQ27" s="41"/>
+      <c r="CR27" s="41"/>
+      <c r="CS27" s="41"/>
+      <c r="CT27" s="41"/>
+      <c r="CU27" s="41"/>
+      <c r="CV27" s="41"/>
+      <c r="CW27" s="41"/>
+      <c r="CX27" s="41"/>
+      <c r="CY27" s="41"/>
     </row>
-    <row r="28" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>17</v>
       </c>
@@ -3741,16 +3988,16 @@
       <c r="BI28" s="41"/>
       <c r="BJ28" s="41"/>
       <c r="BK28" s="41"/>
-      <c r="BL28" s="41"/>
-      <c r="BM28" s="41"/>
-      <c r="BN28" s="41"/>
-      <c r="BO28" s="41"/>
-      <c r="BP28" s="41"/>
-      <c r="BQ28" s="41"/>
-      <c r="BR28" s="41"/>
-      <c r="BS28" s="41"/>
-      <c r="BT28" s="41"/>
-      <c r="BU28" s="41"/>
+      <c r="BL28" s="99"/>
+      <c r="BM28" s="99"/>
+      <c r="BN28" s="99"/>
+      <c r="BO28" s="99"/>
+      <c r="BP28" s="99"/>
+      <c r="BQ28" s="99"/>
+      <c r="BR28" s="99"/>
+      <c r="BS28" s="99"/>
+      <c r="BT28" s="99"/>
+      <c r="BU28" s="99"/>
       <c r="BV28" s="41"/>
       <c r="BW28" s="41"/>
       <c r="BX28" s="41"/>
@@ -3771,8 +4018,18 @@
       <c r="CM28" s="41"/>
       <c r="CN28" s="41"/>
       <c r="CO28" s="41"/>
+      <c r="CP28" s="41"/>
+      <c r="CQ28" s="41"/>
+      <c r="CR28" s="41"/>
+      <c r="CS28" s="41"/>
+      <c r="CT28" s="41"/>
+      <c r="CU28" s="41"/>
+      <c r="CV28" s="41"/>
+      <c r="CW28" s="41"/>
+      <c r="CX28" s="41"/>
+      <c r="CY28" s="41"/>
     </row>
-    <row r="29" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>18</v>
       </c>
@@ -3799,16 +4056,16 @@
       <c r="V29" s="41"/>
       <c r="W29" s="41"/>
       <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
       <c r="AI29" s="41"/>
       <c r="AJ29" s="41"/>
       <c r="AK29" s="41"/>
@@ -3837,18 +4094,18 @@
       <c r="BH29" s="41"/>
       <c r="BI29" s="41"/>
       <c r="BJ29" s="41"/>
-      <c r="BK29" s="41"/>
-      <c r="BL29" s="41"/>
-      <c r="BM29" s="41"/>
-      <c r="BN29" s="41"/>
-      <c r="BO29" s="41"/>
-      <c r="BP29" s="41"/>
-      <c r="BQ29" s="41"/>
-      <c r="BR29" s="41"/>
-      <c r="BS29" s="41"/>
-      <c r="BT29" s="41"/>
-      <c r="BU29" s="41"/>
-      <c r="BV29" s="41"/>
+      <c r="BK29" s="96"/>
+      <c r="BL29" s="100"/>
+      <c r="BM29" s="100"/>
+      <c r="BN29" s="100"/>
+      <c r="BO29" s="100"/>
+      <c r="BP29" s="100"/>
+      <c r="BQ29" s="100"/>
+      <c r="BR29" s="100"/>
+      <c r="BS29" s="100"/>
+      <c r="BT29" s="100"/>
+      <c r="BU29" s="100"/>
+      <c r="BV29" s="98"/>
       <c r="BW29" s="41"/>
       <c r="BX29" s="41"/>
       <c r="BY29" s="41"/>
@@ -3868,8 +4125,18 @@
       <c r="CM29" s="41"/>
       <c r="CN29" s="41"/>
       <c r="CO29" s="41"/>
+      <c r="CP29" s="41"/>
+      <c r="CQ29" s="41"/>
+      <c r="CR29" s="41"/>
+      <c r="CS29" s="41"/>
+      <c r="CT29" s="41"/>
+      <c r="CU29" s="41"/>
+      <c r="CV29" s="41"/>
+      <c r="CW29" s="41"/>
+      <c r="CX29" s="41"/>
+      <c r="CY29" s="41"/>
     </row>
-    <row r="30" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19</v>
       </c>
@@ -3895,18 +4162,18 @@
       <c r="U30" s="41"/>
       <c r="V30" s="41"/>
       <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="98"/>
       <c r="AJ30" s="41"/>
       <c r="AK30" s="41"/>
       <c r="AL30" s="41"/>
@@ -3934,18 +4201,18 @@
       <c r="BH30" s="41"/>
       <c r="BI30" s="41"/>
       <c r="BJ30" s="41"/>
-      <c r="BK30" s="41"/>
-      <c r="BL30" s="41"/>
-      <c r="BM30" s="41"/>
-      <c r="BN30" s="41"/>
-      <c r="BO30" s="41"/>
-      <c r="BP30" s="41"/>
-      <c r="BQ30" s="41"/>
-      <c r="BR30" s="41"/>
-      <c r="BS30" s="41"/>
-      <c r="BT30" s="41"/>
-      <c r="BU30" s="41"/>
-      <c r="BV30" s="41"/>
+      <c r="BK30" s="96"/>
+      <c r="BL30" s="100"/>
+      <c r="BM30" s="100"/>
+      <c r="BN30" s="100"/>
+      <c r="BO30" s="100"/>
+      <c r="BP30" s="100"/>
+      <c r="BQ30" s="100"/>
+      <c r="BR30" s="100"/>
+      <c r="BS30" s="100"/>
+      <c r="BT30" s="100"/>
+      <c r="BU30" s="100"/>
+      <c r="BV30" s="98"/>
       <c r="BW30" s="41"/>
       <c r="BX30" s="41"/>
       <c r="BY30" s="41"/>
@@ -3965,8 +4232,18 @@
       <c r="CM30" s="41"/>
       <c r="CN30" s="41"/>
       <c r="CO30" s="41"/>
+      <c r="CP30" s="41"/>
+      <c r="CQ30" s="41"/>
+      <c r="CR30" s="41"/>
+      <c r="CS30" s="41"/>
+      <c r="CT30" s="41"/>
+      <c r="CU30" s="41"/>
+      <c r="CV30" s="41"/>
+      <c r="CW30" s="41"/>
+      <c r="CX30" s="41"/>
+      <c r="CY30" s="41"/>
     </row>
-    <row r="31" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -3992,18 +4269,18 @@
       <c r="U31" s="41"/>
       <c r="V31" s="41"/>
       <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="98"/>
       <c r="AJ31" s="41"/>
       <c r="AK31" s="41"/>
       <c r="AL31" s="41"/>
@@ -4031,18 +4308,18 @@
       <c r="BH31" s="41"/>
       <c r="BI31" s="41"/>
       <c r="BJ31" s="41"/>
-      <c r="BK31" s="41"/>
-      <c r="BL31" s="41"/>
-      <c r="BM31" s="41"/>
-      <c r="BN31" s="41"/>
-      <c r="BO31" s="41"/>
-      <c r="BP31" s="41"/>
-      <c r="BQ31" s="41"/>
-      <c r="BR31" s="41"/>
-      <c r="BS31" s="41"/>
-      <c r="BT31" s="41"/>
-      <c r="BU31" s="41"/>
-      <c r="BV31" s="41"/>
+      <c r="BK31" s="96"/>
+      <c r="BL31" s="100"/>
+      <c r="BM31" s="100"/>
+      <c r="BN31" s="100"/>
+      <c r="BO31" s="100"/>
+      <c r="BP31" s="100"/>
+      <c r="BQ31" s="100"/>
+      <c r="BR31" s="100"/>
+      <c r="BS31" s="100"/>
+      <c r="BT31" s="100"/>
+      <c r="BU31" s="100"/>
+      <c r="BV31" s="98"/>
       <c r="BW31" s="41"/>
       <c r="BX31" s="41"/>
       <c r="BY31" s="41"/>
@@ -4062,8 +4339,18 @@
       <c r="CM31" s="41"/>
       <c r="CN31" s="41"/>
       <c r="CO31" s="41"/>
+      <c r="CP31" s="41"/>
+      <c r="CQ31" s="41"/>
+      <c r="CR31" s="41"/>
+      <c r="CS31" s="41"/>
+      <c r="CT31" s="41"/>
+      <c r="CU31" s="41"/>
+      <c r="CV31" s="41"/>
+      <c r="CW31" s="41"/>
+      <c r="CX31" s="41"/>
+      <c r="CY31" s="41"/>
     </row>
-    <row r="32" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>21</v>
       </c>
@@ -4089,18 +4376,18 @@
       <c r="U32" s="41"/>
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="98"/>
       <c r="AJ32" s="41"/>
       <c r="AK32" s="41"/>
       <c r="AL32" s="41"/>
@@ -4128,18 +4415,18 @@
       <c r="BH32" s="41"/>
       <c r="BI32" s="41"/>
       <c r="BJ32" s="41"/>
-      <c r="BK32" s="41"/>
-      <c r="BL32" s="41"/>
-      <c r="BM32" s="41"/>
-      <c r="BN32" s="41"/>
-      <c r="BO32" s="41"/>
-      <c r="BP32" s="41"/>
-      <c r="BQ32" s="41"/>
-      <c r="BR32" s="41"/>
-      <c r="BS32" s="41"/>
-      <c r="BT32" s="41"/>
-      <c r="BU32" s="41"/>
-      <c r="BV32" s="41"/>
+      <c r="BK32" s="96"/>
+      <c r="BL32" s="100"/>
+      <c r="BM32" s="100"/>
+      <c r="BN32" s="100"/>
+      <c r="BO32" s="100"/>
+      <c r="BP32" s="100"/>
+      <c r="BQ32" s="100"/>
+      <c r="BR32" s="100"/>
+      <c r="BS32" s="100"/>
+      <c r="BT32" s="100"/>
+      <c r="BU32" s="100"/>
+      <c r="BV32" s="98"/>
       <c r="BW32" s="41"/>
       <c r="BX32" s="41"/>
       <c r="BY32" s="41"/>
@@ -4159,8 +4446,18 @@
       <c r="CM32" s="41"/>
       <c r="CN32" s="41"/>
       <c r="CO32" s="41"/>
+      <c r="CP32" s="41"/>
+      <c r="CQ32" s="41"/>
+      <c r="CR32" s="41"/>
+      <c r="CS32" s="41"/>
+      <c r="CT32" s="41"/>
+      <c r="CU32" s="41"/>
+      <c r="CV32" s="41"/>
+      <c r="CW32" s="41"/>
+      <c r="CX32" s="41"/>
+      <c r="CY32" s="41"/>
     </row>
-    <row r="33" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>22</v>
       </c>
@@ -4186,18 +4483,18 @@
       <c r="U33" s="42"/>
       <c r="V33" s="42"/>
       <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="98"/>
       <c r="AJ33" s="41"/>
       <c r="AK33" s="41"/>
       <c r="AL33" s="41"/>
@@ -4225,18 +4522,18 @@
       <c r="BH33" s="41"/>
       <c r="BI33" s="41"/>
       <c r="BJ33" s="41"/>
-      <c r="BK33" s="41"/>
-      <c r="BL33" s="41"/>
-      <c r="BM33" s="41"/>
-      <c r="BN33" s="41"/>
-      <c r="BO33" s="41"/>
-      <c r="BP33" s="41"/>
-      <c r="BQ33" s="41"/>
-      <c r="BR33" s="41"/>
-      <c r="BS33" s="41"/>
-      <c r="BT33" s="41"/>
-      <c r="BU33" s="41"/>
-      <c r="BV33" s="41"/>
+      <c r="BK33" s="96"/>
+      <c r="BL33" s="100"/>
+      <c r="BM33" s="100"/>
+      <c r="BN33" s="100"/>
+      <c r="BO33" s="100"/>
+      <c r="BP33" s="100"/>
+      <c r="BQ33" s="100"/>
+      <c r="BR33" s="100"/>
+      <c r="BS33" s="100"/>
+      <c r="BT33" s="100"/>
+      <c r="BU33" s="100"/>
+      <c r="BV33" s="98"/>
       <c r="BW33" s="41"/>
       <c r="BX33" s="41"/>
       <c r="BY33" s="41"/>
@@ -4256,8 +4553,18 @@
       <c r="CM33" s="41"/>
       <c r="CN33" s="41"/>
       <c r="CO33" s="41"/>
+      <c r="CP33" s="41"/>
+      <c r="CQ33" s="41"/>
+      <c r="CR33" s="41"/>
+      <c r="CS33" s="41"/>
+      <c r="CT33" s="41"/>
+      <c r="CU33" s="41"/>
+      <c r="CV33" s="41"/>
+      <c r="CW33" s="41"/>
+      <c r="CX33" s="41"/>
+      <c r="CY33" s="41"/>
     </row>
-    <row r="34" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>23</v>
       </c>
@@ -4283,18 +4590,18 @@
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
       <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="98"/>
       <c r="AJ34" s="41"/>
       <c r="AK34" s="41"/>
       <c r="AL34" s="41"/>
@@ -4322,18 +4629,18 @@
       <c r="BH34" s="41"/>
       <c r="BI34" s="41"/>
       <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
-      <c r="BM34" s="41"/>
-      <c r="BN34" s="41"/>
-      <c r="BO34" s="41"/>
-      <c r="BP34" s="41"/>
-      <c r="BQ34" s="41"/>
-      <c r="BR34" s="41"/>
-      <c r="BS34" s="41"/>
-      <c r="BT34" s="41"/>
-      <c r="BU34" s="41"/>
-      <c r="BV34" s="41"/>
+      <c r="BK34" s="96"/>
+      <c r="BL34" s="100"/>
+      <c r="BM34" s="100"/>
+      <c r="BN34" s="100"/>
+      <c r="BO34" s="100"/>
+      <c r="BP34" s="100"/>
+      <c r="BQ34" s="100"/>
+      <c r="BR34" s="100"/>
+      <c r="BS34" s="100"/>
+      <c r="BT34" s="100"/>
+      <c r="BU34" s="100"/>
+      <c r="BV34" s="98"/>
       <c r="BW34" s="41"/>
       <c r="BX34" s="41"/>
       <c r="BY34" s="41"/>
@@ -4353,8 +4660,18 @@
       <c r="CM34" s="41"/>
       <c r="CN34" s="41"/>
       <c r="CO34" s="41"/>
+      <c r="CP34" s="41"/>
+      <c r="CQ34" s="41"/>
+      <c r="CR34" s="41"/>
+      <c r="CS34" s="41"/>
+      <c r="CT34" s="41"/>
+      <c r="CU34" s="41"/>
+      <c r="CV34" s="41"/>
+      <c r="CW34" s="41"/>
+      <c r="CX34" s="41"/>
+      <c r="CY34" s="41"/>
     </row>
-    <row r="35" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>24</v>
       </c>
@@ -4380,18 +4697,18 @@
       <c r="U35" s="41"/>
       <c r="V35" s="41"/>
       <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
+      <c r="AI35" s="98"/>
       <c r="AJ35" s="41"/>
       <c r="AK35" s="41"/>
       <c r="AL35" s="41"/>
@@ -4419,18 +4736,18 @@
       <c r="BH35" s="41"/>
       <c r="BI35" s="41"/>
       <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="41"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="41"/>
-      <c r="BO35" s="41"/>
-      <c r="BP35" s="41"/>
-      <c r="BQ35" s="41"/>
-      <c r="BR35" s="41"/>
-      <c r="BS35" s="41"/>
-      <c r="BT35" s="41"/>
-      <c r="BU35" s="41"/>
-      <c r="BV35" s="41"/>
+      <c r="BK35" s="96"/>
+      <c r="BL35" s="100"/>
+      <c r="BM35" s="100"/>
+      <c r="BN35" s="100"/>
+      <c r="BO35" s="100"/>
+      <c r="BP35" s="100"/>
+      <c r="BQ35" s="100"/>
+      <c r="BR35" s="100"/>
+      <c r="BS35" s="100"/>
+      <c r="BT35" s="100"/>
+      <c r="BU35" s="100"/>
+      <c r="BV35" s="98"/>
       <c r="BW35" s="41"/>
       <c r="BX35" s="41"/>
       <c r="BY35" s="41"/>
@@ -4450,8 +4767,18 @@
       <c r="CM35" s="41"/>
       <c r="CN35" s="41"/>
       <c r="CO35" s="41"/>
+      <c r="CP35" s="41"/>
+      <c r="CQ35" s="41"/>
+      <c r="CR35" s="41"/>
+      <c r="CS35" s="41"/>
+      <c r="CT35" s="41"/>
+      <c r="CU35" s="41"/>
+      <c r="CV35" s="41"/>
+      <c r="CW35" s="41"/>
+      <c r="CX35" s="41"/>
+      <c r="CY35" s="41"/>
     </row>
-    <row r="36" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>25</v>
       </c>
@@ -4477,18 +4804,18 @@
       <c r="U36" s="41"/>
       <c r="V36" s="41"/>
       <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="100"/>
+      <c r="Z36" s="100"/>
+      <c r="AA36" s="100"/>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="100"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="100"/>
+      <c r="AI36" s="98"/>
       <c r="AJ36" s="41"/>
       <c r="AK36" s="41"/>
       <c r="AL36" s="41"/>
@@ -4516,18 +4843,18 @@
       <c r="BH36" s="41"/>
       <c r="BI36" s="41"/>
       <c r="BJ36" s="41"/>
-      <c r="BK36" s="41"/>
-      <c r="BL36" s="41"/>
-      <c r="BM36" s="41"/>
-      <c r="BN36" s="41"/>
-      <c r="BO36" s="41"/>
-      <c r="BP36" s="41"/>
-      <c r="BQ36" s="41"/>
-      <c r="BR36" s="41"/>
-      <c r="BS36" s="41"/>
-      <c r="BT36" s="41"/>
-      <c r="BU36" s="41"/>
-      <c r="BV36" s="41"/>
+      <c r="BK36" s="96"/>
+      <c r="BL36" s="100"/>
+      <c r="BM36" s="100"/>
+      <c r="BN36" s="100"/>
+      <c r="BO36" s="100"/>
+      <c r="BP36" s="100"/>
+      <c r="BQ36" s="100"/>
+      <c r="BR36" s="100"/>
+      <c r="BS36" s="100"/>
+      <c r="BT36" s="100"/>
+      <c r="BU36" s="100"/>
+      <c r="BV36" s="98"/>
       <c r="BW36" s="41"/>
       <c r="BX36" s="41"/>
       <c r="BY36" s="41"/>
@@ -4547,8 +4874,18 @@
       <c r="CM36" s="41"/>
       <c r="CN36" s="41"/>
       <c r="CO36" s="41"/>
+      <c r="CP36" s="41"/>
+      <c r="CQ36" s="41"/>
+      <c r="CR36" s="41"/>
+      <c r="CS36" s="41"/>
+      <c r="CT36" s="41"/>
+      <c r="CU36" s="41"/>
+      <c r="CV36" s="41"/>
+      <c r="CW36" s="41"/>
+      <c r="CX36" s="41"/>
+      <c r="CY36" s="41"/>
     </row>
-    <row r="37" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>26</v>
       </c>
@@ -4574,17 +4911,17 @@
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="101"/>
+      <c r="AB37" s="101"/>
+      <c r="AC37" s="101"/>
+      <c r="AD37" s="101"/>
+      <c r="AE37" s="101"/>
+      <c r="AF37" s="101"/>
+      <c r="AG37" s="101"/>
+      <c r="AH37" s="101"/>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="33"/>
       <c r="AK37" s="33"/>
@@ -4613,17 +4950,17 @@
       <c r="BH37" s="33"/>
       <c r="BI37" s="33"/>
       <c r="BJ37" s="33"/>
-      <c r="BK37" s="33"/>
-      <c r="BL37" s="33"/>
-      <c r="BM37" s="33"/>
-      <c r="BN37" s="33"/>
-      <c r="BO37" s="33"/>
-      <c r="BP37" s="33"/>
-      <c r="BQ37" s="33"/>
-      <c r="BR37" s="33"/>
-      <c r="BS37" s="33"/>
-      <c r="BT37" s="33"/>
-      <c r="BU37" s="33"/>
+      <c r="BK37" s="97"/>
+      <c r="BL37" s="101"/>
+      <c r="BM37" s="101"/>
+      <c r="BN37" s="101"/>
+      <c r="BO37" s="101"/>
+      <c r="BP37" s="101"/>
+      <c r="BQ37" s="101"/>
+      <c r="BR37" s="101"/>
+      <c r="BS37" s="101"/>
+      <c r="BT37" s="101"/>
+      <c r="BU37" s="101"/>
       <c r="BV37" s="33"/>
       <c r="BW37" s="33"/>
       <c r="BX37" s="33"/>
@@ -4644,8 +4981,18 @@
       <c r="CM37" s="33"/>
       <c r="CN37" s="33"/>
       <c r="CO37" s="33"/>
+      <c r="CP37" s="33"/>
+      <c r="CQ37" s="33"/>
+      <c r="CR37" s="33"/>
+      <c r="CS37" s="33"/>
+      <c r="CT37" s="33"/>
+      <c r="CU37" s="33"/>
+      <c r="CV37" s="33"/>
+      <c r="CW37" s="33"/>
+      <c r="CX37" s="33"/>
+      <c r="CY37" s="33"/>
     </row>
-    <row r="38" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>27</v>
       </c>
@@ -4671,17 +5018,17 @@
       <c r="U38" s="33"/>
       <c r="V38" s="33"/>
       <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
+      <c r="AA38" s="101"/>
+      <c r="AB38" s="101"/>
+      <c r="AC38" s="101"/>
+      <c r="AD38" s="101"/>
+      <c r="AE38" s="101"/>
+      <c r="AF38" s="101"/>
+      <c r="AG38" s="101"/>
+      <c r="AH38" s="101"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="33"/>
       <c r="AK38" s="33"/>
@@ -4710,17 +5057,17 @@
       <c r="BH38" s="33"/>
       <c r="BI38" s="33"/>
       <c r="BJ38" s="33"/>
-      <c r="BK38" s="33"/>
-      <c r="BL38" s="33"/>
-      <c r="BM38" s="33"/>
-      <c r="BN38" s="33"/>
-      <c r="BO38" s="33"/>
-      <c r="BP38" s="33"/>
-      <c r="BQ38" s="33"/>
-      <c r="BR38" s="33"/>
-      <c r="BS38" s="33"/>
-      <c r="BT38" s="33"/>
-      <c r="BU38" s="33"/>
+      <c r="BK38" s="97"/>
+      <c r="BL38" s="101"/>
+      <c r="BM38" s="101"/>
+      <c r="BN38" s="101"/>
+      <c r="BO38" s="101"/>
+      <c r="BP38" s="101"/>
+      <c r="BQ38" s="101"/>
+      <c r="BR38" s="101"/>
+      <c r="BS38" s="101"/>
+      <c r="BT38" s="101"/>
+      <c r="BU38" s="101"/>
       <c r="BV38" s="33"/>
       <c r="BW38" s="33"/>
       <c r="BX38" s="33"/>
@@ -4741,8 +5088,18 @@
       <c r="CM38" s="33"/>
       <c r="CN38" s="33"/>
       <c r="CO38" s="33"/>
+      <c r="CP38" s="33"/>
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
+      <c r="CS38" s="33"/>
+      <c r="CT38" s="33"/>
+      <c r="CU38" s="33"/>
+      <c r="CV38" s="33"/>
+      <c r="CW38" s="33"/>
+      <c r="CX38" s="33"/>
+      <c r="CY38" s="33"/>
     </row>
-    <row r="39" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>28</v>
       </c>
@@ -4768,17 +5125,17 @@
       <c r="U39" s="33"/>
       <c r="V39" s="33"/>
       <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="33"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="101"/>
+      <c r="Z39" s="101"/>
+      <c r="AA39" s="101"/>
+      <c r="AB39" s="101"/>
+      <c r="AC39" s="101"/>
+      <c r="AD39" s="101"/>
+      <c r="AE39" s="101"/>
+      <c r="AF39" s="101"/>
+      <c r="AG39" s="101"/>
+      <c r="AH39" s="101"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="33"/>
       <c r="AK39" s="33"/>
@@ -4807,17 +5164,17 @@
       <c r="BH39" s="33"/>
       <c r="BI39" s="33"/>
       <c r="BJ39" s="33"/>
-      <c r="BK39" s="33"/>
-      <c r="BL39" s="33"/>
-      <c r="BM39" s="33"/>
-      <c r="BN39" s="33"/>
-      <c r="BO39" s="33"/>
-      <c r="BP39" s="33"/>
-      <c r="BQ39" s="33"/>
-      <c r="BR39" s="33"/>
-      <c r="BS39" s="33"/>
-      <c r="BT39" s="33"/>
-      <c r="BU39" s="33"/>
+      <c r="BK39" s="97"/>
+      <c r="BL39" s="101"/>
+      <c r="BM39" s="101"/>
+      <c r="BN39" s="101"/>
+      <c r="BO39" s="101"/>
+      <c r="BP39" s="101"/>
+      <c r="BQ39" s="101"/>
+      <c r="BR39" s="101"/>
+      <c r="BS39" s="101"/>
+      <c r="BT39" s="101"/>
+      <c r="BU39" s="101"/>
       <c r="BV39" s="33"/>
       <c r="BW39" s="33"/>
       <c r="BX39" s="33"/>
@@ -4838,8 +5195,18 @@
       <c r="CM39" s="33"/>
       <c r="CN39" s="33"/>
       <c r="CO39" s="33"/>
+      <c r="CP39" s="33"/>
+      <c r="CQ39" s="33"/>
+      <c r="CR39" s="33"/>
+      <c r="CS39" s="33"/>
+      <c r="CT39" s="33"/>
+      <c r="CU39" s="33"/>
+      <c r="CV39" s="33"/>
+      <c r="CW39" s="33"/>
+      <c r="CX39" s="33"/>
+      <c r="CY39" s="33"/>
     </row>
-    <row r="40" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>29</v>
       </c>
@@ -4865,17 +5232,17 @@
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
       <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="33"/>
-      <c r="AH40" s="33"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+      <c r="AA40" s="101"/>
+      <c r="AB40" s="101"/>
+      <c r="AC40" s="101"/>
+      <c r="AD40" s="101"/>
+      <c r="AE40" s="101"/>
+      <c r="AF40" s="101"/>
+      <c r="AG40" s="101"/>
+      <c r="AH40" s="101"/>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="33"/>
       <c r="AK40" s="33"/>
@@ -4904,17 +5271,17 @@
       <c r="BH40" s="33"/>
       <c r="BI40" s="33"/>
       <c r="BJ40" s="33"/>
-      <c r="BK40" s="33"/>
-      <c r="BL40" s="33"/>
-      <c r="BM40" s="33"/>
-      <c r="BN40" s="33"/>
-      <c r="BO40" s="33"/>
-      <c r="BP40" s="33"/>
-      <c r="BQ40" s="33"/>
-      <c r="BR40" s="33"/>
-      <c r="BS40" s="33"/>
-      <c r="BT40" s="33"/>
-      <c r="BU40" s="33"/>
+      <c r="BK40" s="97"/>
+      <c r="BL40" s="101"/>
+      <c r="BM40" s="101"/>
+      <c r="BN40" s="101"/>
+      <c r="BO40" s="101"/>
+      <c r="BP40" s="101"/>
+      <c r="BQ40" s="101"/>
+      <c r="BR40" s="101"/>
+      <c r="BS40" s="101"/>
+      <c r="BT40" s="101"/>
+      <c r="BU40" s="101"/>
       <c r="BV40" s="33"/>
       <c r="BW40" s="33"/>
       <c r="BX40" s="33"/>
@@ -4935,8 +5302,18 @@
       <c r="CM40" s="33"/>
       <c r="CN40" s="33"/>
       <c r="CO40" s="33"/>
+      <c r="CP40" s="33"/>
+      <c r="CQ40" s="33"/>
+      <c r="CR40" s="33"/>
+      <c r="CS40" s="33"/>
+      <c r="CT40" s="33"/>
+      <c r="CU40" s="33"/>
+      <c r="CV40" s="33"/>
+      <c r="CW40" s="33"/>
+      <c r="CX40" s="33"/>
+      <c r="CY40" s="33"/>
     </row>
-    <row r="41" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>30</v>
       </c>
@@ -4962,17 +5339,17 @@
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="33"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="101"/>
+      <c r="Z41" s="101"/>
+      <c r="AA41" s="101"/>
+      <c r="AB41" s="101"/>
+      <c r="AC41" s="101"/>
+      <c r="AD41" s="101"/>
+      <c r="AE41" s="101"/>
+      <c r="AF41" s="101"/>
+      <c r="AG41" s="101"/>
+      <c r="AH41" s="101"/>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="33"/>
       <c r="AK41" s="33"/>
@@ -5001,17 +5378,17 @@
       <c r="BH41" s="33"/>
       <c r="BI41" s="33"/>
       <c r="BJ41" s="33"/>
-      <c r="BK41" s="33"/>
-      <c r="BL41" s="33"/>
-      <c r="BM41" s="33"/>
-      <c r="BN41" s="33"/>
-      <c r="BO41" s="33"/>
-      <c r="BP41" s="33"/>
-      <c r="BQ41" s="33"/>
-      <c r="BR41" s="33"/>
-      <c r="BS41" s="33"/>
-      <c r="BT41" s="33"/>
-      <c r="BU41" s="33"/>
+      <c r="BK41" s="97"/>
+      <c r="BL41" s="101"/>
+      <c r="BM41" s="101"/>
+      <c r="BN41" s="101"/>
+      <c r="BO41" s="101"/>
+      <c r="BP41" s="101"/>
+      <c r="BQ41" s="101"/>
+      <c r="BR41" s="101"/>
+      <c r="BS41" s="101"/>
+      <c r="BT41" s="101"/>
+      <c r="BU41" s="101"/>
       <c r="BV41" s="33"/>
       <c r="BW41" s="33"/>
       <c r="BX41" s="33"/>
@@ -5032,8 +5409,18 @@
       <c r="CM41" s="33"/>
       <c r="CN41" s="33"/>
       <c r="CO41" s="33"/>
+      <c r="CP41" s="33"/>
+      <c r="CQ41" s="33"/>
+      <c r="CR41" s="33"/>
+      <c r="CS41" s="33"/>
+      <c r="CT41" s="33"/>
+      <c r="CU41" s="33"/>
+      <c r="CV41" s="33"/>
+      <c r="CW41" s="33"/>
+      <c r="CX41" s="33"/>
+      <c r="CY41" s="33"/>
     </row>
-    <row r="42" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>31</v>
       </c>
@@ -5059,17 +5446,17 @@
       <c r="U42" s="33"/>
       <c r="V42" s="33"/>
       <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
+      <c r="AA42" s="101"/>
+      <c r="AB42" s="101"/>
+      <c r="AC42" s="101"/>
+      <c r="AD42" s="101"/>
+      <c r="AE42" s="101"/>
+      <c r="AF42" s="101"/>
+      <c r="AG42" s="101"/>
+      <c r="AH42" s="101"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="33"/>
       <c r="AK42" s="33"/>
@@ -5098,17 +5485,17 @@
       <c r="BH42" s="33"/>
       <c r="BI42" s="33"/>
       <c r="BJ42" s="33"/>
-      <c r="BK42" s="33"/>
-      <c r="BL42" s="33"/>
-      <c r="BM42" s="33"/>
-      <c r="BN42" s="33"/>
-      <c r="BO42" s="33"/>
-      <c r="BP42" s="33"/>
-      <c r="BQ42" s="33"/>
-      <c r="BR42" s="33"/>
-      <c r="BS42" s="33"/>
-      <c r="BT42" s="33"/>
-      <c r="BU42" s="33"/>
+      <c r="BK42" s="97"/>
+      <c r="BL42" s="101"/>
+      <c r="BM42" s="101"/>
+      <c r="BN42" s="101"/>
+      <c r="BO42" s="101"/>
+      <c r="BP42" s="101"/>
+      <c r="BQ42" s="101"/>
+      <c r="BR42" s="101"/>
+      <c r="BS42" s="101"/>
+      <c r="BT42" s="101"/>
+      <c r="BU42" s="101"/>
       <c r="BV42" s="33"/>
       <c r="BW42" s="33"/>
       <c r="BX42" s="33"/>
@@ -5129,8 +5516,18 @@
       <c r="CM42" s="33"/>
       <c r="CN42" s="33"/>
       <c r="CO42" s="33"/>
+      <c r="CP42" s="33"/>
+      <c r="CQ42" s="33"/>
+      <c r="CR42" s="33"/>
+      <c r="CS42" s="33"/>
+      <c r="CT42" s="33"/>
+      <c r="CU42" s="33"/>
+      <c r="CV42" s="33"/>
+      <c r="CW42" s="33"/>
+      <c r="CX42" s="33"/>
+      <c r="CY42" s="33"/>
     </row>
-    <row r="43" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>32</v>
       </c>
@@ -5156,17 +5553,17 @@
       <c r="U43" s="33"/>
       <c r="V43" s="33"/>
       <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
-      <c r="AG43" s="33"/>
-      <c r="AH43" s="33"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="101"/>
+      <c r="Z43" s="101"/>
+      <c r="AA43" s="101"/>
+      <c r="AB43" s="101"/>
+      <c r="AC43" s="101"/>
+      <c r="AD43" s="101"/>
+      <c r="AE43" s="101"/>
+      <c r="AF43" s="101"/>
+      <c r="AG43" s="101"/>
+      <c r="AH43" s="101"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="33"/>
       <c r="AK43" s="33"/>
@@ -5195,17 +5592,17 @@
       <c r="BH43" s="33"/>
       <c r="BI43" s="33"/>
       <c r="BJ43" s="33"/>
-      <c r="BK43" s="33"/>
-      <c r="BL43" s="33"/>
-      <c r="BM43" s="33"/>
-      <c r="BN43" s="33"/>
-      <c r="BO43" s="33"/>
-      <c r="BP43" s="33"/>
-      <c r="BQ43" s="33"/>
-      <c r="BR43" s="33"/>
-      <c r="BS43" s="33"/>
-      <c r="BT43" s="33"/>
-      <c r="BU43" s="33"/>
+      <c r="BK43" s="97"/>
+      <c r="BL43" s="101"/>
+      <c r="BM43" s="101"/>
+      <c r="BN43" s="101"/>
+      <c r="BO43" s="101"/>
+      <c r="BP43" s="101"/>
+      <c r="BQ43" s="101"/>
+      <c r="BR43" s="101"/>
+      <c r="BS43" s="101"/>
+      <c r="BT43" s="101"/>
+      <c r="BU43" s="101"/>
       <c r="BV43" s="33"/>
       <c r="BW43" s="33"/>
       <c r="BX43" s="33"/>
@@ -5226,8 +5623,18 @@
       <c r="CM43" s="33"/>
       <c r="CN43" s="33"/>
       <c r="CO43" s="33"/>
+      <c r="CP43" s="33"/>
+      <c r="CQ43" s="33"/>
+      <c r="CR43" s="33"/>
+      <c r="CS43" s="33"/>
+      <c r="CT43" s="33"/>
+      <c r="CU43" s="33"/>
+      <c r="CV43" s="33"/>
+      <c r="CW43" s="33"/>
+      <c r="CX43" s="33"/>
+      <c r="CY43" s="33"/>
     </row>
-    <row r="44" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>33</v>
       </c>
@@ -5253,17 +5660,17 @@
       <c r="U44" s="33"/>
       <c r="V44" s="33"/>
       <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="33"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="101"/>
+      <c r="AA44" s="101"/>
+      <c r="AB44" s="101"/>
+      <c r="AC44" s="101"/>
+      <c r="AD44" s="101"/>
+      <c r="AE44" s="101"/>
+      <c r="AF44" s="101"/>
+      <c r="AG44" s="101"/>
+      <c r="AH44" s="101"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="33"/>
       <c r="AK44" s="33"/>
@@ -5292,17 +5699,17 @@
       <c r="BH44" s="33"/>
       <c r="BI44" s="33"/>
       <c r="BJ44" s="33"/>
-      <c r="BK44" s="33"/>
-      <c r="BL44" s="33"/>
-      <c r="BM44" s="33"/>
-      <c r="BN44" s="33"/>
-      <c r="BO44" s="33"/>
-      <c r="BP44" s="33"/>
-      <c r="BQ44" s="33"/>
-      <c r="BR44" s="33"/>
-      <c r="BS44" s="33"/>
-      <c r="BT44" s="33"/>
-      <c r="BU44" s="33"/>
+      <c r="BK44" s="97"/>
+      <c r="BL44" s="101"/>
+      <c r="BM44" s="101"/>
+      <c r="BN44" s="101"/>
+      <c r="BO44" s="101"/>
+      <c r="BP44" s="101"/>
+      <c r="BQ44" s="101"/>
+      <c r="BR44" s="101"/>
+      <c r="BS44" s="101"/>
+      <c r="BT44" s="101"/>
+      <c r="BU44" s="101"/>
       <c r="BV44" s="33"/>
       <c r="BW44" s="33"/>
       <c r="BX44" s="33"/>
@@ -5323,8 +5730,18 @@
       <c r="CM44" s="33"/>
       <c r="CN44" s="33"/>
       <c r="CO44" s="33"/>
+      <c r="CP44" s="33"/>
+      <c r="CQ44" s="33"/>
+      <c r="CR44" s="33"/>
+      <c r="CS44" s="33"/>
+      <c r="CT44" s="33"/>
+      <c r="CU44" s="33"/>
+      <c r="CV44" s="33"/>
+      <c r="CW44" s="33"/>
+      <c r="CX44" s="33"/>
+      <c r="CY44" s="33"/>
     </row>
-    <row r="45" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>34</v>
       </c>
@@ -5350,17 +5767,17 @@
       <c r="U45" s="33"/>
       <c r="V45" s="33"/>
       <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="33"/>
-      <c r="AG45" s="33"/>
-      <c r="AH45" s="33"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="101"/>
+      <c r="AA45" s="101"/>
+      <c r="AB45" s="101"/>
+      <c r="AC45" s="101"/>
+      <c r="AD45" s="101"/>
+      <c r="AE45" s="101"/>
+      <c r="AF45" s="101"/>
+      <c r="AG45" s="101"/>
+      <c r="AH45" s="101"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="33"/>
       <c r="AK45" s="33"/>
@@ -5389,17 +5806,17 @@
       <c r="BH45" s="33"/>
       <c r="BI45" s="33"/>
       <c r="BJ45" s="33"/>
-      <c r="BK45" s="33"/>
-      <c r="BL45" s="33"/>
-      <c r="BM45" s="33"/>
-      <c r="BN45" s="33"/>
-      <c r="BO45" s="33"/>
-      <c r="BP45" s="33"/>
-      <c r="BQ45" s="33"/>
-      <c r="BR45" s="33"/>
-      <c r="BS45" s="33"/>
-      <c r="BT45" s="33"/>
-      <c r="BU45" s="33"/>
+      <c r="BK45" s="97"/>
+      <c r="BL45" s="101"/>
+      <c r="BM45" s="101"/>
+      <c r="BN45" s="101"/>
+      <c r="BO45" s="101"/>
+      <c r="BP45" s="101"/>
+      <c r="BQ45" s="101"/>
+      <c r="BR45" s="101"/>
+      <c r="BS45" s="101"/>
+      <c r="BT45" s="101"/>
+      <c r="BU45" s="101"/>
       <c r="BV45" s="33"/>
       <c r="BW45" s="33"/>
       <c r="BX45" s="33"/>
@@ -5420,8 +5837,18 @@
       <c r="CM45" s="33"/>
       <c r="CN45" s="33"/>
       <c r="CO45" s="33"/>
+      <c r="CP45" s="33"/>
+      <c r="CQ45" s="33"/>
+      <c r="CR45" s="33"/>
+      <c r="CS45" s="33"/>
+      <c r="CT45" s="33"/>
+      <c r="CU45" s="33"/>
+      <c r="CV45" s="33"/>
+      <c r="CW45" s="33"/>
+      <c r="CX45" s="33"/>
+      <c r="CY45" s="33"/>
     </row>
-    <row r="46" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>35</v>
       </c>
@@ -5447,17 +5874,17 @@
       <c r="U46" s="33"/>
       <c r="V46" s="33"/>
       <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="101"/>
+      <c r="AB46" s="101"/>
+      <c r="AC46" s="101"/>
+      <c r="AD46" s="101"/>
+      <c r="AE46" s="101"/>
+      <c r="AF46" s="101"/>
+      <c r="AG46" s="101"/>
+      <c r="AH46" s="101"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="33"/>
       <c r="AK46" s="33"/>
@@ -5486,17 +5913,17 @@
       <c r="BH46" s="33"/>
       <c r="BI46" s="33"/>
       <c r="BJ46" s="33"/>
-      <c r="BK46" s="33"/>
-      <c r="BL46" s="33"/>
-      <c r="BM46" s="33"/>
-      <c r="BN46" s="33"/>
-      <c r="BO46" s="33"/>
-      <c r="BP46" s="33"/>
-      <c r="BQ46" s="33"/>
-      <c r="BR46" s="33"/>
-      <c r="BS46" s="33"/>
-      <c r="BT46" s="33"/>
-      <c r="BU46" s="33"/>
+      <c r="BK46" s="97"/>
+      <c r="BL46" s="101"/>
+      <c r="BM46" s="101"/>
+      <c r="BN46" s="101"/>
+      <c r="BO46" s="101"/>
+      <c r="BP46" s="101"/>
+      <c r="BQ46" s="101"/>
+      <c r="BR46" s="101"/>
+      <c r="BS46" s="101"/>
+      <c r="BT46" s="101"/>
+      <c r="BU46" s="101"/>
       <c r="BV46" s="33"/>
       <c r="BW46" s="33"/>
       <c r="BX46" s="33"/>
@@ -5517,8 +5944,18 @@
       <c r="CM46" s="33"/>
       <c r="CN46" s="33"/>
       <c r="CO46" s="33"/>
+      <c r="CP46" s="33"/>
+      <c r="CQ46" s="33"/>
+      <c r="CR46" s="33"/>
+      <c r="CS46" s="33"/>
+      <c r="CT46" s="33"/>
+      <c r="CU46" s="33"/>
+      <c r="CV46" s="33"/>
+      <c r="CW46" s="33"/>
+      <c r="CX46" s="33"/>
+      <c r="CY46" s="33"/>
     </row>
-    <row r="47" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>36</v>
       </c>
@@ -5544,17 +5981,17 @@
       <c r="U47" s="33"/>
       <c r="V47" s="33"/>
       <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33"/>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="101"/>
+      <c r="Z47" s="101"/>
+      <c r="AA47" s="101"/>
+      <c r="AB47" s="101"/>
+      <c r="AC47" s="101"/>
+      <c r="AD47" s="101"/>
+      <c r="AE47" s="101"/>
+      <c r="AF47" s="101"/>
+      <c r="AG47" s="101"/>
+      <c r="AH47" s="101"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="33"/>
       <c r="AK47" s="33"/>
@@ -5583,17 +6020,17 @@
       <c r="BH47" s="33"/>
       <c r="BI47" s="33"/>
       <c r="BJ47" s="33"/>
-      <c r="BK47" s="33"/>
-      <c r="BL47" s="33"/>
-      <c r="BM47" s="33"/>
-      <c r="BN47" s="33"/>
-      <c r="BO47" s="33"/>
-      <c r="BP47" s="33"/>
-      <c r="BQ47" s="33"/>
-      <c r="BR47" s="33"/>
-      <c r="BS47" s="33"/>
-      <c r="BT47" s="33"/>
-      <c r="BU47" s="33"/>
+      <c r="BK47" s="97"/>
+      <c r="BL47" s="101"/>
+      <c r="BM47" s="101"/>
+      <c r="BN47" s="101"/>
+      <c r="BO47" s="101"/>
+      <c r="BP47" s="101"/>
+      <c r="BQ47" s="101"/>
+      <c r="BR47" s="101"/>
+      <c r="BS47" s="101"/>
+      <c r="BT47" s="101"/>
+      <c r="BU47" s="101"/>
       <c r="BV47" s="33"/>
       <c r="BW47" s="33"/>
       <c r="BX47" s="33"/>
@@ -5614,8 +6051,18 @@
       <c r="CM47" s="33"/>
       <c r="CN47" s="33"/>
       <c r="CO47" s="33"/>
+      <c r="CP47" s="33"/>
+      <c r="CQ47" s="33"/>
+      <c r="CR47" s="33"/>
+      <c r="CS47" s="33"/>
+      <c r="CT47" s="33"/>
+      <c r="CU47" s="33"/>
+      <c r="CV47" s="33"/>
+      <c r="CW47" s="33"/>
+      <c r="CX47" s="33"/>
+      <c r="CY47" s="33"/>
     </row>
-    <row r="48" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>37</v>
       </c>
@@ -5641,17 +6088,17 @@
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
       <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="33"/>
-      <c r="AH48" s="33"/>
+      <c r="X48" s="97"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="101"/>
+      <c r="AG48" s="101"/>
+      <c r="AH48" s="101"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="33"/>
       <c r="AK48" s="33"/>
@@ -5680,17 +6127,17 @@
       <c r="BH48" s="33"/>
       <c r="BI48" s="33"/>
       <c r="BJ48" s="33"/>
-      <c r="BK48" s="33"/>
-      <c r="BL48" s="33"/>
-      <c r="BM48" s="33"/>
-      <c r="BN48" s="33"/>
-      <c r="BO48" s="33"/>
-      <c r="BP48" s="33"/>
-      <c r="BQ48" s="33"/>
-      <c r="BR48" s="33"/>
-      <c r="BS48" s="33"/>
-      <c r="BT48" s="33"/>
-      <c r="BU48" s="33"/>
+      <c r="BK48" s="97"/>
+      <c r="BL48" s="101"/>
+      <c r="BM48" s="101"/>
+      <c r="BN48" s="101"/>
+      <c r="BO48" s="101"/>
+      <c r="BP48" s="101"/>
+      <c r="BQ48" s="101"/>
+      <c r="BR48" s="101"/>
+      <c r="BS48" s="101"/>
+      <c r="BT48" s="101"/>
+      <c r="BU48" s="101"/>
       <c r="BV48" s="33"/>
       <c r="BW48" s="33"/>
       <c r="BX48" s="33"/>
@@ -5711,8 +6158,18 @@
       <c r="CM48" s="33"/>
       <c r="CN48" s="33"/>
       <c r="CO48" s="33"/>
+      <c r="CP48" s="33"/>
+      <c r="CQ48" s="33"/>
+      <c r="CR48" s="33"/>
+      <c r="CS48" s="33"/>
+      <c r="CT48" s="33"/>
+      <c r="CU48" s="33"/>
+      <c r="CV48" s="33"/>
+      <c r="CW48" s="33"/>
+      <c r="CX48" s="33"/>
+      <c r="CY48" s="33"/>
     </row>
-    <row r="49" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>38</v>
       </c>
@@ -5738,17 +6195,17 @@
       <c r="U49" s="33"/>
       <c r="V49" s="33"/>
       <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="33"/>
+      <c r="X49" s="97"/>
+      <c r="Y49" s="101"/>
+      <c r="Z49" s="101"/>
+      <c r="AA49" s="101"/>
+      <c r="AB49" s="101"/>
+      <c r="AC49" s="101"/>
+      <c r="AD49" s="101"/>
+      <c r="AE49" s="101"/>
+      <c r="AF49" s="101"/>
+      <c r="AG49" s="101"/>
+      <c r="AH49" s="101"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="33"/>
       <c r="AK49" s="33"/>
@@ -5777,17 +6234,17 @@
       <c r="BH49" s="33"/>
       <c r="BI49" s="33"/>
       <c r="BJ49" s="33"/>
-      <c r="BK49" s="33"/>
-      <c r="BL49" s="33"/>
-      <c r="BM49" s="33"/>
-      <c r="BN49" s="33"/>
-      <c r="BO49" s="33"/>
-      <c r="BP49" s="33"/>
-      <c r="BQ49" s="33"/>
-      <c r="BR49" s="33"/>
-      <c r="BS49" s="33"/>
-      <c r="BT49" s="33"/>
-      <c r="BU49" s="33"/>
+      <c r="BK49" s="97"/>
+      <c r="BL49" s="101"/>
+      <c r="BM49" s="101"/>
+      <c r="BN49" s="101"/>
+      <c r="BO49" s="101"/>
+      <c r="BP49" s="101"/>
+      <c r="BQ49" s="101"/>
+      <c r="BR49" s="101"/>
+      <c r="BS49" s="101"/>
+      <c r="BT49" s="101"/>
+      <c r="BU49" s="101"/>
       <c r="BV49" s="33"/>
       <c r="BW49" s="33"/>
       <c r="BX49" s="33"/>
@@ -5808,8 +6265,18 @@
       <c r="CM49" s="33"/>
       <c r="CN49" s="33"/>
       <c r="CO49" s="33"/>
+      <c r="CP49" s="33"/>
+      <c r="CQ49" s="33"/>
+      <c r="CR49" s="33"/>
+      <c r="CS49" s="33"/>
+      <c r="CT49" s="33"/>
+      <c r="CU49" s="33"/>
+      <c r="CV49" s="33"/>
+      <c r="CW49" s="33"/>
+      <c r="CX49" s="33"/>
+      <c r="CY49" s="33"/>
     </row>
-    <row r="50" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>39</v>
       </c>
@@ -5835,17 +6302,17 @@
       <c r="U50" s="33"/>
       <c r="V50" s="33"/>
       <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="33"/>
-      <c r="AH50" s="33"/>
+      <c r="X50" s="97"/>
+      <c r="Y50" s="101"/>
+      <c r="Z50" s="101"/>
+      <c r="AA50" s="101"/>
+      <c r="AB50" s="101"/>
+      <c r="AC50" s="101"/>
+      <c r="AD50" s="101"/>
+      <c r="AE50" s="101"/>
+      <c r="AF50" s="101"/>
+      <c r="AG50" s="101"/>
+      <c r="AH50" s="101"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="33"/>
       <c r="AK50" s="33"/>
@@ -5874,17 +6341,17 @@
       <c r="BH50" s="33"/>
       <c r="BI50" s="33"/>
       <c r="BJ50" s="33"/>
-      <c r="BK50" s="33"/>
-      <c r="BL50" s="33"/>
-      <c r="BM50" s="33"/>
-      <c r="BN50" s="33"/>
-      <c r="BO50" s="33"/>
-      <c r="BP50" s="33"/>
-      <c r="BQ50" s="33"/>
-      <c r="BR50" s="33"/>
-      <c r="BS50" s="33"/>
-      <c r="BT50" s="33"/>
-      <c r="BU50" s="33"/>
+      <c r="BK50" s="97"/>
+      <c r="BL50" s="101"/>
+      <c r="BM50" s="101"/>
+      <c r="BN50" s="101"/>
+      <c r="BO50" s="101"/>
+      <c r="BP50" s="101"/>
+      <c r="BQ50" s="101"/>
+      <c r="BR50" s="101"/>
+      <c r="BS50" s="101"/>
+      <c r="BT50" s="101"/>
+      <c r="BU50" s="101"/>
       <c r="BV50" s="33"/>
       <c r="BW50" s="33"/>
       <c r="BX50" s="33"/>
@@ -5905,8 +6372,18 @@
       <c r="CM50" s="33"/>
       <c r="CN50" s="33"/>
       <c r="CO50" s="33"/>
+      <c r="CP50" s="33"/>
+      <c r="CQ50" s="33"/>
+      <c r="CR50" s="33"/>
+      <c r="CS50" s="33"/>
+      <c r="CT50" s="33"/>
+      <c r="CU50" s="33"/>
+      <c r="CV50" s="33"/>
+      <c r="CW50" s="33"/>
+      <c r="CX50" s="33"/>
+      <c r="CY50" s="33"/>
     </row>
-    <row r="51" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>40</v>
       </c>
@@ -5932,17 +6409,17 @@
       <c r="U51" s="33"/>
       <c r="V51" s="33"/>
       <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="33"/>
-      <c r="AH51" s="33"/>
+      <c r="X51" s="97"/>
+      <c r="Y51" s="101"/>
+      <c r="Z51" s="101"/>
+      <c r="AA51" s="101"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="101"/>
+      <c r="AD51" s="101"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="101"/>
+      <c r="AG51" s="101"/>
+      <c r="AH51" s="101"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="33"/>
       <c r="AK51" s="33"/>
@@ -5971,17 +6448,17 @@
       <c r="BH51" s="33"/>
       <c r="BI51" s="33"/>
       <c r="BJ51" s="33"/>
-      <c r="BK51" s="33"/>
-      <c r="BL51" s="33"/>
-      <c r="BM51" s="33"/>
-      <c r="BN51" s="33"/>
-      <c r="BO51" s="33"/>
-      <c r="BP51" s="33"/>
-      <c r="BQ51" s="33"/>
-      <c r="BR51" s="33"/>
-      <c r="BS51" s="33"/>
-      <c r="BT51" s="33"/>
-      <c r="BU51" s="33"/>
+      <c r="BK51" s="97"/>
+      <c r="BL51" s="101"/>
+      <c r="BM51" s="101"/>
+      <c r="BN51" s="101"/>
+      <c r="BO51" s="101"/>
+      <c r="BP51" s="101"/>
+      <c r="BQ51" s="101"/>
+      <c r="BR51" s="101"/>
+      <c r="BS51" s="101"/>
+      <c r="BT51" s="101"/>
+      <c r="BU51" s="101"/>
       <c r="BV51" s="33"/>
       <c r="BW51" s="33"/>
       <c r="BX51" s="33"/>
@@ -6002,8 +6479,18 @@
       <c r="CM51" s="33"/>
       <c r="CN51" s="33"/>
       <c r="CO51" s="33"/>
+      <c r="CP51" s="33"/>
+      <c r="CQ51" s="33"/>
+      <c r="CR51" s="33"/>
+      <c r="CS51" s="33"/>
+      <c r="CT51" s="33"/>
+      <c r="CU51" s="33"/>
+      <c r="CV51" s="33"/>
+      <c r="CW51" s="33"/>
+      <c r="CX51" s="33"/>
+      <c r="CY51" s="33"/>
     </row>
-    <row r="52" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>41</v>
       </c>
@@ -6029,17 +6516,17 @@
       <c r="U52" s="33"/>
       <c r="V52" s="33"/>
       <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
+      <c r="X52" s="97"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="101"/>
+      <c r="AB52" s="101"/>
+      <c r="AC52" s="101"/>
+      <c r="AD52" s="101"/>
+      <c r="AE52" s="101"/>
+      <c r="AF52" s="101"/>
+      <c r="AG52" s="101"/>
+      <c r="AH52" s="101"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="33"/>
       <c r="AK52" s="33"/>
@@ -6068,17 +6555,17 @@
       <c r="BH52" s="33"/>
       <c r="BI52" s="33"/>
       <c r="BJ52" s="33"/>
-      <c r="BK52" s="33"/>
-      <c r="BL52" s="33"/>
-      <c r="BM52" s="33"/>
-      <c r="BN52" s="33"/>
-      <c r="BO52" s="33"/>
-      <c r="BP52" s="33"/>
-      <c r="BQ52" s="33"/>
-      <c r="BR52" s="33"/>
-      <c r="BS52" s="33"/>
-      <c r="BT52" s="33"/>
-      <c r="BU52" s="33"/>
+      <c r="BK52" s="97"/>
+      <c r="BL52" s="101"/>
+      <c r="BM52" s="101"/>
+      <c r="BN52" s="101"/>
+      <c r="BO52" s="101"/>
+      <c r="BP52" s="101"/>
+      <c r="BQ52" s="101"/>
+      <c r="BR52" s="101"/>
+      <c r="BS52" s="101"/>
+      <c r="BT52" s="101"/>
+      <c r="BU52" s="101"/>
       <c r="BV52" s="33"/>
       <c r="BW52" s="33"/>
       <c r="BX52" s="33"/>
@@ -6099,8 +6586,18 @@
       <c r="CM52" s="33"/>
       <c r="CN52" s="33"/>
       <c r="CO52" s="33"/>
+      <c r="CP52" s="33"/>
+      <c r="CQ52" s="33"/>
+      <c r="CR52" s="33"/>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
+      <c r="CU52" s="33"/>
+      <c r="CV52" s="33"/>
+      <c r="CW52" s="33"/>
+      <c r="CX52" s="33"/>
+      <c r="CY52" s="33"/>
     </row>
-    <row r="53" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>42</v>
       </c>
@@ -6126,17 +6623,17 @@
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
       <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="33"/>
-      <c r="AH53" s="33"/>
+      <c r="X53" s="97"/>
+      <c r="Y53" s="101"/>
+      <c r="Z53" s="101"/>
+      <c r="AA53" s="101"/>
+      <c r="AB53" s="101"/>
+      <c r="AC53" s="101"/>
+      <c r="AD53" s="101"/>
+      <c r="AE53" s="101"/>
+      <c r="AF53" s="101"/>
+      <c r="AG53" s="101"/>
+      <c r="AH53" s="101"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="33"/>
       <c r="AK53" s="33"/>
@@ -6165,17 +6662,17 @@
       <c r="BH53" s="33"/>
       <c r="BI53" s="33"/>
       <c r="BJ53" s="33"/>
-      <c r="BK53" s="33"/>
-      <c r="BL53" s="33"/>
-      <c r="BM53" s="33"/>
-      <c r="BN53" s="33"/>
-      <c r="BO53" s="33"/>
-      <c r="BP53" s="33"/>
-      <c r="BQ53" s="33"/>
-      <c r="BR53" s="33"/>
-      <c r="BS53" s="33"/>
-      <c r="BT53" s="33"/>
-      <c r="BU53" s="33"/>
+      <c r="BK53" s="97"/>
+      <c r="BL53" s="101"/>
+      <c r="BM53" s="101"/>
+      <c r="BN53" s="101"/>
+      <c r="BO53" s="101"/>
+      <c r="BP53" s="101"/>
+      <c r="BQ53" s="101"/>
+      <c r="BR53" s="101"/>
+      <c r="BS53" s="101"/>
+      <c r="BT53" s="101"/>
+      <c r="BU53" s="101"/>
       <c r="BV53" s="33"/>
       <c r="BW53" s="33"/>
       <c r="BX53" s="33"/>
@@ -6196,8 +6693,18 @@
       <c r="CM53" s="33"/>
       <c r="CN53" s="33"/>
       <c r="CO53" s="33"/>
+      <c r="CP53" s="33"/>
+      <c r="CQ53" s="33"/>
+      <c r="CR53" s="33"/>
+      <c r="CS53" s="33"/>
+      <c r="CT53" s="33"/>
+      <c r="CU53" s="33"/>
+      <c r="CV53" s="33"/>
+      <c r="CW53" s="33"/>
+      <c r="CX53" s="33"/>
+      <c r="CY53" s="33"/>
     </row>
-    <row r="54" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43</v>
       </c>
@@ -6223,17 +6730,17 @@
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="33"/>
+      <c r="X54" s="97"/>
+      <c r="Y54" s="101"/>
+      <c r="Z54" s="101"/>
+      <c r="AA54" s="101"/>
+      <c r="AB54" s="101"/>
+      <c r="AC54" s="101"/>
+      <c r="AD54" s="101"/>
+      <c r="AE54" s="101"/>
+      <c r="AF54" s="101"/>
+      <c r="AG54" s="101"/>
+      <c r="AH54" s="101"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="33"/>
       <c r="AK54" s="33"/>
@@ -6262,17 +6769,17 @@
       <c r="BH54" s="33"/>
       <c r="BI54" s="33"/>
       <c r="BJ54" s="33"/>
-      <c r="BK54" s="33"/>
-      <c r="BL54" s="33"/>
-      <c r="BM54" s="33"/>
-      <c r="BN54" s="33"/>
-      <c r="BO54" s="33"/>
-      <c r="BP54" s="33"/>
-      <c r="BQ54" s="33"/>
-      <c r="BR54" s="33"/>
-      <c r="BS54" s="33"/>
-      <c r="BT54" s="33"/>
-      <c r="BU54" s="33"/>
+      <c r="BK54" s="97"/>
+      <c r="BL54" s="101"/>
+      <c r="BM54" s="101"/>
+      <c r="BN54" s="101"/>
+      <c r="BO54" s="101"/>
+      <c r="BP54" s="101"/>
+      <c r="BQ54" s="101"/>
+      <c r="BR54" s="101"/>
+      <c r="BS54" s="101"/>
+      <c r="BT54" s="101"/>
+      <c r="BU54" s="101"/>
       <c r="BV54" s="33"/>
       <c r="BW54" s="33"/>
       <c r="BX54" s="33"/>
@@ -6293,8 +6800,18 @@
       <c r="CM54" s="33"/>
       <c r="CN54" s="33"/>
       <c r="CO54" s="33"/>
+      <c r="CP54" s="33"/>
+      <c r="CQ54" s="33"/>
+      <c r="CR54" s="33"/>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
+      <c r="CU54" s="33"/>
+      <c r="CV54" s="33"/>
+      <c r="CW54" s="33"/>
+      <c r="CX54" s="33"/>
+      <c r="CY54" s="33"/>
     </row>
-    <row r="55" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>44</v>
       </c>
@@ -6320,17 +6837,17 @@
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
       <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="101"/>
+      <c r="Z55" s="101"/>
+      <c r="AA55" s="101"/>
+      <c r="AB55" s="101"/>
+      <c r="AC55" s="101"/>
+      <c r="AD55" s="101"/>
+      <c r="AE55" s="101"/>
+      <c r="AF55" s="101"/>
+      <c r="AG55" s="101"/>
+      <c r="AH55" s="101"/>
       <c r="AI55" s="33"/>
       <c r="AJ55" s="33"/>
       <c r="AK55" s="33"/>
@@ -6359,17 +6876,17 @@
       <c r="BH55" s="33"/>
       <c r="BI55" s="33"/>
       <c r="BJ55" s="33"/>
-      <c r="BK55" s="33"/>
-      <c r="BL55" s="33"/>
-      <c r="BM55" s="33"/>
-      <c r="BN55" s="33"/>
-      <c r="BO55" s="33"/>
-      <c r="BP55" s="33"/>
-      <c r="BQ55" s="33"/>
-      <c r="BR55" s="33"/>
-      <c r="BS55" s="33"/>
-      <c r="BT55" s="33"/>
-      <c r="BU55" s="33"/>
+      <c r="BK55" s="97"/>
+      <c r="BL55" s="101"/>
+      <c r="BM55" s="101"/>
+      <c r="BN55" s="101"/>
+      <c r="BO55" s="101"/>
+      <c r="BP55" s="101"/>
+      <c r="BQ55" s="101"/>
+      <c r="BR55" s="101"/>
+      <c r="BS55" s="101"/>
+      <c r="BT55" s="101"/>
+      <c r="BU55" s="101"/>
       <c r="BV55" s="33"/>
       <c r="BW55" s="33"/>
       <c r="BX55" s="33"/>
@@ -6390,8 +6907,18 @@
       <c r="CM55" s="33"/>
       <c r="CN55" s="33"/>
       <c r="CO55" s="33"/>
+      <c r="CP55" s="33"/>
+      <c r="CQ55" s="33"/>
+      <c r="CR55" s="33"/>
+      <c r="CS55" s="33"/>
+      <c r="CT55" s="33"/>
+      <c r="CU55" s="33"/>
+      <c r="CV55" s="33"/>
+      <c r="CW55" s="33"/>
+      <c r="CX55" s="33"/>
+      <c r="CY55" s="33"/>
     </row>
-    <row r="56" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>45</v>
       </c>
@@ -6417,17 +6944,17 @@
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
       <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="33"/>
+      <c r="X56" s="97"/>
+      <c r="Y56" s="101"/>
+      <c r="Z56" s="101"/>
+      <c r="AA56" s="101"/>
+      <c r="AB56" s="101"/>
+      <c r="AC56" s="101"/>
+      <c r="AD56" s="101"/>
+      <c r="AE56" s="101"/>
+      <c r="AF56" s="101"/>
+      <c r="AG56" s="101"/>
+      <c r="AH56" s="101"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="33"/>
       <c r="AK56" s="33"/>
@@ -6456,17 +6983,17 @@
       <c r="BH56" s="33"/>
       <c r="BI56" s="33"/>
       <c r="BJ56" s="33"/>
-      <c r="BK56" s="33"/>
-      <c r="BL56" s="33"/>
-      <c r="BM56" s="33"/>
-      <c r="BN56" s="33"/>
-      <c r="BO56" s="33"/>
-      <c r="BP56" s="33"/>
-      <c r="BQ56" s="33"/>
-      <c r="BR56" s="33"/>
-      <c r="BS56" s="33"/>
-      <c r="BT56" s="33"/>
-      <c r="BU56" s="33"/>
+      <c r="BK56" s="97"/>
+      <c r="BL56" s="101"/>
+      <c r="BM56" s="101"/>
+      <c r="BN56" s="101"/>
+      <c r="BO56" s="101"/>
+      <c r="BP56" s="101"/>
+      <c r="BQ56" s="101"/>
+      <c r="BR56" s="101"/>
+      <c r="BS56" s="101"/>
+      <c r="BT56" s="101"/>
+      <c r="BU56" s="101"/>
       <c r="BV56" s="33"/>
       <c r="BW56" s="33"/>
       <c r="BX56" s="33"/>
@@ -6487,8 +7014,18 @@
       <c r="CM56" s="33"/>
       <c r="CN56" s="33"/>
       <c r="CO56" s="33"/>
+      <c r="CP56" s="33"/>
+      <c r="CQ56" s="33"/>
+      <c r="CR56" s="33"/>
+      <c r="CS56" s="33"/>
+      <c r="CT56" s="33"/>
+      <c r="CU56" s="33"/>
+      <c r="CV56" s="33"/>
+      <c r="CW56" s="33"/>
+      <c r="CX56" s="33"/>
+      <c r="CY56" s="33"/>
     </row>
-    <row r="57" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>46</v>
       </c>
@@ -6514,17 +7051,17 @@
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
       <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
+      <c r="X57" s="97"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="101"/>
+      <c r="AA57" s="101"/>
+      <c r="AB57" s="101"/>
+      <c r="AC57" s="101"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="101"/>
+      <c r="AF57" s="101"/>
+      <c r="AG57" s="101"/>
+      <c r="AH57" s="101"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="33"/>
       <c r="AK57" s="33"/>
@@ -6553,17 +7090,17 @@
       <c r="BH57" s="33"/>
       <c r="BI57" s="33"/>
       <c r="BJ57" s="33"/>
-      <c r="BK57" s="33"/>
-      <c r="BL57" s="33"/>
-      <c r="BM57" s="33"/>
-      <c r="BN57" s="33"/>
-      <c r="BO57" s="33"/>
-      <c r="BP57" s="33"/>
-      <c r="BQ57" s="33"/>
-      <c r="BR57" s="33"/>
-      <c r="BS57" s="33"/>
-      <c r="BT57" s="33"/>
-      <c r="BU57" s="33"/>
+      <c r="BK57" s="97"/>
+      <c r="BL57" s="101"/>
+      <c r="BM57" s="101"/>
+      <c r="BN57" s="101"/>
+      <c r="BO57" s="101"/>
+      <c r="BP57" s="101"/>
+      <c r="BQ57" s="101"/>
+      <c r="BR57" s="101"/>
+      <c r="BS57" s="101"/>
+      <c r="BT57" s="101"/>
+      <c r="BU57" s="101"/>
       <c r="BV57" s="33"/>
       <c r="BW57" s="33"/>
       <c r="BX57" s="33"/>
@@ -6584,8 +7121,18 @@
       <c r="CM57" s="33"/>
       <c r="CN57" s="33"/>
       <c r="CO57" s="33"/>
+      <c r="CP57" s="33"/>
+      <c r="CQ57" s="33"/>
+      <c r="CR57" s="33"/>
+      <c r="CS57" s="33"/>
+      <c r="CT57" s="33"/>
+      <c r="CU57" s="33"/>
+      <c r="CV57" s="33"/>
+      <c r="CW57" s="33"/>
+      <c r="CX57" s="33"/>
+      <c r="CY57" s="33"/>
     </row>
-    <row r="58" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>47</v>
       </c>
@@ -6611,17 +7158,17 @@
       <c r="U58" s="33"/>
       <c r="V58" s="33"/>
       <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="33"/>
+      <c r="X58" s="97"/>
+      <c r="Y58" s="101"/>
+      <c r="Z58" s="101"/>
+      <c r="AA58" s="101"/>
+      <c r="AB58" s="101"/>
+      <c r="AC58" s="101"/>
+      <c r="AD58" s="101"/>
+      <c r="AE58" s="101"/>
+      <c r="AF58" s="101"/>
+      <c r="AG58" s="101"/>
+      <c r="AH58" s="101"/>
       <c r="AI58" s="33"/>
       <c r="AJ58" s="33"/>
       <c r="AK58" s="33"/>
@@ -6650,17 +7197,17 @@
       <c r="BH58" s="33"/>
       <c r="BI58" s="33"/>
       <c r="BJ58" s="33"/>
-      <c r="BK58" s="33"/>
-      <c r="BL58" s="33"/>
-      <c r="BM58" s="33"/>
-      <c r="BN58" s="33"/>
-      <c r="BO58" s="33"/>
-      <c r="BP58" s="33"/>
-      <c r="BQ58" s="33"/>
-      <c r="BR58" s="33"/>
-      <c r="BS58" s="33"/>
-      <c r="BT58" s="33"/>
-      <c r="BU58" s="33"/>
+      <c r="BK58" s="97"/>
+      <c r="BL58" s="101"/>
+      <c r="BM58" s="101"/>
+      <c r="BN58" s="101"/>
+      <c r="BO58" s="101"/>
+      <c r="BP58" s="101"/>
+      <c r="BQ58" s="101"/>
+      <c r="BR58" s="101"/>
+      <c r="BS58" s="101"/>
+      <c r="BT58" s="101"/>
+      <c r="BU58" s="101"/>
       <c r="BV58" s="33"/>
       <c r="BW58" s="33"/>
       <c r="BX58" s="33"/>
@@ -6681,8 +7228,18 @@
       <c r="CM58" s="33"/>
       <c r="CN58" s="33"/>
       <c r="CO58" s="33"/>
+      <c r="CP58" s="33"/>
+      <c r="CQ58" s="33"/>
+      <c r="CR58" s="33"/>
+      <c r="CS58" s="33"/>
+      <c r="CT58" s="33"/>
+      <c r="CU58" s="33"/>
+      <c r="CV58" s="33"/>
+      <c r="CW58" s="33"/>
+      <c r="CX58" s="33"/>
+      <c r="CY58" s="33"/>
     </row>
-    <row r="59" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>48</v>
       </c>
@@ -6708,17 +7265,17 @@
       <c r="U59" s="33"/>
       <c r="V59" s="33"/>
       <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33"/>
+      <c r="X59" s="97"/>
+      <c r="Y59" s="101"/>
+      <c r="Z59" s="101"/>
+      <c r="AA59" s="101"/>
+      <c r="AB59" s="101"/>
+      <c r="AC59" s="101"/>
+      <c r="AD59" s="101"/>
+      <c r="AE59" s="101"/>
+      <c r="AF59" s="101"/>
+      <c r="AG59" s="101"/>
+      <c r="AH59" s="101"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="33"/>
       <c r="AK59" s="33"/>
@@ -6747,17 +7304,17 @@
       <c r="BH59" s="33"/>
       <c r="BI59" s="33"/>
       <c r="BJ59" s="33"/>
-      <c r="BK59" s="33"/>
-      <c r="BL59" s="33"/>
-      <c r="BM59" s="33"/>
-      <c r="BN59" s="33"/>
-      <c r="BO59" s="33"/>
-      <c r="BP59" s="33"/>
-      <c r="BQ59" s="33"/>
-      <c r="BR59" s="33"/>
-      <c r="BS59" s="33"/>
-      <c r="BT59" s="33"/>
-      <c r="BU59" s="33"/>
+      <c r="BK59" s="97"/>
+      <c r="BL59" s="101"/>
+      <c r="BM59" s="101"/>
+      <c r="BN59" s="101"/>
+      <c r="BO59" s="101"/>
+      <c r="BP59" s="101"/>
+      <c r="BQ59" s="101"/>
+      <c r="BR59" s="101"/>
+      <c r="BS59" s="101"/>
+      <c r="BT59" s="101"/>
+      <c r="BU59" s="101"/>
       <c r="BV59" s="33"/>
       <c r="BW59" s="33"/>
       <c r="BX59" s="33"/>
@@ -6778,8 +7335,18 @@
       <c r="CM59" s="33"/>
       <c r="CN59" s="33"/>
       <c r="CO59" s="33"/>
+      <c r="CP59" s="33"/>
+      <c r="CQ59" s="33"/>
+      <c r="CR59" s="33"/>
+      <c r="CS59" s="33"/>
+      <c r="CT59" s="33"/>
+      <c r="CU59" s="33"/>
+      <c r="CV59" s="33"/>
+      <c r="CW59" s="33"/>
+      <c r="CX59" s="33"/>
+      <c r="CY59" s="33"/>
     </row>
-    <row r="60" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30">
         <v>49</v>
       </c>
@@ -6805,17 +7372,17 @@
       <c r="U60" s="33"/>
       <c r="V60" s="33"/>
       <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="33"/>
+      <c r="X60" s="97"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="101"/>
+      <c r="AA60" s="101"/>
+      <c r="AB60" s="101"/>
+      <c r="AC60" s="101"/>
+      <c r="AD60" s="101"/>
+      <c r="AE60" s="101"/>
+      <c r="AF60" s="101"/>
+      <c r="AG60" s="101"/>
+      <c r="AH60" s="101"/>
       <c r="AI60" s="33"/>
       <c r="AJ60" s="33"/>
       <c r="AK60" s="33"/>
@@ -6844,17 +7411,17 @@
       <c r="BH60" s="33"/>
       <c r="BI60" s="33"/>
       <c r="BJ60" s="33"/>
-      <c r="BK60" s="33"/>
-      <c r="BL60" s="33"/>
-      <c r="BM60" s="33"/>
-      <c r="BN60" s="33"/>
-      <c r="BO60" s="33"/>
-      <c r="BP60" s="33"/>
-      <c r="BQ60" s="33"/>
-      <c r="BR60" s="33"/>
-      <c r="BS60" s="33"/>
-      <c r="BT60" s="33"/>
-      <c r="BU60" s="33"/>
+      <c r="BK60" s="97"/>
+      <c r="BL60" s="101"/>
+      <c r="BM60" s="101"/>
+      <c r="BN60" s="101"/>
+      <c r="BO60" s="101"/>
+      <c r="BP60" s="101"/>
+      <c r="BQ60" s="101"/>
+      <c r="BR60" s="101"/>
+      <c r="BS60" s="101"/>
+      <c r="BT60" s="101"/>
+      <c r="BU60" s="101"/>
       <c r="BV60" s="33"/>
       <c r="BW60" s="33"/>
       <c r="BX60" s="33"/>
@@ -6875,8 +7442,18 @@
       <c r="CM60" s="33"/>
       <c r="CN60" s="33"/>
       <c r="CO60" s="33"/>
+      <c r="CP60" s="33"/>
+      <c r="CQ60" s="33"/>
+      <c r="CR60" s="33"/>
+      <c r="CS60" s="33"/>
+      <c r="CT60" s="33"/>
+      <c r="CU60" s="33"/>
+      <c r="CV60" s="33"/>
+      <c r="CW60" s="33"/>
+      <c r="CX60" s="33"/>
+      <c r="CY60" s="33"/>
     </row>
-    <row r="61" spans="1:93" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:103" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30">
         <v>50</v>
       </c>
@@ -6902,17 +7479,17 @@
       <c r="U61" s="33"/>
       <c r="V61" s="33"/>
       <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="33"/>
+      <c r="X61" s="97"/>
+      <c r="Y61" s="101"/>
+      <c r="Z61" s="101"/>
+      <c r="AA61" s="101"/>
+      <c r="AB61" s="101"/>
+      <c r="AC61" s="101"/>
+      <c r="AD61" s="101"/>
+      <c r="AE61" s="101"/>
+      <c r="AF61" s="101"/>
+      <c r="AG61" s="101"/>
+      <c r="AH61" s="101"/>
       <c r="AI61" s="33"/>
       <c r="AJ61" s="33"/>
       <c r="AK61" s="33"/>
@@ -6941,17 +7518,17 @@
       <c r="BH61" s="33"/>
       <c r="BI61" s="33"/>
       <c r="BJ61" s="33"/>
-      <c r="BK61" s="33"/>
-      <c r="BL61" s="33"/>
-      <c r="BM61" s="33"/>
-      <c r="BN61" s="33"/>
-      <c r="BO61" s="33"/>
-      <c r="BP61" s="33"/>
-      <c r="BQ61" s="33"/>
-      <c r="BR61" s="33"/>
-      <c r="BS61" s="33"/>
-      <c r="BT61" s="33"/>
-      <c r="BU61" s="33"/>
+      <c r="BK61" s="97"/>
+      <c r="BL61" s="101"/>
+      <c r="BM61" s="101"/>
+      <c r="BN61" s="101"/>
+      <c r="BO61" s="101"/>
+      <c r="BP61" s="101"/>
+      <c r="BQ61" s="101"/>
+      <c r="BR61" s="101"/>
+      <c r="BS61" s="101"/>
+      <c r="BT61" s="101"/>
+      <c r="BU61" s="101"/>
       <c r="BV61" s="33"/>
       <c r="BW61" s="33"/>
       <c r="BX61" s="33"/>
@@ -6972,49 +7549,49 @@
       <c r="CM61" s="33"/>
       <c r="CN61" s="33"/>
       <c r="CO61" s="33"/>
+      <c r="CP61" s="33"/>
+      <c r="CQ61" s="33"/>
+      <c r="CR61" s="33"/>
+      <c r="CS61" s="33"/>
+      <c r="CT61" s="33"/>
+      <c r="CU61" s="33"/>
+      <c r="CV61" s="33"/>
+      <c r="CW61" s="33"/>
+      <c r="CX61" s="33"/>
+      <c r="CY61" s="33"/>
     </row>
-    <row r="63" spans="1:93" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="70" t="s">
+    <row r="63" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BM63" s="15"/>
+      <c r="BN63" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
+      <c r="BO63" s="76"/>
+      <c r="BP63" s="76"/>
+      <c r="BQ63" s="104"/>
+      <c r="BR63" s="104"/>
+      <c r="BS63" s="104"/>
+      <c r="BT63" s="104"/>
+      <c r="BU63" s="104"/>
+      <c r="BV63" s="104"/>
+      <c r="BW63" s="104"/>
+      <c r="BX63" s="104"/>
+      <c r="BY63" s="104"/>
+      <c r="BZ63" s="104"/>
+      <c r="CA63" s="104"/>
+      <c r="CB63" s="104"/>
+      <c r="CC63" s="104"/>
+      <c r="CR63" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS63" s="83"/>
+      <c r="CT63" s="83"/>
+      <c r="CU63" s="83"/>
+      <c r="CV63" s="83"/>
+      <c r="CW63" s="83"/>
+      <c r="CX63" s="83"/>
+      <c r="CY63" s="84"/>
     </row>
-    <row r="64" spans="1:93" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="U64" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="V64" s="82"/>
-      <c r="W64" s="82"/>
-      <c r="X64" s="82"/>
-      <c r="Y64" s="82"/>
-      <c r="Z64" s="82"/>
-      <c r="AA64" s="82"/>
-      <c r="AB64" s="82"/>
+    <row r="64" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AL64" s="32"/>
       <c r="AM64" s="32"/>
       <c r="AN64" s="32"/>
@@ -7023,214 +7600,260 @@
       <c r="AQ64" s="32"/>
       <c r="AR64" s="32"/>
       <c r="AS64" s="32"/>
+      <c r="BL64" s="4"/>
+      <c r="BM64" s="28"/>
+      <c r="BN64" s="28"/>
+      <c r="BP64" s="15"/>
+      <c r="BQ64" s="15"/>
+      <c r="BR64" s="15"/>
+      <c r="BS64" s="15"/>
+      <c r="BT64" s="15"/>
+      <c r="BU64" s="15"/>
+      <c r="BV64" s="15"/>
+      <c r="BW64" s="15"/>
+      <c r="BY64" s="15"/>
+      <c r="BZ64" s="15"/>
+      <c r="CQ64" s="80"/>
+      <c r="CR64" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS64" s="84"/>
+      <c r="CT64" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU64" s="86"/>
+      <c r="CV64" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="CW64" s="86"/>
+      <c r="CX64" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY64" s="86"/>
     </row>
-    <row r="65" spans="1:29" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="U65" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="V65" s="83"/>
-      <c r="W65" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="X65" s="84"/>
-      <c r="Y65" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z65" s="84"/>
-      <c r="AA65" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB65" s="84"/>
+    <row r="65" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL65" s="4"/>
+      <c r="BM65" s="28"/>
+      <c r="BN65" s="28"/>
+      <c r="BO65" s="94"/>
+      <c r="BP65" s="94"/>
+      <c r="BQ65" s="94"/>
+      <c r="BR65" s="94"/>
+      <c r="BS65" s="94"/>
+      <c r="BT65" s="94"/>
+      <c r="BU65" s="94"/>
+      <c r="BV65" s="94"/>
+      <c r="BW65" s="94"/>
+      <c r="BX65" s="94"/>
+      <c r="BY65" s="15"/>
+      <c r="BZ65" s="15"/>
+      <c r="CG65" s="74"/>
+      <c r="CH65" s="74"/>
+      <c r="CI65" s="74"/>
+      <c r="CJ65" s="74"/>
+      <c r="CK65" s="74"/>
+      <c r="CL65" s="74"/>
+      <c r="CM65" s="74"/>
+      <c r="CN65" s="74"/>
+      <c r="CO65" s="74"/>
+      <c r="CQ65" s="81"/>
+      <c r="CR65" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS65" s="86"/>
+      <c r="CT65" s="87"/>
+      <c r="CU65" s="88"/>
+      <c r="CV65" s="87"/>
+      <c r="CW65" s="88"/>
+      <c r="CX65" s="87">
+        <f>CT65-CV65</f>
+        <v>0</v>
+      </c>
+      <c r="CY65" s="88"/>
     </row>
-    <row r="66" spans="1:29" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="U66" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="V66" s="73"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="71"/>
-      <c r="Y66" s="71"/>
-      <c r="Z66" s="71"/>
-      <c r="AA66" s="71">
-        <f>W66-Y66</f>
+    <row r="66" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL66" s="4"/>
+      <c r="BM66" s="92"/>
+      <c r="BN66" s="93"/>
+      <c r="BO66" s="73"/>
+      <c r="BP66" s="73"/>
+      <c r="BQ66" s="73"/>
+      <c r="BR66" s="73"/>
+      <c r="BS66" s="73"/>
+      <c r="BT66" s="73"/>
+      <c r="BU66" s="73"/>
+      <c r="BV66" s="73"/>
+      <c r="BW66" s="73"/>
+      <c r="BX66" s="73"/>
+      <c r="CG66" s="90"/>
+      <c r="CH66" s="90"/>
+      <c r="CI66" s="90"/>
+      <c r="CJ66" s="90"/>
+      <c r="CK66" s="90"/>
+      <c r="CL66" s="90"/>
+      <c r="CM66" s="90"/>
+      <c r="CN66" s="90"/>
+      <c r="CO66" s="90"/>
+      <c r="CQ66" s="78"/>
+      <c r="CR66" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS66" s="86"/>
+      <c r="CT66" s="87"/>
+      <c r="CU66" s="88"/>
+      <c r="CV66" s="87"/>
+      <c r="CW66" s="88"/>
+      <c r="CX66" s="87">
+        <f>CT66-CV66</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="71"/>
+      <c r="CY66" s="88"/>
     </row>
-    <row r="67" spans="1:29" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="U67" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="V67" s="73"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="71"/>
-      <c r="Y67" s="71"/>
-      <c r="Z67" s="71"/>
-      <c r="AA67" s="71">
-        <f>W67-Y67</f>
+    <row r="67" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL67" s="16"/>
+      <c r="BM67" s="91"/>
+      <c r="BN67" s="91"/>
+      <c r="BO67" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP67" s="75"/>
+      <c r="BQ67" s="75"/>
+      <c r="BR67" s="75"/>
+      <c r="BS67" s="75"/>
+      <c r="BT67" s="75"/>
+      <c r="BU67" s="75"/>
+      <c r="BV67" s="75"/>
+      <c r="BW67" s="75"/>
+      <c r="BX67" s="75"/>
+      <c r="CG67" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH67" s="75"/>
+      <c r="CI67" s="75"/>
+      <c r="CJ67" s="75"/>
+      <c r="CK67" s="75"/>
+      <c r="CL67" s="75"/>
+      <c r="CM67" s="75"/>
+      <c r="CN67" s="75"/>
+      <c r="CO67" s="75"/>
+      <c r="CQ67" s="78"/>
+      <c r="CR67" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS67" s="69"/>
+      <c r="CT67" s="89">
+        <f>CT66+CT65</f>
         <v>0</v>
       </c>
-      <c r="AB67" s="71"/>
+      <c r="CU67" s="89"/>
+      <c r="CV67" s="89">
+        <f>CV66+CV65</f>
+        <v>0</v>
+      </c>
+      <c r="CW67" s="89"/>
+      <c r="CX67" s="89">
+        <f>CX66+CX65</f>
+        <v>0</v>
+      </c>
+      <c r="CY67" s="89"/>
     </row>
-    <row r="68" spans="1:29" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="G68" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="S68" s="17"/>
-      <c r="U68" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="V68" s="81"/>
-      <c r="W68" s="64">
-        <f>SUM(W66:W67)</f>
-        <v>0</v>
-      </c>
-      <c r="X68" s="64"/>
-      <c r="Y68" s="64">
-        <f>SUM(Y66:Y67)</f>
-        <v>0</v>
-      </c>
-      <c r="Z68" s="64"/>
-      <c r="AA68" s="64">
-        <f>SUM(AA66:AA67)</f>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="64"/>
+    <row r="68" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC68" s="17"/>
+      <c r="BL68" s="16"/>
+      <c r="CD68" s="17"/>
+      <c r="CQ68" s="79"/>
     </row>
-    <row r="69" spans="1:29" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:103" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="W66:X66"/>
+  <mergeCells count="30">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="BO66:BX66"/>
+    <mergeCell ref="BO65:BX65"/>
+    <mergeCell ref="CR63:CY63"/>
+    <mergeCell ref="CR64:CS64"/>
+    <mergeCell ref="CT64:CU64"/>
+    <mergeCell ref="CV64:CW64"/>
+    <mergeCell ref="CX64:CY64"/>
+    <mergeCell ref="CV66:CW66"/>
+    <mergeCell ref="CV67:CW67"/>
+    <mergeCell ref="CX66:CY66"/>
+    <mergeCell ref="CX67:CY67"/>
+    <mergeCell ref="CR66:CS66"/>
+    <mergeCell ref="CR67:CS67"/>
+    <mergeCell ref="CT66:CU66"/>
+    <mergeCell ref="CT67:CU67"/>
+    <mergeCell ref="CT65:CU65"/>
+    <mergeCell ref="CV65:CW65"/>
+    <mergeCell ref="CX65:CY65"/>
+    <mergeCell ref="CR65:CS65"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="CG65:CO65"/>
+    <mergeCell ref="CG66:CO66"/>
+    <mergeCell ref="BM67:BN67"/>
     <mergeCell ref="Q8:Z8"/>
     <mergeCell ref="B8:O8"/>
-    <mergeCell ref="U68:V68"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="U64:AB64"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="AA68:AB68"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="G67:O67"/>
-    <mergeCell ref="G66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="U67:V67"/>
-    <mergeCell ref="W67:X67"/>
-    <mergeCell ref="Y67:Z67"/>
-    <mergeCell ref="AA67:AB67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="BN63:BP63"/>
+    <mergeCell ref="BQ63:CC63"/>
+    <mergeCell ref="CG67:CO67"/>
+    <mergeCell ref="BO67:BX67"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12:CO61">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+  <conditionalFormatting sqref="D12:CY61">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"N/H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"E/P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"SO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"SA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"C/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"S/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"NE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"S/A"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="5" scale="98" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="14" scale="86" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RPágina &amp;P de &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="28" max="94" man="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="28" max="1048575" man="1"/>
+    <brk id="27" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7487,17 +8110,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7522,18 +8155,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
+++ b/formatos_hoja_de_calculo/CUADRO EDUCACION BASICA ESTANDAR DE DESARROLLO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7A073-83D3-459C-8F6A-91D1A0929FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12D20C-F53B-4C58-A342-C752AC9D5FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>N°</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>C/A</t>
+  </si>
+  <si>
+    <t>MUNICIPIO:</t>
   </si>
 </sst>
 </file>
@@ -881,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,6 +1064,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,109 +1164,14 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,7 +1573,7 @@
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,36 +1588,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="95"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="66"/>
       <c r="AC1" s="18"/>
       <c r="AD1" s="18"/>
       <c r="AE1" s="18"/>
@@ -1639,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="77"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="18" t="s">
         <v>15</v>
       </c>
@@ -1698,9 +1688,10 @@
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
@@ -1741,8 +1732,11 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="T4" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
@@ -1911,35 +1905,35 @@
     </row>
     <row r="8" spans="1:103" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="96"/>
       <c r="P8" s="27"/>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="65"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="93"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
       <c r="AC8" s="19"/>
@@ -1993,11 +1987,11 @@
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:103" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3988,16 +3982,16 @@
       <c r="BI28" s="41"/>
       <c r="BJ28" s="41"/>
       <c r="BK28" s="41"/>
-      <c r="BL28" s="99"/>
-      <c r="BM28" s="99"/>
-      <c r="BN28" s="99"/>
-      <c r="BO28" s="99"/>
-      <c r="BP28" s="99"/>
-      <c r="BQ28" s="99"/>
-      <c r="BR28" s="99"/>
-      <c r="BS28" s="99"/>
-      <c r="BT28" s="99"/>
-      <c r="BU28" s="99"/>
+      <c r="BL28" s="70"/>
+      <c r="BM28" s="70"/>
+      <c r="BN28" s="70"/>
+      <c r="BO28" s="70"/>
+      <c r="BP28" s="70"/>
+      <c r="BQ28" s="70"/>
+      <c r="BR28" s="70"/>
+      <c r="BS28" s="70"/>
+      <c r="BT28" s="70"/>
+      <c r="BU28" s="70"/>
       <c r="BV28" s="41"/>
       <c r="BW28" s="41"/>
       <c r="BX28" s="41"/>
@@ -4056,16 +4050,16 @@
       <c r="V29" s="41"/>
       <c r="W29" s="41"/>
       <c r="X29" s="41"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
       <c r="AI29" s="41"/>
       <c r="AJ29" s="41"/>
       <c r="AK29" s="41"/>
@@ -4094,18 +4088,18 @@
       <c r="BH29" s="41"/>
       <c r="BI29" s="41"/>
       <c r="BJ29" s="41"/>
-      <c r="BK29" s="96"/>
-      <c r="BL29" s="100"/>
-      <c r="BM29" s="100"/>
-      <c r="BN29" s="100"/>
-      <c r="BO29" s="100"/>
-      <c r="BP29" s="100"/>
-      <c r="BQ29" s="100"/>
-      <c r="BR29" s="100"/>
-      <c r="BS29" s="100"/>
-      <c r="BT29" s="100"/>
-      <c r="BU29" s="100"/>
-      <c r="BV29" s="98"/>
+      <c r="BK29" s="67"/>
+      <c r="BL29" s="71"/>
+      <c r="BM29" s="71"/>
+      <c r="BN29" s="71"/>
+      <c r="BO29" s="71"/>
+      <c r="BP29" s="71"/>
+      <c r="BQ29" s="71"/>
+      <c r="BR29" s="71"/>
+      <c r="BS29" s="71"/>
+      <c r="BT29" s="71"/>
+      <c r="BU29" s="71"/>
+      <c r="BV29" s="69"/>
       <c r="BW29" s="41"/>
       <c r="BX29" s="41"/>
       <c r="BY29" s="41"/>
@@ -4162,18 +4156,18 @@
       <c r="U30" s="41"/>
       <c r="V30" s="41"/>
       <c r="W30" s="41"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="100"/>
-      <c r="AI30" s="98"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="69"/>
       <c r="AJ30" s="41"/>
       <c r="AK30" s="41"/>
       <c r="AL30" s="41"/>
@@ -4201,18 +4195,18 @@
       <c r="BH30" s="41"/>
       <c r="BI30" s="41"/>
       <c r="BJ30" s="41"/>
-      <c r="BK30" s="96"/>
-      <c r="BL30" s="100"/>
-      <c r="BM30" s="100"/>
-      <c r="BN30" s="100"/>
-      <c r="BO30" s="100"/>
-      <c r="BP30" s="100"/>
-      <c r="BQ30" s="100"/>
-      <c r="BR30" s="100"/>
-      <c r="BS30" s="100"/>
-      <c r="BT30" s="100"/>
-      <c r="BU30" s="100"/>
-      <c r="BV30" s="98"/>
+      <c r="BK30" s="67"/>
+      <c r="BL30" s="71"/>
+      <c r="BM30" s="71"/>
+      <c r="BN30" s="71"/>
+      <c r="BO30" s="71"/>
+      <c r="BP30" s="71"/>
+      <c r="BQ30" s="71"/>
+      <c r="BR30" s="71"/>
+      <c r="BS30" s="71"/>
+      <c r="BT30" s="71"/>
+      <c r="BU30" s="71"/>
+      <c r="BV30" s="69"/>
       <c r="BW30" s="41"/>
       <c r="BX30" s="41"/>
       <c r="BY30" s="41"/>
@@ -4269,18 +4263,18 @@
       <c r="U31" s="41"/>
       <c r="V31" s="41"/>
       <c r="W31" s="41"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="98"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="69"/>
       <c r="AJ31" s="41"/>
       <c r="AK31" s="41"/>
       <c r="AL31" s="41"/>
@@ -4308,18 +4302,18 @@
       <c r="BH31" s="41"/>
       <c r="BI31" s="41"/>
       <c r="BJ31" s="41"/>
-      <c r="BK31" s="96"/>
-      <c r="BL31" s="100"/>
-      <c r="BM31" s="100"/>
-      <c r="BN31" s="100"/>
-      <c r="BO31" s="100"/>
-      <c r="BP31" s="100"/>
-      <c r="BQ31" s="100"/>
-      <c r="BR31" s="100"/>
-      <c r="BS31" s="100"/>
-      <c r="BT31" s="100"/>
-      <c r="BU31" s="100"/>
-      <c r="BV31" s="98"/>
+      <c r="BK31" s="67"/>
+      <c r="BL31" s="71"/>
+      <c r="BM31" s="71"/>
+      <c r="BN31" s="71"/>
+      <c r="BO31" s="71"/>
+      <c r="BP31" s="71"/>
+      <c r="BQ31" s="71"/>
+      <c r="BR31" s="71"/>
+      <c r="BS31" s="71"/>
+      <c r="BT31" s="71"/>
+      <c r="BU31" s="71"/>
+      <c r="BV31" s="69"/>
       <c r="BW31" s="41"/>
       <c r="BX31" s="41"/>
       <c r="BY31" s="41"/>
@@ -4376,18 +4370,18 @@
       <c r="U32" s="41"/>
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="100"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="98"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="69"/>
       <c r="AJ32" s="41"/>
       <c r="AK32" s="41"/>
       <c r="AL32" s="41"/>
@@ -4415,18 +4409,18 @@
       <c r="BH32" s="41"/>
       <c r="BI32" s="41"/>
       <c r="BJ32" s="41"/>
-      <c r="BK32" s="96"/>
-      <c r="BL32" s="100"/>
-      <c r="BM32" s="100"/>
-      <c r="BN32" s="100"/>
-      <c r="BO32" s="100"/>
-      <c r="BP32" s="100"/>
-      <c r="BQ32" s="100"/>
-      <c r="BR32" s="100"/>
-      <c r="BS32" s="100"/>
-      <c r="BT32" s="100"/>
-      <c r="BU32" s="100"/>
-      <c r="BV32" s="98"/>
+      <c r="BK32" s="67"/>
+      <c r="BL32" s="71"/>
+      <c r="BM32" s="71"/>
+      <c r="BN32" s="71"/>
+      <c r="BO32" s="71"/>
+      <c r="BP32" s="71"/>
+      <c r="BQ32" s="71"/>
+      <c r="BR32" s="71"/>
+      <c r="BS32" s="71"/>
+      <c r="BT32" s="71"/>
+      <c r="BU32" s="71"/>
+      <c r="BV32" s="69"/>
       <c r="BW32" s="41"/>
       <c r="BX32" s="41"/>
       <c r="BY32" s="41"/>
@@ -4483,18 +4477,18 @@
       <c r="U33" s="42"/>
       <c r="V33" s="42"/>
       <c r="W33" s="42"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="98"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="69"/>
       <c r="AJ33" s="41"/>
       <c r="AK33" s="41"/>
       <c r="AL33" s="41"/>
@@ -4522,18 +4516,18 @@
       <c r="BH33" s="41"/>
       <c r="BI33" s="41"/>
       <c r="BJ33" s="41"/>
-      <c r="BK33" s="96"/>
-      <c r="BL33" s="100"/>
-      <c r="BM33" s="100"/>
-      <c r="BN33" s="100"/>
-      <c r="BO33" s="100"/>
-      <c r="BP33" s="100"/>
-      <c r="BQ33" s="100"/>
-      <c r="BR33" s="100"/>
-      <c r="BS33" s="100"/>
-      <c r="BT33" s="100"/>
-      <c r="BU33" s="100"/>
-      <c r="BV33" s="98"/>
+      <c r="BK33" s="67"/>
+      <c r="BL33" s="71"/>
+      <c r="BM33" s="71"/>
+      <c r="BN33" s="71"/>
+      <c r="BO33" s="71"/>
+      <c r="BP33" s="71"/>
+      <c r="BQ33" s="71"/>
+      <c r="BR33" s="71"/>
+      <c r="BS33" s="71"/>
+      <c r="BT33" s="71"/>
+      <c r="BU33" s="71"/>
+      <c r="BV33" s="69"/>
       <c r="BW33" s="41"/>
       <c r="BX33" s="41"/>
       <c r="BY33" s="41"/>
@@ -4590,18 +4584,18 @@
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
       <c r="W34" s="41"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="100"/>
-      <c r="AF34" s="100"/>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="100"/>
-      <c r="AI34" s="98"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="69"/>
       <c r="AJ34" s="41"/>
       <c r="AK34" s="41"/>
       <c r="AL34" s="41"/>
@@ -4629,18 +4623,18 @@
       <c r="BH34" s="41"/>
       <c r="BI34" s="41"/>
       <c r="BJ34" s="41"/>
-      <c r="BK34" s="96"/>
-      <c r="BL34" s="100"/>
-      <c r="BM34" s="100"/>
-      <c r="BN34" s="100"/>
-      <c r="BO34" s="100"/>
-      <c r="BP34" s="100"/>
-      <c r="BQ34" s="100"/>
-      <c r="BR34" s="100"/>
-      <c r="BS34" s="100"/>
-      <c r="BT34" s="100"/>
-      <c r="BU34" s="100"/>
-      <c r="BV34" s="98"/>
+      <c r="BK34" s="67"/>
+      <c r="BL34" s="71"/>
+      <c r="BM34" s="71"/>
+      <c r="BN34" s="71"/>
+      <c r="BO34" s="71"/>
+      <c r="BP34" s="71"/>
+      <c r="BQ34" s="71"/>
+      <c r="BR34" s="71"/>
+      <c r="BS34" s="71"/>
+      <c r="BT34" s="71"/>
+      <c r="BU34" s="71"/>
+      <c r="BV34" s="69"/>
       <c r="BW34" s="41"/>
       <c r="BX34" s="41"/>
       <c r="BY34" s="41"/>
@@ -4697,18 +4691,18 @@
       <c r="U35" s="41"/>
       <c r="V35" s="41"/>
       <c r="W35" s="41"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="100"/>
-      <c r="AF35" s="100"/>
-      <c r="AG35" s="100"/>
-      <c r="AH35" s="100"/>
-      <c r="AI35" s="98"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="69"/>
       <c r="AJ35" s="41"/>
       <c r="AK35" s="41"/>
       <c r="AL35" s="41"/>
@@ -4736,18 +4730,18 @@
       <c r="BH35" s="41"/>
       <c r="BI35" s="41"/>
       <c r="BJ35" s="41"/>
-      <c r="BK35" s="96"/>
-      <c r="BL35" s="100"/>
-      <c r="BM35" s="100"/>
-      <c r="BN35" s="100"/>
-      <c r="BO35" s="100"/>
-      <c r="BP35" s="100"/>
-      <c r="BQ35" s="100"/>
-      <c r="BR35" s="100"/>
-      <c r="BS35" s="100"/>
-      <c r="BT35" s="100"/>
-      <c r="BU35" s="100"/>
-      <c r="BV35" s="98"/>
+      <c r="BK35" s="67"/>
+      <c r="BL35" s="71"/>
+      <c r="BM35" s="71"/>
+      <c r="BN35" s="71"/>
+      <c r="BO35" s="71"/>
+      <c r="BP35" s="71"/>
+      <c r="BQ35" s="71"/>
+      <c r="BR35" s="71"/>
+      <c r="BS35" s="71"/>
+      <c r="BT35" s="71"/>
+      <c r="BU35" s="71"/>
+      <c r="BV35" s="69"/>
       <c r="BW35" s="41"/>
       <c r="BX35" s="41"/>
       <c r="BY35" s="41"/>
@@ -4804,18 +4798,18 @@
       <c r="U36" s="41"/>
       <c r="V36" s="41"/>
       <c r="W36" s="41"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="100"/>
-      <c r="Z36" s="100"/>
-      <c r="AA36" s="100"/>
-      <c r="AB36" s="100"/>
-      <c r="AC36" s="100"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="100"/>
-      <c r="AF36" s="100"/>
-      <c r="AG36" s="100"/>
-      <c r="AH36" s="100"/>
-      <c r="AI36" s="98"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71"/>
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="69"/>
       <c r="AJ36" s="41"/>
       <c r="AK36" s="41"/>
       <c r="AL36" s="41"/>
@@ -4843,18 +4837,18 @@
       <c r="BH36" s="41"/>
       <c r="BI36" s="41"/>
       <c r="BJ36" s="41"/>
-      <c r="BK36" s="96"/>
-      <c r="BL36" s="100"/>
-      <c r="BM36" s="100"/>
-      <c r="BN36" s="100"/>
-      <c r="BO36" s="100"/>
-      <c r="BP36" s="100"/>
-      <c r="BQ36" s="100"/>
-      <c r="BR36" s="100"/>
-      <c r="BS36" s="100"/>
-      <c r="BT36" s="100"/>
-      <c r="BU36" s="100"/>
-      <c r="BV36" s="98"/>
+      <c r="BK36" s="67"/>
+      <c r="BL36" s="71"/>
+      <c r="BM36" s="71"/>
+      <c r="BN36" s="71"/>
+      <c r="BO36" s="71"/>
+      <c r="BP36" s="71"/>
+      <c r="BQ36" s="71"/>
+      <c r="BR36" s="71"/>
+      <c r="BS36" s="71"/>
+      <c r="BT36" s="71"/>
+      <c r="BU36" s="71"/>
+      <c r="BV36" s="69"/>
       <c r="BW36" s="41"/>
       <c r="BX36" s="41"/>
       <c r="BY36" s="41"/>
@@ -4911,17 +4905,17 @@
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="101"/>
-      <c r="AD37" s="101"/>
-      <c r="AE37" s="101"/>
-      <c r="AF37" s="101"/>
-      <c r="AG37" s="101"/>
-      <c r="AH37" s="101"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="33"/>
       <c r="AK37" s="33"/>
@@ -4950,17 +4944,17 @@
       <c r="BH37" s="33"/>
       <c r="BI37" s="33"/>
       <c r="BJ37" s="33"/>
-      <c r="BK37" s="97"/>
-      <c r="BL37" s="101"/>
-      <c r="BM37" s="101"/>
-      <c r="BN37" s="101"/>
-      <c r="BO37" s="101"/>
-      <c r="BP37" s="101"/>
-      <c r="BQ37" s="101"/>
-      <c r="BR37" s="101"/>
-      <c r="BS37" s="101"/>
-      <c r="BT37" s="101"/>
-      <c r="BU37" s="101"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="72"/>
+      <c r="BM37" s="72"/>
+      <c r="BN37" s="72"/>
+      <c r="BO37" s="72"/>
+      <c r="BP37" s="72"/>
+      <c r="BQ37" s="72"/>
+      <c r="BR37" s="72"/>
+      <c r="BS37" s="72"/>
+      <c r="BT37" s="72"/>
+      <c r="BU37" s="72"/>
       <c r="BV37" s="33"/>
       <c r="BW37" s="33"/>
       <c r="BX37" s="33"/>
@@ -5018,17 +5012,17 @@
       <c r="U38" s="33"/>
       <c r="V38" s="33"/>
       <c r="W38" s="33"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="101"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="101"/>
-      <c r="AD38" s="101"/>
-      <c r="AE38" s="101"/>
-      <c r="AF38" s="101"/>
-      <c r="AG38" s="101"/>
-      <c r="AH38" s="101"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="33"/>
       <c r="AK38" s="33"/>
@@ -5057,17 +5051,17 @@
       <c r="BH38" s="33"/>
       <c r="BI38" s="33"/>
       <c r="BJ38" s="33"/>
-      <c r="BK38" s="97"/>
-      <c r="BL38" s="101"/>
-      <c r="BM38" s="101"/>
-      <c r="BN38" s="101"/>
-      <c r="BO38" s="101"/>
-      <c r="BP38" s="101"/>
-      <c r="BQ38" s="101"/>
-      <c r="BR38" s="101"/>
-      <c r="BS38" s="101"/>
-      <c r="BT38" s="101"/>
-      <c r="BU38" s="101"/>
+      <c r="BK38" s="68"/>
+      <c r="BL38" s="72"/>
+      <c r="BM38" s="72"/>
+      <c r="BN38" s="72"/>
+      <c r="BO38" s="72"/>
+      <c r="BP38" s="72"/>
+      <c r="BQ38" s="72"/>
+      <c r="BR38" s="72"/>
+      <c r="BS38" s="72"/>
+      <c r="BT38" s="72"/>
+      <c r="BU38" s="72"/>
       <c r="BV38" s="33"/>
       <c r="BW38" s="33"/>
       <c r="BX38" s="33"/>
@@ -5125,17 +5119,17 @@
       <c r="U39" s="33"/>
       <c r="V39" s="33"/>
       <c r="W39" s="33"/>
-      <c r="X39" s="97"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
-      <c r="AA39" s="101"/>
-      <c r="AB39" s="101"/>
-      <c r="AC39" s="101"/>
-      <c r="AD39" s="101"/>
-      <c r="AE39" s="101"/>
-      <c r="AF39" s="101"/>
-      <c r="AG39" s="101"/>
-      <c r="AH39" s="101"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="33"/>
       <c r="AK39" s="33"/>
@@ -5164,17 +5158,17 @@
       <c r="BH39" s="33"/>
       <c r="BI39" s="33"/>
       <c r="BJ39" s="33"/>
-      <c r="BK39" s="97"/>
-      <c r="BL39" s="101"/>
-      <c r="BM39" s="101"/>
-      <c r="BN39" s="101"/>
-      <c r="BO39" s="101"/>
-      <c r="BP39" s="101"/>
-      <c r="BQ39" s="101"/>
-      <c r="BR39" s="101"/>
-      <c r="BS39" s="101"/>
-      <c r="BT39" s="101"/>
-      <c r="BU39" s="101"/>
+      <c r="BK39" s="68"/>
+      <c r="BL39" s="72"/>
+      <c r="BM39" s="72"/>
+      <c r="BN39" s="72"/>
+      <c r="BO39" s="72"/>
+      <c r="BP39" s="72"/>
+      <c r="BQ39" s="72"/>
+      <c r="BR39" s="72"/>
+      <c r="BS39" s="72"/>
+      <c r="BT39" s="72"/>
+      <c r="BU39" s="72"/>
       <c r="BV39" s="33"/>
       <c r="BW39" s="33"/>
       <c r="BX39" s="33"/>
@@ -5232,17 +5226,17 @@
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
       <c r="W40" s="33"/>
-      <c r="X40" s="97"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="101"/>
-      <c r="AB40" s="101"/>
-      <c r="AC40" s="101"/>
-      <c r="AD40" s="101"/>
-      <c r="AE40" s="101"/>
-      <c r="AF40" s="101"/>
-      <c r="AG40" s="101"/>
-      <c r="AH40" s="101"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="33"/>
       <c r="AK40" s="33"/>
@@ -5271,17 +5265,17 @@
       <c r="BH40" s="33"/>
       <c r="BI40" s="33"/>
       <c r="BJ40" s="33"/>
-      <c r="BK40" s="97"/>
-      <c r="BL40" s="101"/>
-      <c r="BM40" s="101"/>
-      <c r="BN40" s="101"/>
-      <c r="BO40" s="101"/>
-      <c r="BP40" s="101"/>
-      <c r="BQ40" s="101"/>
-      <c r="BR40" s="101"/>
-      <c r="BS40" s="101"/>
-      <c r="BT40" s="101"/>
-      <c r="BU40" s="101"/>
+      <c r="BK40" s="68"/>
+      <c r="BL40" s="72"/>
+      <c r="BM40" s="72"/>
+      <c r="BN40" s="72"/>
+      <c r="BO40" s="72"/>
+      <c r="BP40" s="72"/>
+      <c r="BQ40" s="72"/>
+      <c r="BR40" s="72"/>
+      <c r="BS40" s="72"/>
+      <c r="BT40" s="72"/>
+      <c r="BU40" s="72"/>
       <c r="BV40" s="33"/>
       <c r="BW40" s="33"/>
       <c r="BX40" s="33"/>
@@ -5339,17 +5333,17 @@
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
-      <c r="AA41" s="101"/>
-      <c r="AB41" s="101"/>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="101"/>
-      <c r="AE41" s="101"/>
-      <c r="AF41" s="101"/>
-      <c r="AG41" s="101"/>
-      <c r="AH41" s="101"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="72"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="72"/>
+      <c r="AE41" s="72"/>
+      <c r="AF41" s="72"/>
+      <c r="AG41" s="72"/>
+      <c r="AH41" s="72"/>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="33"/>
       <c r="AK41" s="33"/>
@@ -5378,17 +5372,17 @@
       <c r="BH41" s="33"/>
       <c r="BI41" s="33"/>
       <c r="BJ41" s="33"/>
-      <c r="BK41" s="97"/>
-      <c r="BL41" s="101"/>
-      <c r="BM41" s="101"/>
-      <c r="BN41" s="101"/>
-      <c r="BO41" s="101"/>
-      <c r="BP41" s="101"/>
-      <c r="BQ41" s="101"/>
-      <c r="BR41" s="101"/>
-      <c r="BS41" s="101"/>
-      <c r="BT41" s="101"/>
-      <c r="BU41" s="101"/>
+      <c r="BK41" s="68"/>
+      <c r="BL41" s="72"/>
+      <c r="BM41" s="72"/>
+      <c r="BN41" s="72"/>
+      <c r="BO41" s="72"/>
+      <c r="BP41" s="72"/>
+      <c r="BQ41" s="72"/>
+      <c r="BR41" s="72"/>
+      <c r="BS41" s="72"/>
+      <c r="BT41" s="72"/>
+      <c r="BU41" s="72"/>
       <c r="BV41" s="33"/>
       <c r="BW41" s="33"/>
       <c r="BX41" s="33"/>
@@ -5446,17 +5440,17 @@
       <c r="U42" s="33"/>
       <c r="V42" s="33"/>
       <c r="W42" s="33"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="101"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="101"/>
-      <c r="AE42" s="101"/>
-      <c r="AF42" s="101"/>
-      <c r="AG42" s="101"/>
-      <c r="AH42" s="101"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="72"/>
+      <c r="AG42" s="72"/>
+      <c r="AH42" s="72"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="33"/>
       <c r="AK42" s="33"/>
@@ -5485,17 +5479,17 @@
       <c r="BH42" s="33"/>
       <c r="BI42" s="33"/>
       <c r="BJ42" s="33"/>
-      <c r="BK42" s="97"/>
-      <c r="BL42" s="101"/>
-      <c r="BM42" s="101"/>
-      <c r="BN42" s="101"/>
-      <c r="BO42" s="101"/>
-      <c r="BP42" s="101"/>
-      <c r="BQ42" s="101"/>
-      <c r="BR42" s="101"/>
-      <c r="BS42" s="101"/>
-      <c r="BT42" s="101"/>
-      <c r="BU42" s="101"/>
+      <c r="BK42" s="68"/>
+      <c r="BL42" s="72"/>
+      <c r="BM42" s="72"/>
+      <c r="BN42" s="72"/>
+      <c r="BO42" s="72"/>
+      <c r="BP42" s="72"/>
+      <c r="BQ42" s="72"/>
+      <c r="BR42" s="72"/>
+      <c r="BS42" s="72"/>
+      <c r="BT42" s="72"/>
+      <c r="BU42" s="72"/>
       <c r="BV42" s="33"/>
       <c r="BW42" s="33"/>
       <c r="BX42" s="33"/>
@@ -5553,17 +5547,17 @@
       <c r="U43" s="33"/>
       <c r="V43" s="33"/>
       <c r="W43" s="33"/>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="101"/>
-      <c r="AF43" s="101"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="101"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="72"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="72"/>
+      <c r="AE43" s="72"/>
+      <c r="AF43" s="72"/>
+      <c r="AG43" s="72"/>
+      <c r="AH43" s="72"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="33"/>
       <c r="AK43" s="33"/>
@@ -5592,17 +5586,17 @@
       <c r="BH43" s="33"/>
       <c r="BI43" s="33"/>
       <c r="BJ43" s="33"/>
-      <c r="BK43" s="97"/>
-      <c r="BL43" s="101"/>
-      <c r="BM43" s="101"/>
-      <c r="BN43" s="101"/>
-      <c r="BO43" s="101"/>
-      <c r="BP43" s="101"/>
-      <c r="BQ43" s="101"/>
-      <c r="BR43" s="101"/>
-      <c r="BS43" s="101"/>
-      <c r="BT43" s="101"/>
-      <c r="BU43" s="101"/>
+      <c r="BK43" s="68"/>
+      <c r="BL43" s="72"/>
+      <c r="BM43" s="72"/>
+      <c r="BN43" s="72"/>
+      <c r="BO43" s="72"/>
+      <c r="BP43" s="72"/>
+      <c r="BQ43" s="72"/>
+      <c r="BR43" s="72"/>
+      <c r="BS43" s="72"/>
+      <c r="BT43" s="72"/>
+      <c r="BU43" s="72"/>
       <c r="BV43" s="33"/>
       <c r="BW43" s="33"/>
       <c r="BX43" s="33"/>
@@ -5660,17 +5654,17 @@
       <c r="U44" s="33"/>
       <c r="V44" s="33"/>
       <c r="W44" s="33"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="101"/>
-      <c r="AD44" s="101"/>
-      <c r="AE44" s="101"/>
-      <c r="AF44" s="101"/>
-      <c r="AG44" s="101"/>
-      <c r="AH44" s="101"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="72"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="72"/>
+      <c r="AG44" s="72"/>
+      <c r="AH44" s="72"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="33"/>
       <c r="AK44" s="33"/>
@@ -5699,17 +5693,17 @@
       <c r="BH44" s="33"/>
       <c r="BI44" s="33"/>
       <c r="BJ44" s="33"/>
-      <c r="BK44" s="97"/>
-      <c r="BL44" s="101"/>
-      <c r="BM44" s="101"/>
-      <c r="BN44" s="101"/>
-      <c r="BO44" s="101"/>
-      <c r="BP44" s="101"/>
-      <c r="BQ44" s="101"/>
-      <c r="BR44" s="101"/>
-      <c r="BS44" s="101"/>
-      <c r="BT44" s="101"/>
-      <c r="BU44" s="101"/>
+      <c r="BK44" s="68"/>
+      <c r="BL44" s="72"/>
+      <c r="BM44" s="72"/>
+      <c r="BN44" s="72"/>
+      <c r="BO44" s="72"/>
+      <c r="BP44" s="72"/>
+      <c r="BQ44" s="72"/>
+      <c r="BR44" s="72"/>
+      <c r="BS44" s="72"/>
+      <c r="BT44" s="72"/>
+      <c r="BU44" s="72"/>
       <c r="BV44" s="33"/>
       <c r="BW44" s="33"/>
       <c r="BX44" s="33"/>
@@ -5767,17 +5761,17 @@
       <c r="U45" s="33"/>
       <c r="V45" s="33"/>
       <c r="W45" s="33"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="101"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="101"/>
-      <c r="AD45" s="101"/>
-      <c r="AE45" s="101"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="101"/>
-      <c r="AH45" s="101"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="72"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
+      <c r="AC45" s="72"/>
+      <c r="AD45" s="72"/>
+      <c r="AE45" s="72"/>
+      <c r="AF45" s="72"/>
+      <c r="AG45" s="72"/>
+      <c r="AH45" s="72"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="33"/>
       <c r="AK45" s="33"/>
@@ -5806,17 +5800,17 @@
       <c r="BH45" s="33"/>
       <c r="BI45" s="33"/>
       <c r="BJ45" s="33"/>
-      <c r="BK45" s="97"/>
-      <c r="BL45" s="101"/>
-      <c r="BM45" s="101"/>
-      <c r="BN45" s="101"/>
-      <c r="BO45" s="101"/>
-      <c r="BP45" s="101"/>
-      <c r="BQ45" s="101"/>
-      <c r="BR45" s="101"/>
-      <c r="BS45" s="101"/>
-      <c r="BT45" s="101"/>
-      <c r="BU45" s="101"/>
+      <c r="BK45" s="68"/>
+      <c r="BL45" s="72"/>
+      <c r="BM45" s="72"/>
+      <c r="BN45" s="72"/>
+      <c r="BO45" s="72"/>
+      <c r="BP45" s="72"/>
+      <c r="BQ45" s="72"/>
+      <c r="BR45" s="72"/>
+      <c r="BS45" s="72"/>
+      <c r="BT45" s="72"/>
+      <c r="BU45" s="72"/>
       <c r="BV45" s="33"/>
       <c r="BW45" s="33"/>
       <c r="BX45" s="33"/>
@@ -5874,17 +5868,17 @@
       <c r="U46" s="33"/>
       <c r="V46" s="33"/>
       <c r="W46" s="33"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="101"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="101"/>
-      <c r="AD46" s="101"/>
-      <c r="AE46" s="101"/>
-      <c r="AF46" s="101"/>
-      <c r="AG46" s="101"/>
-      <c r="AH46" s="101"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="33"/>
       <c r="AK46" s="33"/>
@@ -5913,17 +5907,17 @@
       <c r="BH46" s="33"/>
       <c r="BI46" s="33"/>
       <c r="BJ46" s="33"/>
-      <c r="BK46" s="97"/>
-      <c r="BL46" s="101"/>
-      <c r="BM46" s="101"/>
-      <c r="BN46" s="101"/>
-      <c r="BO46" s="101"/>
-      <c r="BP46" s="101"/>
-      <c r="BQ46" s="101"/>
-      <c r="BR46" s="101"/>
-      <c r="BS46" s="101"/>
-      <c r="BT46" s="101"/>
-      <c r="BU46" s="101"/>
+      <c r="BK46" s="68"/>
+      <c r="BL46" s="72"/>
+      <c r="BM46" s="72"/>
+      <c r="BN46" s="72"/>
+      <c r="BO46" s="72"/>
+      <c r="BP46" s="72"/>
+      <c r="BQ46" s="72"/>
+      <c r="BR46" s="72"/>
+      <c r="BS46" s="72"/>
+      <c r="BT46" s="72"/>
+      <c r="BU46" s="72"/>
       <c r="BV46" s="33"/>
       <c r="BW46" s="33"/>
       <c r="BX46" s="33"/>
@@ -5981,17 +5975,17 @@
       <c r="U47" s="33"/>
       <c r="V47" s="33"/>
       <c r="W47" s="33"/>
-      <c r="X47" s="97"/>
-      <c r="Y47" s="101"/>
-      <c r="Z47" s="101"/>
-      <c r="AA47" s="101"/>
-      <c r="AB47" s="101"/>
-      <c r="AC47" s="101"/>
-      <c r="AD47" s="101"/>
-      <c r="AE47" s="101"/>
-      <c r="AF47" s="101"/>
-      <c r="AG47" s="101"/>
-      <c r="AH47" s="101"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="72"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="72"/>
+      <c r="AE47" s="72"/>
+      <c r="AF47" s="72"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="33"/>
       <c r="AK47" s="33"/>
@@ -6020,17 +6014,17 @@
       <c r="BH47" s="33"/>
       <c r="BI47" s="33"/>
       <c r="BJ47" s="33"/>
-      <c r="BK47" s="97"/>
-      <c r="BL47" s="101"/>
-      <c r="BM47" s="101"/>
-      <c r="BN47" s="101"/>
-      <c r="BO47" s="101"/>
-      <c r="BP47" s="101"/>
-      <c r="BQ47" s="101"/>
-      <c r="BR47" s="101"/>
-      <c r="BS47" s="101"/>
-      <c r="BT47" s="101"/>
-      <c r="BU47" s="101"/>
+      <c r="BK47" s="68"/>
+      <c r="BL47" s="72"/>
+      <c r="BM47" s="72"/>
+      <c r="BN47" s="72"/>
+      <c r="BO47" s="72"/>
+      <c r="BP47" s="72"/>
+      <c r="BQ47" s="72"/>
+      <c r="BR47" s="72"/>
+      <c r="BS47" s="72"/>
+      <c r="BT47" s="72"/>
+      <c r="BU47" s="72"/>
       <c r="BV47" s="33"/>
       <c r="BW47" s="33"/>
       <c r="BX47" s="33"/>
@@ -6088,17 +6082,17 @@
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
       <c r="W48" s="33"/>
-      <c r="X48" s="97"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="101"/>
-      <c r="AD48" s="101"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="101"/>
-      <c r="AG48" s="101"/>
-      <c r="AH48" s="101"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="33"/>
       <c r="AK48" s="33"/>
@@ -6127,17 +6121,17 @@
       <c r="BH48" s="33"/>
       <c r="BI48" s="33"/>
       <c r="BJ48" s="33"/>
-      <c r="BK48" s="97"/>
-      <c r="BL48" s="101"/>
-      <c r="BM48" s="101"/>
-      <c r="BN48" s="101"/>
-      <c r="BO48" s="101"/>
-      <c r="BP48" s="101"/>
-      <c r="BQ48" s="101"/>
-      <c r="BR48" s="101"/>
-      <c r="BS48" s="101"/>
-      <c r="BT48" s="101"/>
-      <c r="BU48" s="101"/>
+      <c r="BK48" s="68"/>
+      <c r="BL48" s="72"/>
+      <c r="BM48" s="72"/>
+      <c r="BN48" s="72"/>
+      <c r="BO48" s="72"/>
+      <c r="BP48" s="72"/>
+      <c r="BQ48" s="72"/>
+      <c r="BR48" s="72"/>
+      <c r="BS48" s="72"/>
+      <c r="BT48" s="72"/>
+      <c r="BU48" s="72"/>
       <c r="BV48" s="33"/>
       <c r="BW48" s="33"/>
       <c r="BX48" s="33"/>
@@ -6195,17 +6189,17 @@
       <c r="U49" s="33"/>
       <c r="V49" s="33"/>
       <c r="W49" s="33"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="101"/>
-      <c r="Z49" s="101"/>
-      <c r="AA49" s="101"/>
-      <c r="AB49" s="101"/>
-      <c r="AC49" s="101"/>
-      <c r="AD49" s="101"/>
-      <c r="AE49" s="101"/>
-      <c r="AF49" s="101"/>
-      <c r="AG49" s="101"/>
-      <c r="AH49" s="101"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="72"/>
+      <c r="AE49" s="72"/>
+      <c r="AF49" s="72"/>
+      <c r="AG49" s="72"/>
+      <c r="AH49" s="72"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="33"/>
       <c r="AK49" s="33"/>
@@ -6234,17 +6228,17 @@
       <c r="BH49" s="33"/>
       <c r="BI49" s="33"/>
       <c r="BJ49" s="33"/>
-      <c r="BK49" s="97"/>
-      <c r="BL49" s="101"/>
-      <c r="BM49" s="101"/>
-      <c r="BN49" s="101"/>
-      <c r="BO49" s="101"/>
-      <c r="BP49" s="101"/>
-      <c r="BQ49" s="101"/>
-      <c r="BR49" s="101"/>
-      <c r="BS49" s="101"/>
-      <c r="BT49" s="101"/>
-      <c r="BU49" s="101"/>
+      <c r="BK49" s="68"/>
+      <c r="BL49" s="72"/>
+      <c r="BM49" s="72"/>
+      <c r="BN49" s="72"/>
+      <c r="BO49" s="72"/>
+      <c r="BP49" s="72"/>
+      <c r="BQ49" s="72"/>
+      <c r="BR49" s="72"/>
+      <c r="BS49" s="72"/>
+      <c r="BT49" s="72"/>
+      <c r="BU49" s="72"/>
       <c r="BV49" s="33"/>
       <c r="BW49" s="33"/>
       <c r="BX49" s="33"/>
@@ -6302,17 +6296,17 @@
       <c r="U50" s="33"/>
       <c r="V50" s="33"/>
       <c r="W50" s="33"/>
-      <c r="X50" s="97"/>
-      <c r="Y50" s="101"/>
-      <c r="Z50" s="101"/>
-      <c r="AA50" s="101"/>
-      <c r="AB50" s="101"/>
-      <c r="AC50" s="101"/>
-      <c r="AD50" s="101"/>
-      <c r="AE50" s="101"/>
-      <c r="AF50" s="101"/>
-      <c r="AG50" s="101"/>
-      <c r="AH50" s="101"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="72"/>
+      <c r="AA50" s="72"/>
+      <c r="AB50" s="72"/>
+      <c r="AC50" s="72"/>
+      <c r="AD50" s="72"/>
+      <c r="AE50" s="72"/>
+      <c r="AF50" s="72"/>
+      <c r="AG50" s="72"/>
+      <c r="AH50" s="72"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="33"/>
       <c r="AK50" s="33"/>
@@ -6341,17 +6335,17 @@
       <c r="BH50" s="33"/>
       <c r="BI50" s="33"/>
       <c r="BJ50" s="33"/>
-      <c r="BK50" s="97"/>
-      <c r="BL50" s="101"/>
-      <c r="BM50" s="101"/>
-      <c r="BN50" s="101"/>
-      <c r="BO50" s="101"/>
-      <c r="BP50" s="101"/>
-      <c r="BQ50" s="101"/>
-      <c r="BR50" s="101"/>
-      <c r="BS50" s="101"/>
-      <c r="BT50" s="101"/>
-      <c r="BU50" s="101"/>
+      <c r="BK50" s="68"/>
+      <c r="BL50" s="72"/>
+      <c r="BM50" s="72"/>
+      <c r="BN50" s="72"/>
+      <c r="BO50" s="72"/>
+      <c r="BP50" s="72"/>
+      <c r="BQ50" s="72"/>
+      <c r="BR50" s="72"/>
+      <c r="BS50" s="72"/>
+      <c r="BT50" s="72"/>
+      <c r="BU50" s="72"/>
       <c r="BV50" s="33"/>
       <c r="BW50" s="33"/>
       <c r="BX50" s="33"/>
@@ -6409,17 +6403,17 @@
       <c r="U51" s="33"/>
       <c r="V51" s="33"/>
       <c r="W51" s="33"/>
-      <c r="X51" s="97"/>
-      <c r="Y51" s="101"/>
-      <c r="Z51" s="101"/>
-      <c r="AA51" s="101"/>
-      <c r="AB51" s="101"/>
-      <c r="AC51" s="101"/>
-      <c r="AD51" s="101"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="101"/>
-      <c r="AG51" s="101"/>
-      <c r="AH51" s="101"/>
+      <c r="X51" s="68"/>
+      <c r="Y51" s="72"/>
+      <c r="Z51" s="72"/>
+      <c r="AA51" s="72"/>
+      <c r="AB51" s="72"/>
+      <c r="AC51" s="72"/>
+      <c r="AD51" s="72"/>
+      <c r="AE51" s="72"/>
+      <c r="AF51" s="72"/>
+      <c r="AG51" s="72"/>
+      <c r="AH51" s="72"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="33"/>
       <c r="AK51" s="33"/>
@@ -6448,17 +6442,17 @@
       <c r="BH51" s="33"/>
       <c r="BI51" s="33"/>
       <c r="BJ51" s="33"/>
-      <c r="BK51" s="97"/>
-      <c r="BL51" s="101"/>
-      <c r="BM51" s="101"/>
-      <c r="BN51" s="101"/>
-      <c r="BO51" s="101"/>
-      <c r="BP51" s="101"/>
-      <c r="BQ51" s="101"/>
-      <c r="BR51" s="101"/>
-      <c r="BS51" s="101"/>
-      <c r="BT51" s="101"/>
-      <c r="BU51" s="101"/>
+      <c r="BK51" s="68"/>
+      <c r="BL51" s="72"/>
+      <c r="BM51" s="72"/>
+      <c r="BN51" s="72"/>
+      <c r="BO51" s="72"/>
+      <c r="BP51" s="72"/>
+      <c r="BQ51" s="72"/>
+      <c r="BR51" s="72"/>
+      <c r="BS51" s="72"/>
+      <c r="BT51" s="72"/>
+      <c r="BU51" s="72"/>
       <c r="BV51" s="33"/>
       <c r="BW51" s="33"/>
       <c r="BX51" s="33"/>
@@ -6516,17 +6510,17 @@
       <c r="U52" s="33"/>
       <c r="V52" s="33"/>
       <c r="W52" s="33"/>
-      <c r="X52" s="97"/>
-      <c r="Y52" s="101"/>
-      <c r="Z52" s="101"/>
-      <c r="AA52" s="101"/>
-      <c r="AB52" s="101"/>
-      <c r="AC52" s="101"/>
-      <c r="AD52" s="101"/>
-      <c r="AE52" s="101"/>
-      <c r="AF52" s="101"/>
-      <c r="AG52" s="101"/>
-      <c r="AH52" s="101"/>
+      <c r="X52" s="68"/>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="72"/>
+      <c r="AC52" s="72"/>
+      <c r="AD52" s="72"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="72"/>
+      <c r="AG52" s="72"/>
+      <c r="AH52" s="72"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="33"/>
       <c r="AK52" s="33"/>
@@ -6555,17 +6549,17 @@
       <c r="BH52" s="33"/>
       <c r="BI52" s="33"/>
       <c r="BJ52" s="33"/>
-      <c r="BK52" s="97"/>
-      <c r="BL52" s="101"/>
-      <c r="BM52" s="101"/>
-      <c r="BN52" s="101"/>
-      <c r="BO52" s="101"/>
-      <c r="BP52" s="101"/>
-      <c r="BQ52" s="101"/>
-      <c r="BR52" s="101"/>
-      <c r="BS52" s="101"/>
-      <c r="BT52" s="101"/>
-      <c r="BU52" s="101"/>
+      <c r="BK52" s="68"/>
+      <c r="BL52" s="72"/>
+      <c r="BM52" s="72"/>
+      <c r="BN52" s="72"/>
+      <c r="BO52" s="72"/>
+      <c r="BP52" s="72"/>
+      <c r="BQ52" s="72"/>
+      <c r="BR52" s="72"/>
+      <c r="BS52" s="72"/>
+      <c r="BT52" s="72"/>
+      <c r="BU52" s="72"/>
       <c r="BV52" s="33"/>
       <c r="BW52" s="33"/>
       <c r="BX52" s="33"/>
@@ -6623,17 +6617,17 @@
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
       <c r="W53" s="33"/>
-      <c r="X53" s="97"/>
-      <c r="Y53" s="101"/>
-      <c r="Z53" s="101"/>
-      <c r="AA53" s="101"/>
-      <c r="AB53" s="101"/>
-      <c r="AC53" s="101"/>
-      <c r="AD53" s="101"/>
-      <c r="AE53" s="101"/>
-      <c r="AF53" s="101"/>
-      <c r="AG53" s="101"/>
-      <c r="AH53" s="101"/>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
+      <c r="AE53" s="72"/>
+      <c r="AF53" s="72"/>
+      <c r="AG53" s="72"/>
+      <c r="AH53" s="72"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="33"/>
       <c r="AK53" s="33"/>
@@ -6662,17 +6656,17 @@
       <c r="BH53" s="33"/>
       <c r="BI53" s="33"/>
       <c r="BJ53" s="33"/>
-      <c r="BK53" s="97"/>
-      <c r="BL53" s="101"/>
-      <c r="BM53" s="101"/>
-      <c r="BN53" s="101"/>
-      <c r="BO53" s="101"/>
-      <c r="BP53" s="101"/>
-      <c r="BQ53" s="101"/>
-      <c r="BR53" s="101"/>
-      <c r="BS53" s="101"/>
-      <c r="BT53" s="101"/>
-      <c r="BU53" s="101"/>
+      <c r="BK53" s="68"/>
+      <c r="BL53" s="72"/>
+      <c r="BM53" s="72"/>
+      <c r="BN53" s="72"/>
+      <c r="BO53" s="72"/>
+      <c r="BP53" s="72"/>
+      <c r="BQ53" s="72"/>
+      <c r="BR53" s="72"/>
+      <c r="BS53" s="72"/>
+      <c r="BT53" s="72"/>
+      <c r="BU53" s="72"/>
       <c r="BV53" s="33"/>
       <c r="BW53" s="33"/>
       <c r="BX53" s="33"/>
@@ -6730,17 +6724,17 @@
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
-      <c r="X54" s="97"/>
-      <c r="Y54" s="101"/>
-      <c r="Z54" s="101"/>
-      <c r="AA54" s="101"/>
-      <c r="AB54" s="101"/>
-      <c r="AC54" s="101"/>
-      <c r="AD54" s="101"/>
-      <c r="AE54" s="101"/>
-      <c r="AF54" s="101"/>
-      <c r="AG54" s="101"/>
-      <c r="AH54" s="101"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
+      <c r="AE54" s="72"/>
+      <c r="AF54" s="72"/>
+      <c r="AG54" s="72"/>
+      <c r="AH54" s="72"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="33"/>
       <c r="AK54" s="33"/>
@@ -6769,17 +6763,17 @@
       <c r="BH54" s="33"/>
       <c r="BI54" s="33"/>
       <c r="BJ54" s="33"/>
-      <c r="BK54" s="97"/>
-      <c r="BL54" s="101"/>
-      <c r="BM54" s="101"/>
-      <c r="BN54" s="101"/>
-      <c r="BO54" s="101"/>
-      <c r="BP54" s="101"/>
-      <c r="BQ54" s="101"/>
-      <c r="BR54" s="101"/>
-      <c r="BS54" s="101"/>
-      <c r="BT54" s="101"/>
-      <c r="BU54" s="101"/>
+      <c r="BK54" s="68"/>
+      <c r="BL54" s="72"/>
+      <c r="BM54" s="72"/>
+      <c r="BN54" s="72"/>
+      <c r="BO54" s="72"/>
+      <c r="BP54" s="72"/>
+      <c r="BQ54" s="72"/>
+      <c r="BR54" s="72"/>
+      <c r="BS54" s="72"/>
+      <c r="BT54" s="72"/>
+      <c r="BU54" s="72"/>
       <c r="BV54" s="33"/>
       <c r="BW54" s="33"/>
       <c r="BX54" s="33"/>
@@ -6837,17 +6831,17 @@
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
       <c r="W55" s="33"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="101"/>
-      <c r="Z55" s="101"/>
-      <c r="AA55" s="101"/>
-      <c r="AB55" s="101"/>
-      <c r="AC55" s="101"/>
-      <c r="AD55" s="101"/>
-      <c r="AE55" s="101"/>
-      <c r="AF55" s="101"/>
-      <c r="AG55" s="101"/>
-      <c r="AH55" s="101"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="72"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="72"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="72"/>
+      <c r="AE55" s="72"/>
+      <c r="AF55" s="72"/>
+      <c r="AG55" s="72"/>
+      <c r="AH55" s="72"/>
       <c r="AI55" s="33"/>
       <c r="AJ55" s="33"/>
       <c r="AK55" s="33"/>
@@ -6876,17 +6870,17 @@
       <c r="BH55" s="33"/>
       <c r="BI55" s="33"/>
       <c r="BJ55" s="33"/>
-      <c r="BK55" s="97"/>
-      <c r="BL55" s="101"/>
-      <c r="BM55" s="101"/>
-      <c r="BN55" s="101"/>
-      <c r="BO55" s="101"/>
-      <c r="BP55" s="101"/>
-      <c r="BQ55" s="101"/>
-      <c r="BR55" s="101"/>
-      <c r="BS55" s="101"/>
-      <c r="BT55" s="101"/>
-      <c r="BU55" s="101"/>
+      <c r="BK55" s="68"/>
+      <c r="BL55" s="72"/>
+      <c r="BM55" s="72"/>
+      <c r="BN55" s="72"/>
+      <c r="BO55" s="72"/>
+      <c r="BP55" s="72"/>
+      <c r="BQ55" s="72"/>
+      <c r="BR55" s="72"/>
+      <c r="BS55" s="72"/>
+      <c r="BT55" s="72"/>
+      <c r="BU55" s="72"/>
       <c r="BV55" s="33"/>
       <c r="BW55" s="33"/>
       <c r="BX55" s="33"/>
@@ -6944,17 +6938,17 @@
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
       <c r="W56" s="33"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="101"/>
-      <c r="Z56" s="101"/>
-      <c r="AA56" s="101"/>
-      <c r="AB56" s="101"/>
-      <c r="AC56" s="101"/>
-      <c r="AD56" s="101"/>
-      <c r="AE56" s="101"/>
-      <c r="AF56" s="101"/>
-      <c r="AG56" s="101"/>
-      <c r="AH56" s="101"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="72"/>
+      <c r="Z56" s="72"/>
+      <c r="AA56" s="72"/>
+      <c r="AB56" s="72"/>
+      <c r="AC56" s="72"/>
+      <c r="AD56" s="72"/>
+      <c r="AE56" s="72"/>
+      <c r="AF56" s="72"/>
+      <c r="AG56" s="72"/>
+      <c r="AH56" s="72"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="33"/>
       <c r="AK56" s="33"/>
@@ -6983,17 +6977,17 @@
       <c r="BH56" s="33"/>
       <c r="BI56" s="33"/>
       <c r="BJ56" s="33"/>
-      <c r="BK56" s="97"/>
-      <c r="BL56" s="101"/>
-      <c r="BM56" s="101"/>
-      <c r="BN56" s="101"/>
-      <c r="BO56" s="101"/>
-      <c r="BP56" s="101"/>
-      <c r="BQ56" s="101"/>
-      <c r="BR56" s="101"/>
-      <c r="BS56" s="101"/>
-      <c r="BT56" s="101"/>
-      <c r="BU56" s="101"/>
+      <c r="BK56" s="68"/>
+      <c r="BL56" s="72"/>
+      <c r="BM56" s="72"/>
+      <c r="BN56" s="72"/>
+      <c r="BO56" s="72"/>
+      <c r="BP56" s="72"/>
+      <c r="BQ56" s="72"/>
+      <c r="BR56" s="72"/>
+      <c r="BS56" s="72"/>
+      <c r="BT56" s="72"/>
+      <c r="BU56" s="72"/>
       <c r="BV56" s="33"/>
       <c r="BW56" s="33"/>
       <c r="BX56" s="33"/>
@@ -7051,17 +7045,17 @@
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
       <c r="W57" s="33"/>
-      <c r="X57" s="97"/>
-      <c r="Y57" s="101"/>
-      <c r="Z57" s="101"/>
-      <c r="AA57" s="101"/>
-      <c r="AB57" s="101"/>
-      <c r="AC57" s="101"/>
-      <c r="AD57" s="101"/>
-      <c r="AE57" s="101"/>
-      <c r="AF57" s="101"/>
-      <c r="AG57" s="101"/>
-      <c r="AH57" s="101"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="72"/>
+      <c r="Z57" s="72"/>
+      <c r="AA57" s="72"/>
+      <c r="AB57" s="72"/>
+      <c r="AC57" s="72"/>
+      <c r="AD57" s="72"/>
+      <c r="AE57" s="72"/>
+      <c r="AF57" s="72"/>
+      <c r="AG57" s="72"/>
+      <c r="AH57" s="72"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="33"/>
       <c r="AK57" s="33"/>
@@ -7090,17 +7084,17 @@
       <c r="BH57" s="33"/>
       <c r="BI57" s="33"/>
       <c r="BJ57" s="33"/>
-      <c r="BK57" s="97"/>
-      <c r="BL57" s="101"/>
-      <c r="BM57" s="101"/>
-      <c r="BN57" s="101"/>
-      <c r="BO57" s="101"/>
-      <c r="BP57" s="101"/>
-      <c r="BQ57" s="101"/>
-      <c r="BR57" s="101"/>
-      <c r="BS57" s="101"/>
-      <c r="BT57" s="101"/>
-      <c r="BU57" s="101"/>
+      <c r="BK57" s="68"/>
+      <c r="BL57" s="72"/>
+      <c r="BM57" s="72"/>
+      <c r="BN57" s="72"/>
+      <c r="BO57" s="72"/>
+      <c r="BP57" s="72"/>
+      <c r="BQ57" s="72"/>
+      <c r="BR57" s="72"/>
+      <c r="BS57" s="72"/>
+      <c r="BT57" s="72"/>
+      <c r="BU57" s="72"/>
       <c r="BV57" s="33"/>
       <c r="BW57" s="33"/>
       <c r="BX57" s="33"/>
@@ -7158,17 +7152,17 @@
       <c r="U58" s="33"/>
       <c r="V58" s="33"/>
       <c r="W58" s="33"/>
-      <c r="X58" s="97"/>
-      <c r="Y58" s="101"/>
-      <c r="Z58" s="101"/>
-      <c r="AA58" s="101"/>
-      <c r="AB58" s="101"/>
-      <c r="AC58" s="101"/>
-      <c r="AD58" s="101"/>
-      <c r="AE58" s="101"/>
-      <c r="AF58" s="101"/>
-      <c r="AG58" s="101"/>
-      <c r="AH58" s="101"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="72"/>
+      <c r="Z58" s="72"/>
+      <c r="AA58" s="72"/>
+      <c r="AB58" s="72"/>
+      <c r="AC58" s="72"/>
+      <c r="AD58" s="72"/>
+      <c r="AE58" s="72"/>
+      <c r="AF58" s="72"/>
+      <c r="AG58" s="72"/>
+      <c r="AH58" s="72"/>
       <c r="AI58" s="33"/>
       <c r="AJ58" s="33"/>
       <c r="AK58" s="33"/>
@@ -7197,17 +7191,17 @@
       <c r="BH58" s="33"/>
       <c r="BI58" s="33"/>
       <c r="BJ58" s="33"/>
-      <c r="BK58" s="97"/>
-      <c r="BL58" s="101"/>
-      <c r="BM58" s="101"/>
-      <c r="BN58" s="101"/>
-      <c r="BO58" s="101"/>
-      <c r="BP58" s="101"/>
-      <c r="BQ58" s="101"/>
-      <c r="BR58" s="101"/>
-      <c r="BS58" s="101"/>
-      <c r="BT58" s="101"/>
-      <c r="BU58" s="101"/>
+      <c r="BK58" s="68"/>
+      <c r="BL58" s="72"/>
+      <c r="BM58" s="72"/>
+      <c r="BN58" s="72"/>
+      <c r="BO58" s="72"/>
+      <c r="BP58" s="72"/>
+      <c r="BQ58" s="72"/>
+      <c r="BR58" s="72"/>
+      <c r="BS58" s="72"/>
+      <c r="BT58" s="72"/>
+      <c r="BU58" s="72"/>
       <c r="BV58" s="33"/>
       <c r="BW58" s="33"/>
       <c r="BX58" s="33"/>
@@ -7265,17 +7259,17 @@
       <c r="U59" s="33"/>
       <c r="V59" s="33"/>
       <c r="W59" s="33"/>
-      <c r="X59" s="97"/>
-      <c r="Y59" s="101"/>
-      <c r="Z59" s="101"/>
-      <c r="AA59" s="101"/>
-      <c r="AB59" s="101"/>
-      <c r="AC59" s="101"/>
-      <c r="AD59" s="101"/>
-      <c r="AE59" s="101"/>
-      <c r="AF59" s="101"/>
-      <c r="AG59" s="101"/>
-      <c r="AH59" s="101"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="72"/>
+      <c r="Z59" s="72"/>
+      <c r="AA59" s="72"/>
+      <c r="AB59" s="72"/>
+      <c r="AC59" s="72"/>
+      <c r="AD59" s="72"/>
+      <c r="AE59" s="72"/>
+      <c r="AF59" s="72"/>
+      <c r="AG59" s="72"/>
+      <c r="AH59" s="72"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="33"/>
       <c r="AK59" s="33"/>
@@ -7304,17 +7298,17 @@
       <c r="BH59" s="33"/>
       <c r="BI59" s="33"/>
       <c r="BJ59" s="33"/>
-      <c r="BK59" s="97"/>
-      <c r="BL59" s="101"/>
-      <c r="BM59" s="101"/>
-      <c r="BN59" s="101"/>
-      <c r="BO59" s="101"/>
-      <c r="BP59" s="101"/>
-      <c r="BQ59" s="101"/>
-      <c r="BR59" s="101"/>
-      <c r="BS59" s="101"/>
-      <c r="BT59" s="101"/>
-      <c r="BU59" s="101"/>
+      <c r="BK59" s="68"/>
+      <c r="BL59" s="72"/>
+      <c r="BM59" s="72"/>
+      <c r="BN59" s="72"/>
+      <c r="BO59" s="72"/>
+      <c r="BP59" s="72"/>
+      <c r="BQ59" s="72"/>
+      <c r="BR59" s="72"/>
+      <c r="BS59" s="72"/>
+      <c r="BT59" s="72"/>
+      <c r="BU59" s="72"/>
       <c r="BV59" s="33"/>
       <c r="BW59" s="33"/>
       <c r="BX59" s="33"/>
@@ -7372,17 +7366,17 @@
       <c r="U60" s="33"/>
       <c r="V60" s="33"/>
       <c r="W60" s="33"/>
-      <c r="X60" s="97"/>
-      <c r="Y60" s="101"/>
-      <c r="Z60" s="101"/>
-      <c r="AA60" s="101"/>
-      <c r="AB60" s="101"/>
-      <c r="AC60" s="101"/>
-      <c r="AD60" s="101"/>
-      <c r="AE60" s="101"/>
-      <c r="AF60" s="101"/>
-      <c r="AG60" s="101"/>
-      <c r="AH60" s="101"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="72"/>
+      <c r="Z60" s="72"/>
+      <c r="AA60" s="72"/>
+      <c r="AB60" s="72"/>
+      <c r="AC60" s="72"/>
+      <c r="AD60" s="72"/>
+      <c r="AE60" s="72"/>
+      <c r="AF60" s="72"/>
+      <c r="AG60" s="72"/>
+      <c r="AH60" s="72"/>
       <c r="AI60" s="33"/>
       <c r="AJ60" s="33"/>
       <c r="AK60" s="33"/>
@@ -7411,17 +7405,17 @@
       <c r="BH60" s="33"/>
       <c r="BI60" s="33"/>
       <c r="BJ60" s="33"/>
-      <c r="BK60" s="97"/>
-      <c r="BL60" s="101"/>
-      <c r="BM60" s="101"/>
-      <c r="BN60" s="101"/>
-      <c r="BO60" s="101"/>
-      <c r="BP60" s="101"/>
-      <c r="BQ60" s="101"/>
-      <c r="BR60" s="101"/>
-      <c r="BS60" s="101"/>
-      <c r="BT60" s="101"/>
-      <c r="BU60" s="101"/>
+      <c r="BK60" s="68"/>
+      <c r="BL60" s="72"/>
+      <c r="BM60" s="72"/>
+      <c r="BN60" s="72"/>
+      <c r="BO60" s="72"/>
+      <c r="BP60" s="72"/>
+      <c r="BQ60" s="72"/>
+      <c r="BR60" s="72"/>
+      <c r="BS60" s="72"/>
+      <c r="BT60" s="72"/>
+      <c r="BU60" s="72"/>
       <c r="BV60" s="33"/>
       <c r="BW60" s="33"/>
       <c r="BX60" s="33"/>
@@ -7479,17 +7473,17 @@
       <c r="U61" s="33"/>
       <c r="V61" s="33"/>
       <c r="W61" s="33"/>
-      <c r="X61" s="97"/>
-      <c r="Y61" s="101"/>
-      <c r="Z61" s="101"/>
-      <c r="AA61" s="101"/>
-      <c r="AB61" s="101"/>
-      <c r="AC61" s="101"/>
-      <c r="AD61" s="101"/>
-      <c r="AE61" s="101"/>
-      <c r="AF61" s="101"/>
-      <c r="AG61" s="101"/>
-      <c r="AH61" s="101"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="72"/>
+      <c r="Z61" s="72"/>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="72"/>
+      <c r="AC61" s="72"/>
+      <c r="AD61" s="72"/>
+      <c r="AE61" s="72"/>
+      <c r="AF61" s="72"/>
+      <c r="AG61" s="72"/>
+      <c r="AH61" s="72"/>
       <c r="AI61" s="33"/>
       <c r="AJ61" s="33"/>
       <c r="AK61" s="33"/>
@@ -7518,17 +7512,17 @@
       <c r="BH61" s="33"/>
       <c r="BI61" s="33"/>
       <c r="BJ61" s="33"/>
-      <c r="BK61" s="97"/>
-      <c r="BL61" s="101"/>
-      <c r="BM61" s="101"/>
-      <c r="BN61" s="101"/>
-      <c r="BO61" s="101"/>
-      <c r="BP61" s="101"/>
-      <c r="BQ61" s="101"/>
-      <c r="BR61" s="101"/>
-      <c r="BS61" s="101"/>
-      <c r="BT61" s="101"/>
-      <c r="BU61" s="101"/>
+      <c r="BK61" s="68"/>
+      <c r="BL61" s="72"/>
+      <c r="BM61" s="72"/>
+      <c r="BN61" s="72"/>
+      <c r="BO61" s="72"/>
+      <c r="BP61" s="72"/>
+      <c r="BQ61" s="72"/>
+      <c r="BR61" s="72"/>
+      <c r="BS61" s="72"/>
+      <c r="BT61" s="72"/>
+      <c r="BU61" s="72"/>
       <c r="BV61" s="33"/>
       <c r="BW61" s="33"/>
       <c r="BX61" s="33"/>
@@ -7562,34 +7556,34 @@
     </row>
     <row r="63" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BM63" s="15"/>
-      <c r="BN63" s="76" t="s">
+      <c r="BN63" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="BO63" s="76"/>
-      <c r="BP63" s="76"/>
-      <c r="BQ63" s="104"/>
-      <c r="BR63" s="104"/>
-      <c r="BS63" s="104"/>
-      <c r="BT63" s="104"/>
-      <c r="BU63" s="104"/>
-      <c r="BV63" s="104"/>
-      <c r="BW63" s="104"/>
-      <c r="BX63" s="104"/>
-      <c r="BY63" s="104"/>
-      <c r="BZ63" s="104"/>
-      <c r="CA63" s="104"/>
-      <c r="CB63" s="104"/>
-      <c r="CC63" s="104"/>
-      <c r="CR63" s="82" t="s">
+      <c r="BO63" s="97"/>
+      <c r="BP63" s="97"/>
+      <c r="BQ63" s="98"/>
+      <c r="BR63" s="98"/>
+      <c r="BS63" s="98"/>
+      <c r="BT63" s="98"/>
+      <c r="BU63" s="98"/>
+      <c r="BV63" s="98"/>
+      <c r="BW63" s="98"/>
+      <c r="BX63" s="98"/>
+      <c r="BY63" s="98"/>
+      <c r="BZ63" s="98"/>
+      <c r="CA63" s="98"/>
+      <c r="CB63" s="98"/>
+      <c r="CC63" s="98"/>
+      <c r="CR63" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="CS63" s="83"/>
-      <c r="CT63" s="83"/>
-      <c r="CU63" s="83"/>
-      <c r="CV63" s="83"/>
-      <c r="CW63" s="83"/>
-      <c r="CX63" s="83"/>
-      <c r="CY63" s="84"/>
+      <c r="CS63" s="79"/>
+      <c r="CT63" s="79"/>
+      <c r="CU63" s="79"/>
+      <c r="CV63" s="79"/>
+      <c r="CW63" s="79"/>
+      <c r="CX63" s="79"/>
+      <c r="CY63" s="80"/>
     </row>
     <row r="64" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AL64" s="32"/>
@@ -7613,78 +7607,77 @@
       <c r="BW64" s="15"/>
       <c r="BY64" s="15"/>
       <c r="BZ64" s="15"/>
-      <c r="CQ64" s="80"/>
-      <c r="CR64" s="82" t="s">
+      <c r="CQ64" s="15"/>
+      <c r="CR64" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="CS64" s="84"/>
-      <c r="CT64" s="85" t="s">
+      <c r="CS64" s="80"/>
+      <c r="CT64" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="CU64" s="86"/>
-      <c r="CV64" s="85" t="s">
+      <c r="CU64" s="82"/>
+      <c r="CV64" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="CW64" s="86"/>
-      <c r="CX64" s="85" t="s">
+      <c r="CW64" s="82"/>
+      <c r="CX64" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="CY64" s="86"/>
+      <c r="CY64" s="82"/>
     </row>
     <row r="65" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BL65" s="4"/>
       <c r="BM65" s="28"/>
       <c r="BN65" s="28"/>
-      <c r="BO65" s="94"/>
-      <c r="BP65" s="94"/>
-      <c r="BQ65" s="94"/>
-      <c r="BR65" s="94"/>
-      <c r="BS65" s="94"/>
-      <c r="BT65" s="94"/>
-      <c r="BU65" s="94"/>
-      <c r="BV65" s="94"/>
-      <c r="BW65" s="94"/>
-      <c r="BX65" s="94"/>
+      <c r="BO65" s="77"/>
+      <c r="BP65" s="77"/>
+      <c r="BQ65" s="77"/>
+      <c r="BR65" s="77"/>
+      <c r="BS65" s="77"/>
+      <c r="BT65" s="77"/>
+      <c r="BU65" s="77"/>
+      <c r="BV65" s="77"/>
+      <c r="BW65" s="77"/>
+      <c r="BX65" s="77"/>
       <c r="BY65" s="15"/>
       <c r="BZ65" s="15"/>
-      <c r="CG65" s="74"/>
-      <c r="CH65" s="74"/>
-      <c r="CI65" s="74"/>
-      <c r="CJ65" s="74"/>
-      <c r="CK65" s="74"/>
-      <c r="CL65" s="74"/>
-      <c r="CM65" s="74"/>
-      <c r="CN65" s="74"/>
-      <c r="CO65" s="74"/>
-      <c r="CQ65" s="81"/>
-      <c r="CR65" s="85" t="s">
+      <c r="CG65" s="89"/>
+      <c r="CH65" s="89"/>
+      <c r="CI65" s="89"/>
+      <c r="CJ65" s="89"/>
+      <c r="CK65" s="89"/>
+      <c r="CL65" s="89"/>
+      <c r="CM65" s="89"/>
+      <c r="CN65" s="89"/>
+      <c r="CO65" s="89"/>
+      <c r="CQ65" s="65"/>
+      <c r="CR65" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="CS65" s="86"/>
-      <c r="CT65" s="87"/>
-      <c r="CU65" s="88"/>
-      <c r="CV65" s="87"/>
-      <c r="CW65" s="88"/>
-      <c r="CX65" s="87">
+      <c r="CS65" s="82"/>
+      <c r="CT65" s="83"/>
+      <c r="CU65" s="84"/>
+      <c r="CV65" s="83"/>
+      <c r="CW65" s="84"/>
+      <c r="CX65" s="83">
         <f>CT65-CV65</f>
         <v>0</v>
       </c>
-      <c r="CY65" s="88"/>
+      <c r="CY65" s="84"/>
     </row>
     <row r="66" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BL66" s="4"/>
-      <c r="BM66" s="92"/>
-      <c r="BN66" s="93"/>
-      <c r="BO66" s="73"/>
-      <c r="BP66" s="73"/>
-      <c r="BQ66" s="73"/>
-      <c r="BR66" s="73"/>
-      <c r="BS66" s="73"/>
-      <c r="BT66" s="73"/>
-      <c r="BU66" s="73"/>
-      <c r="BV66" s="73"/>
-      <c r="BW66" s="73"/>
-      <c r="BX66" s="73"/>
+      <c r="BM66" s="4"/>
+      <c r="BO66" s="76"/>
+      <c r="BP66" s="76"/>
+      <c r="BQ66" s="76"/>
+      <c r="BR66" s="76"/>
+      <c r="BS66" s="76"/>
+      <c r="BT66" s="76"/>
+      <c r="BU66" s="76"/>
+      <c r="BV66" s="76"/>
+      <c r="BW66" s="76"/>
+      <c r="BX66" s="76"/>
       <c r="CG66" s="90"/>
       <c r="CH66" s="90"/>
       <c r="CI66" s="90"/>
@@ -7694,74 +7687,74 @@
       <c r="CM66" s="90"/>
       <c r="CN66" s="90"/>
       <c r="CO66" s="90"/>
-      <c r="CQ66" s="78"/>
-      <c r="CR66" s="85" t="s">
+      <c r="CQ66" s="64"/>
+      <c r="CR66" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="CS66" s="86"/>
-      <c r="CT66" s="87"/>
-      <c r="CU66" s="88"/>
-      <c r="CV66" s="87"/>
-      <c r="CW66" s="88"/>
-      <c r="CX66" s="87">
+      <c r="CS66" s="82"/>
+      <c r="CT66" s="83"/>
+      <c r="CU66" s="84"/>
+      <c r="CV66" s="83"/>
+      <c r="CW66" s="84"/>
+      <c r="CX66" s="83">
         <f>CT66-CV66</f>
         <v>0</v>
       </c>
-      <c r="CY66" s="88"/>
+      <c r="CY66" s="84"/>
     </row>
     <row r="67" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BL67" s="16"/>
-      <c r="BM67" s="91"/>
-      <c r="BN67" s="91"/>
-      <c r="BO67" s="75" t="s">
+      <c r="BM67" s="76"/>
+      <c r="BN67" s="76"/>
+      <c r="BO67" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="BP67" s="75"/>
-      <c r="BQ67" s="75"/>
-      <c r="BR67" s="75"/>
-      <c r="BS67" s="75"/>
-      <c r="BT67" s="75"/>
-      <c r="BU67" s="75"/>
-      <c r="BV67" s="75"/>
-      <c r="BW67" s="75"/>
-      <c r="BX67" s="75"/>
-      <c r="CG67" s="75" t="s">
+      <c r="BP67" s="99"/>
+      <c r="BQ67" s="99"/>
+      <c r="BR67" s="99"/>
+      <c r="BS67" s="99"/>
+      <c r="BT67" s="99"/>
+      <c r="BU67" s="99"/>
+      <c r="BV67" s="99"/>
+      <c r="BW67" s="99"/>
+      <c r="BX67" s="99"/>
+      <c r="CG67" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="CH67" s="75"/>
-      <c r="CI67" s="75"/>
-      <c r="CJ67" s="75"/>
-      <c r="CK67" s="75"/>
-      <c r="CL67" s="75"/>
-      <c r="CM67" s="75"/>
-      <c r="CN67" s="75"/>
-      <c r="CO67" s="75"/>
-      <c r="CQ67" s="78"/>
-      <c r="CR67" s="69" t="s">
+      <c r="CH67" s="99"/>
+      <c r="CI67" s="99"/>
+      <c r="CJ67" s="99"/>
+      <c r="CK67" s="99"/>
+      <c r="CL67" s="99"/>
+      <c r="CM67" s="99"/>
+      <c r="CN67" s="99"/>
+      <c r="CO67" s="99"/>
+      <c r="CQ67" s="64"/>
+      <c r="CR67" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="CS67" s="69"/>
-      <c r="CT67" s="89">
+      <c r="CS67" s="86"/>
+      <c r="CT67" s="85">
         <f>CT66+CT65</f>
         <v>0</v>
       </c>
-      <c r="CU67" s="89"/>
-      <c r="CV67" s="89">
+      <c r="CU67" s="85"/>
+      <c r="CV67" s="85">
         <f>CV66+CV65</f>
         <v>0</v>
       </c>
-      <c r="CW67" s="89"/>
-      <c r="CX67" s="89">
+      <c r="CW67" s="85"/>
+      <c r="CX67" s="85">
         <f>CX66+CX65</f>
         <v>0</v>
       </c>
-      <c r="CY67" s="89"/>
+      <c r="CY67" s="85"/>
     </row>
     <row r="68" spans="1:103" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC68" s="17"/>
       <c r="BL68" s="16"/>
       <c r="CD68" s="17"/>
-      <c r="CQ68" s="79"/>
+      <c r="CQ68" s="15"/>
     </row>
     <row r="69" spans="1:103" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -7771,6 +7764,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="CG67:CO67"/>
+    <mergeCell ref="BO67:BX67"/>
+    <mergeCell ref="BM67:BN67"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="BN63:BP63"/>
+    <mergeCell ref="BQ63:CC63"/>
+    <mergeCell ref="CV67:CW67"/>
+    <mergeCell ref="CX66:CY66"/>
+    <mergeCell ref="CX67:CY67"/>
+    <mergeCell ref="CR66:CS66"/>
+    <mergeCell ref="CR67:CS67"/>
+    <mergeCell ref="CT66:CU66"/>
+    <mergeCell ref="CT67:CU67"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="BO66:BX66"/>
     <mergeCell ref="BO65:BX65"/>
@@ -7780,13 +7787,6 @@
     <mergeCell ref="CV64:CW64"/>
     <mergeCell ref="CX64:CY64"/>
     <mergeCell ref="CV66:CW66"/>
-    <mergeCell ref="CV67:CW67"/>
-    <mergeCell ref="CX66:CY66"/>
-    <mergeCell ref="CX67:CY67"/>
-    <mergeCell ref="CR66:CS66"/>
-    <mergeCell ref="CR67:CS67"/>
-    <mergeCell ref="CT66:CU66"/>
-    <mergeCell ref="CT67:CU67"/>
     <mergeCell ref="CT65:CU65"/>
     <mergeCell ref="CV65:CW65"/>
     <mergeCell ref="CX65:CY65"/>
@@ -7794,13 +7794,6 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="CG65:CO65"/>
     <mergeCell ref="CG66:CO66"/>
-    <mergeCell ref="BM67:BN67"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="BN63:BP63"/>
-    <mergeCell ref="BQ63:CC63"/>
-    <mergeCell ref="CG67:CO67"/>
-    <mergeCell ref="BO67:BX67"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:CY61">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
@@ -7849,11 +7842,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8110,27 +8104,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d60c4bd7-076b-48b5-a8f6-681e9ebecbca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8155,9 +8139,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0951E87A-FA8C-48D0-88CA-CF0206A809A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDE787FC-5C0E-467F-975E-7260A02CA817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0b8ede39-f8ba-4fb3-8ce7-c901dd3246a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d60c4bd7-076b-48b5-a8f6-681e9ebecbca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>